--- a/assets/news/results/qualiperf_statistics.xlsx
+++ b/assets/news/results/qualiperf_statistics.xlsx
@@ -676,11 +676,7 @@
           <t>P6 - Reichenbach, P7 Ricken, P9 - Tautenhahn, Coordination</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t xml:space="preserve">10.1007/s00419-021-01907-3 </t>
@@ -816,11 +812,7 @@
           <t>P7 - Ricken, Coordination</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>10.1002/pamm.202100190</t>
@@ -910,11 +902,7 @@
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>10.1016/j.ijsolstr.2021.111412</t>
@@ -1099,11 +1087,7 @@
           <t>P1 - Christ, P2 - Dahmen, P3 - König, P4 - Marz, P5 - Radde, P6 - Reichenbach, P7 - Ricken, P8 - Schwen, P9 - Tautenhahn, Coordination</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>-</t>
@@ -1333,11 +1317,7 @@
           <t>P5 - Radde</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>10.1016/j.ifacol.2023.01.020</t>
@@ -1474,11 +1454,7 @@
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
           <t>10.1016/j.exco.2022.100087</t>
@@ -1618,11 +1594,7 @@
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
           <t>10.3390/w15010159</t>
@@ -1668,11 +1640,7 @@
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
           <t>10.3390/w15020343</t>
@@ -2238,11 +2206,7 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>10.20944/preprints202108.0303.v1</t>
@@ -2316,11 +2280,7 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.20944/preprints202108.0259.v1</t>
@@ -2470,11 +2430,7 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>10.48550/arXiv.2106.00844</t>
@@ -2549,11 +2505,7 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>10.1101/245076</t>
@@ -2589,11 +2541,7 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>10.20944/preprints202206.0137.v1</t>
@@ -2667,11 +2615,7 @@
           <t>P3 - König, P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>10.1101/2023.02.01.23285358</t>
@@ -2745,11 +2689,7 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>10.1101/2023.03.21.512712</t>
@@ -2787,11 +2727,7 @@
           <t>P3 - König, P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>10.1101/2023.04.12.536571</t>
@@ -2829,12 +2765,12 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We present 11 strategies for making </t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>10.31219/osf.io/kcvra</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">

--- a/assets/news/results/qualiperf_statistics.xlsx
+++ b/assets/news/results/qualiperf_statistics.xlsx
@@ -11,7 +11,10 @@
     <sheet name="publications" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="preprints" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="submissions" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="other" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="theses" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="posters" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="presentations" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="other" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +479,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -486,13 +489,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -514,17 +517,65 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>theses</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>posters</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>presentations</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>33</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>others</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>25</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22</v>
+      <c r="B8" t="n">
+        <v>26</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,40 +610,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Abstract</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>IF</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Qualiperf</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Authors Qualiperf</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Projects</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Pubmed</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>DOI</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Journal_ID</t>
         </is>
@@ -601,134 +662,166 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Application of magnetic resonance imaging in liver biomechanics: a systematic review</t>
+          <t>OMEX Metadata Specification Version 1.2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Seyedpour S, Nabati M,  Lambers L, Nafisi S, Tautenhahn HM, Sack I, Reichenbach J, Ricken T.</t>
+          <t xml:space="preserve">John Gennari, Matthias König, Goskel Misirli, Maxwell Neal, David Nickerson, Dagmar Waltemath </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Front Physiol. 2021 Sep 22;12:733393. doi: 10.3389/fphys.2021.733393. PMID: 34630152; PMCID: PMC8493836</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>44461</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t xml:space="preserve">A standardized approach to annotating computational biomedical models and their associated files can facilitate model reuse and reproducibility among research groups, enhance search and retrieval of models and data, and enable semantic comparisons between models. Motivated by these potential benefits and guided by consensus across the COmputational Modeling in BIology NEtwork (COMBINE) community, we have developed a specification for encoding annotations in Open Modeling and EXchange (OMEX)-formatted archives. This document details version 1.2 of the specification, which builds on version 1.0 published last year in this journal. In particular, this version includes a set of initial model-level annotations (whereas v 1.0 described exclusively annotations at a smaller scale). Additionally, this version uses best practices for namespaces, and introduces omex-library.org as a common root for all annotations. Distributing modeling projects within an OMEX archive is a best practice established by COMBINE, and the OMEX metadata specification presented here provides a harmonized, community-driven approach for annotating a variety of standardized model representations. This specification acts as a technical guideline for developing software tools that can support this standard, and thereby encourages broad advances in model reuse, discovery, and semantic analyses. </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>J Integr Bioinform. 2021 Oct 20;18(3):20210020. doi: 10.1515/jib-2021-0020. PMID: 34668356; PMCID: PMC8560343.</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>44416</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>P9 - Tautenhahn</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>34630152</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10.3389/fphys.2021.733393</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Front Physiol</t>
+          <t>P3 - König</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>34668356</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.1515/jib-2021-0020</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>J Integr Bioinform</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Model order reduction for deformable porous materials in thin domains via asymptotic analysis</t>
+          <t>The Simulation Experiment Description Markup Language (SED-ML): Language Specification for Level 1 Version 4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Armiti-Juber, Ricken T</t>
+          <t>Lucian P. Smith, Frank T. Bergmann, Alan Garny, Thomas Helikar, Jonathan Karr, David Nickerson, Herbert Sauro, Dagmar Waltemath, and Matthias König</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arch Appl Mech (2021). https://doi.org/10.1007/s00419-021-01907-3 </t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>44150</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t xml:space="preserve">Computational simulation experiments increasingly inform modern biological research, and bring with them the need to provide ways to annotate, archive, share and reproduce the experiments performed. These simulations increasingly require extensive collaboration among modelers, experimentalists, and engineers. The Minimum Information About a Simulation Experiment (MIASE) guidelines outline the information needed to share simulation experiments. SED-ML is a computer-readable format for the information outlined by MIASE, created as a community project and supported by many investigators and software tools. The first versions of SED-ML focused on deterministic and stochastic simulations of models. Level 1 Version 4 of SED-ML substantially expands these capabilities to cover additional types of models, model languages, parameter estimations, simulations and analyses of models, and analyses and visualizations of simulation results. To facilitate consistent practices across the community, Level 1 Version 4 also more clearly describes the use of SED-ML constructs, and includes numerous concrete validation rules. SED-ML is supported by a growing ecosystem of investigators, model languages, and software tools, including eight languages for constraint-based, kinetic, qualitative, rule-based, and spatial models, over 20 simulation tools, visual editors, model repositories, and validators. Additional information about SED-ML is available at https://sed-ml.org/. </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>J Integr Bioinform. 2021 Oct 5;18(3):20210021. doi: 10.1515/jib-2021-0021. PMID: 35330701; PMCID: PMC8560344</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>44416</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>P6 - Reichenbach, P7 Ricken, P9 - Tautenhahn, Coordination</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.1007/s00419-021-01907-3 </t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Arch Appl Mech</t>
+          <t>P3 - König</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>35330701</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>10.1515/jib-2021-0021</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>J Integr Bioinform</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hepatectomy-Induced Alterations in Hepatic Perfusion and Function - Toward Multi-Scale Computational Modeling for a Better Prediction of Post-hepatectomy Liver Function</t>
+          <t>Application of magnetic resonance imaging in liver biomechanics: a systematic review</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bruno Christ, Maximilian Collatz, Uta Dahmen, Karl-Heinz Herrmann, Sebastian Höpfl, Matthias König, Lena Lambers, Manja Marz, Daria Meyer, Nicole Radde, Jürgen R. Reichenbach, Tim Ricken and Hans-Michael Tautenhahn</t>
+          <t>Seyedpour S, Nabati M,  Lambers L, Nafisi S, Tautenhahn HM, Sack I, Reichenbach J, Ricken T.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Front Physiol. 2021 Nov 18;12:733868. doi: 10.3389/fphys.2021.733868. PMID: 34867441; PMCID: PMC8637208</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+          <t>MRI-based biomechanical studies can provide a deep understanding of the mechanisms governing liver function, its mechanical performance but also liver diseases. In addition, comprehensive modeling of the liver can help improve liver disease treatment. Furthermore, such studies demonstrate the beginning of an engineering-level approach to how the liver disease affects material properties and liver function. Aimed at researchers in the field of MRI-based liver simulation, research articles pertinent to MRI-based liver modeling were identified, reviewed, and summarized systematically. Various MRI applications for liver biomechanics are highlighted, and the limitations of different viscoelastic models used in magnetic resonance elastography are addressed. The clinical application of the simulations and the diseases studied are also discussed. Based on the developed questionnaire, the papers' quality was assessed, and of the 46 reviewed papers, 32 papers were determined to be of high-quality. Due to the lack of the suitable material models for different liver diseases studied by magnetic resonance elastography, researchers may consider the effect of liver diseases on constitutive models. In the future, research groups may incorporate various aspects of machine learning (ML) into constitutive models and MRI data extraction to further refine the study methodology. Moreover, researchers should strive for further reproducibility and rigorous model validation and verification.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Front Physiol. 2021 Sep 22;12:733393. doi: 10.3389/fphys.2021.733393. PMID: 34630152; PMCID: PMC8493836</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>44518</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="F4" s="2" t="n">
+        <v>44461</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>P1 - Christ, P2 - Dahmen, P3 - König, P4 - Marz, P5 - Radde, P6 - Reichenbach, P7 - Ricken, P8 - Schwen, P9 - Tautenhahn, Coordination</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>34867441</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hans-Michael Tautenhahn, Jürgen R. Reichenbach, Tim Ricken </t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.3389/fphys.2021.733868</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>P9 - Tautenhahn</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>34630152</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>10.3389/fphys.2021.733393</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Front Physiol</t>
         </is>
@@ -737,1382 +830,1765 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mesenchymal stromal cells mitigate liver damage after extended resection in the pig by modulating thrombospondin-1/TGF-β</t>
+          <t>Model order reduction for deformable porous materials in thin domains via asymptotic analysis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nickel S*, Vlaic S*, Christ M*, Schubert K, Henschler R, Tautenhahn F, Burger C, Kühne H, Erler S, Roth A, Wild C, Brach J, Hammad S, Gittel C, Baunack M, Lange U, Broschewitz J, Stock P, Metelmann I, Bartels M, Pietsch U-C, Krämer S, Eichfeld U, von Bergen M, Dooley S*, Tautenhahn H-M*, Christ B*</t>
+          <t>Armiti-Juber, Ricken T</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NPJ Regen Med. 2021 Dec 3;6(1):84. doi: 10.1038/s41536-021-00194-4. PMID: 34862411; PMCID: PMC8642541</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>44533</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t>We study fluid-saturated porous materials that undergo poro-elastic deformations in thin domains. The mechanics in such materials are described using a biphasic model based on the theory of porous media (TPM) and consisting of a system of differential equations for material’s displacement and fluid’s pressure. These equations are in general strongly coupled and nonlinear, such that exact solutions are hard to obtain and numerical solutions are computationally expensive. This paper reduces the complexity of the biphasic model in thin domains with a scale separation between domain’s width and length. Based on standard asymptotic analysis, we derive a reduced model that combines two sub-models. Firstly, a limit model consists of averaged equations that describe the fluid pore pressure and displacement in the longitudinal direction of the domain. Secondly, a corrector model re-captures the mechanics in the transverse direction. The validity of the reduced model is finally tested using a set of numerical examples. These demonstrate the computational efficiency of the reduced model, while maintaining reliable solutions in comparison with original biphasic TPM model in thin domain.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arch Appl Mech (2021). https://doi.org/10.1007/s00419-021-01907-3 </t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>44150</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>P1, P9</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>34862411</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tim Ricken</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.1038/s41536-021-00194-4</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NPJ Regen Med</t>
+          <t>P6 - Reichenbach, P7 - Ricken, P9 - Tautenhahn, Coordination</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.1007/s00419-021-01907-3 </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Arch Appl Mech</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Semi-automated Data-driven FE Mesh Generation and InverseParameter Identification for a Multiscale and Multiphase Model ofFunction-Perfusion Processes in the Liver</t>
+          <t>Hepatectomy-Induced Alterations in Hepatic Perfusion and Function - Toward Multi-Scale Computational Modeling for a Better Prediction of Post-hepatectomy Liver Function</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lambers Lena, Mielke Andre, Ricken Tim</t>
+          <t>Bruno Christ, Maximilian Collatz, Uta Dahmen, Karl-Heinz Herrmann, Sebastian Höpfl, Matthias König, Lena Lambers, Manja Marz, Daria Meyer, Nicole Radde, Jürgen R. Reichenbach, Tim Ricken and Hans-Michael Tautenhahn</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PAMM·Proc. Appl. Math. Mech.2021;21:1 e202100190. doi: 10.1002/pamm.202100190</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>44462</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t>Liver resection causes marked perfusion alterations in the liver remnant both on the organ scale (vascular anatomy) and on the microscale (sinusoidal blood flow on tissue level). These changes in perfusion affect hepatic functions via direct alterations in blood supply and drainage, followed by indirect changes of biomechanical tissue properties and cellular function. Changes in blood flow impose compression, tension and shear forces on the liver tissue. These forces are perceived by mechanosensors on parenchymal and non-parenchymal cells of the liver and regulate cell-cell and cell-matrix interactions as well as cellular signaling and metabolism. These interactions are key players in tissue growth and remodeling, a prerequisite to restore tissue function after PHx. Their dysregulation is associated with metabolic impairment of the liver eventually leading to liver failure, a serious post-hepatectomy complication with high morbidity and mortality. Though certain links are known, the overall functional change after liver surgery is not understood due to complex feedback loops, non-linearities, spatial heterogeneities and different time-scales of events. Computational modeling is a unique approach to gain a better understanding of complex biomedical systems. This approach allows (i) integration of heterogeneous data and knowledge on multiple scales into a consistent view of how perfusion is related to hepatic function; (ii) testing and generating hypotheses based on predictive models, which must be validated experimentally and clinically. In the long term, computational modeling will (iii) support surgical planning by predicting surgery-induced perfusion perturbations and their functional (metabolic) consequences; and thereby (iv) allow minimizing surgical risks for the individual patient. Here, we review the alterations of hepatic perfusion, biomechanical properties and function associated with hepatectomy. Specifically, we provide an overview over the clinical problem, preoperative diagnostics, functional imaging approaches, experimental approaches in animal models, mechanoperception in the liver and impact on cellular metabolism, omics approaches with a focus on transcriptomics, data integration and uncertainty analysis, and computational modeling on multiple scales. Finally, we provide a perspective on how multi-scale computational models, which couple perfusion changes to hepatic function, could become part of clinical workflows to predict and optimize patient outcome after complex liver surgery.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Front Physiol. 2021 Nov 18;12:733868. doi: 10.3389/fphys.2021.733868. PMID: 34867441; PMCID: PMC8637208</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>44518</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>P7 - Ricken, Coordination</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bruno Christ, Uta Dahmen, Karl-Heinz Herrmann, Sebastian Höpfl, Matthias König, Lena Lambers, Manja Marz, Daria Meyer, Nicole Erika Radde, Jürgen R. Reichenbach, Tim Ricken, Hans-Michael Tautenhahn</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10.1002/pamm.202100190</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>PAMM Proc Appl Math Mech</t>
+          <t>P1 - Christ, P2 - Dahmen, P3 - König, P4 - Marz, P5 - Radde, P6 - Reichenbach, P7 - Ricken, P8 - Schwen, P9 - Tautenhahn, Coordination</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>34867441</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.3389/fphys.2021.733868</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Front Physiol</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Greasy hair against obesity</t>
+          <t>Mesenchymal stromal cells mitigate liver damage after extended resection in the pig by modulating thrombospondin-1/TGF-β</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nickel S, Christ B</t>
+          <t>Nickel S*, Vlaic S*, Christ M*, Schubert K, Henschler R, Tautenhahn F, Burger C, Kühne H, Erler S, Roth A, Wild C, Brach J, Hammad S, Gittel C, Baunack M, Lange U, Broschewitz J, Stock P, Metelmann I, Bartels M, Pietsch U-C, Krämer S, Eichfeld U, von Bergen M, Dooley S*, Tautenhahn H-M*, Christ B*</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Signal Transduction and Targeted Therapy (2021)6:429; https://doi.org/10.1038/s41392-021-00850-7</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>44547</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t>Post-surgery liver failure is a serious complication for patients after extended partial hepatectomies (ePHx). Previously, we demonstrated in the pig model that transplantation of mesenchymal stromal cells (MSC) improved circulatory maintenance and supported multi-organ functions after 70% liver resection. Mechanisms behind the beneficial MSC effects remained unknown. Here we performed 70% liver resection in pigs with and without MSC treatment, and animals were monitored for 24 h post surgery. Gene expression profiles were determined in the lung and liver. Bioinformatics analysis predicted organ-independent MSC targets, importantly a role for thrombospondin-1 linked to transforming growth factor-β (TGF-β) and downstream signaling towards providing epithelial plasticity and epithelial-mesenchymal transition (EMT). This prediction was supported histologically and mechanistically, the latter with primary hepatocyte cell cultures. MSC attenuated the surgery-induced increase of tissue damage, of thrombospondin-1 and TGF-β, as well as of epithelial plasticity in both the liver and lung. This suggests that MSC ameliorated surgery-induced hepatocellular stress and EMT, thus supporting epithelial integrity and facilitating regeneration. MSC-derived soluble factor(s) did not directly interfere with intracellular TGF-β signaling, but inhibited thrombospondin-1 secretion from thrombocytes and non-parenchymal liver cells, therewith obviously reducing the availability of active TGF-β.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NPJ Regen Med. 2021 Dec 3;6(1):84. doi: 10.1038/s41536-021-00194-4. PMID: 34862411; PMCID: PMC8642541</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>44533</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>P1 - Christ</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>34921132</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hans-Michael Tautenhahn*, Bruno Christ*</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10.1038/s41392-021-00850-7</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Signal Transduction and Targeted Therapy</t>
+          <t>P1 - Christ, P9 - Tautenhahn</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>34862411</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.1038/s41536-021-00194-4</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>NPJ Regen Med</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Theoretical formulation and computational aspects of a two-scale homogenization scheme combining the TPM and FE2 method for poro-elastic fuid-saturated porous media</t>
+          <t>Semi-automated Data-driven FE Mesh Generation and InverseParameter Identification for a Multiscale and Multiphase Model ofFunction-Perfusion Processes in the Liver</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ricken Tim, Schröder Jörg, Bluhm Joachim, Maike Simon, Bartel Florian</t>
+          <t>Lambers Lena, Mielke Andre, Ricken Tim</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>International Journal of Solid and Structures</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>44206</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t>Biomechanical modeling enables a better understanding and prediction of various processes in the human body. To make thissimulation more patient-specific, realistic geometries of liver lobules are included in an existing knowledge-based model forthe simulation of hepatic function-perfusion processes in the human liver. This model allows the simulation of liver diseasessuch as the non-alcoholic fatty liver disease (NAFLD) or tumor development.  The basis of this calculation is a continuum-biomechanical multiscale and multiphase model based on the Theory of Porous Media.  To capture the function-perfusionand growth processes in the liver, partial differential equations (PDEs) on the lobule scale are coupled to ordinary differentialequations (ODEs) describing metabolic processes on the cellular scale.  Additionally, we used manifold learning techniqueson in silico data for the identification of inverted fat zonation during NAFLD.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PAMM·Proc. Appl. Math. Mech.2021;21:1 e202100190. doi: 10.1002/pamm.202100190</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>44462</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>P7 - Ricken</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10.1016/j.ijsolstr.2021.111412</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>International Journal of Solid and Structures</t>
+          <t>P7 - Ricken, Coordination</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>10.1002/pamm.202100190</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>PAMM Proc Appl Math Mech</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ramipril Reduces Acylcarnitines and Distinctly Increases Angiotensin-Converting Enzyme 2 Expression in Lungs of Rats</t>
+          <t>Greasy hair against obesity</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kosacka J*, Berger C, Ceglarek U, Hoffmann A, Blüher M, Klöting N </t>
+          <t>Nickel S, Christ B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Metabolites. 2022 Mar 26;12(4):293. doi: 10.3390/metabo12040293. PMID: 35448480; PMCID: PMC9028516.</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>44646</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>In their article, Choa et al. open the perspective to loose fat by increasing sebogenesis. Envisioning a T cell-dependent mechanism, they suggest that stimulation of sebum production by thymic stromal lymphopeietin (TSLP) “pulls” lipids out of the adipose tissue.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Signal Transduction and Targeted Therapy (2021)6:429; https://doi.org/10.1038/s41392-021-00850-7</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>44547</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bruno Christ</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>P1 - Christ</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>35448480</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>10.3390/metabo12040293</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Metabolites</t>
+      <c r="J9" t="n">
+        <v>34921132</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>10.1038/s41392-021-00850-7</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Signal Transduction and Targeted Therapy</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Theoretical formulation and computational aspects of a two-scale homogenization scheme combining the TPM and FE2 method for poro-elastic fuid-saturated porous media</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ricken Tim, Schröder Jörg, Bluhm Joachim, Maike Simon, Bartel Florian</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The focus of this investigation lies on the development of a two-scale homogenization scheme for poro-elastic fluid-saturated porous media. For this purpose, the general concepts of the Theory of Porous Media (TPM) are combined with the FE method. After an introduction of the basics of TPM, the weak forms for the macroscopic and the microscopic scale will be formulated and the averaged macroscopic tangent moduli considering the microscale will be derived. Additionally, the formulation of lower level boundary conditions, which refer to the quantities that will be transmitted from the macro- to the microscale, in strict compliance with the Hill–Mandel homogeneity condition, is derived. Finally, a numerical example will be presented, pointing out the gained features of the methodology.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>International Journal of Solid and Structures</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>44206</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tim Ricken</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>P7 - Ricken</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>10.1016/j.ijsolstr.2021.111412</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>International Journal of Solid and Structures</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ramipril Reduces Acylcarnitines and Distinctly Increases Angiotensin-Converting Enzyme 2 Expression in Lungs of Rats</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kosacka J*, Berger C, Ceglarek U, Hoffmann A, Blüher M, Klöting N </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>The angiotensin-converting enzyme 2 (ACE2) receptor has been identified as the entry receptor for the severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) that is abundantly expressed in many organs. With respect to the role of circulating ACE2 and its receptor expression in the pathogenesis of the SARS-CoV-2 infection, it is still debated whether diseases such as hypertension or pharmacotherapies, including ACE inhibitors and angiotensin receptor blockers that affect ACE2 receptor expression, may modulate the severity and outcome of the coronavirus disease 2019 (COVID-19). We therefore tested the hypothesis that treatment with the ACE inhibitor Ramipril affects organ-specific ACE2 receptor mRNA and protein expression as well as the serum metabolome in BioBreeding (BB) rats. Twelve male BioBreeding rats were randomly divided into a Ramipril (10 mg/kg body weight) treatment group or a control group (N = 12; n = 6 per group) over a period of seven days. Ramipril treatment resulted in the reduction of acylcarnitines (C3–C6) out of 64 metabolites. Among the different organs studied, only in the lungs did Ramipril treatment significantly increase both Ace2 mRNA and ACE2 receptor membrane protein levels. Increased ACE2 receptor lung expression after Ramipril treatment was not associated with differences in ACE2 serum concentrations between experimental groups. Our data provide experimental in vivo evidence that the ACE inhibitor Ramipril selectively increases pulmonary ACE2 receptor mRNA and protein levels and reduces acylcarnitines.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Metabolites. 2022 Mar 26;12(4):293. doi: 10.3390/metabo12040293. PMID: 35448480; PMCID: PMC9028516.</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>44646</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Joanna Kosacka</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>P1 - Christ</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>35448480</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>10.3390/metabo12040293</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Metabolites</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Specifications of standards in systems and synthetic biology: status and developments in 2021</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Falk Schreiber, Padraig Gleeson, Martin Golebiewski, Thomas E. Gorochowski, Michael Hucka, Sarah M. Keating, Matthias König, Chris J. Myers, David P. Nickerson, Björn Sommer, Dagmar Waltemath</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>This special issue of the Journal of Integrative Bioinformatics contains updated specifications of COMBINE standards in systems and synthetic biology. The 2021 special issue presents four updates of standards: Synthetic Biology Open Language Visual Version 2.3, Synthetic Biology Open Language Visual Version 3.0, Simulation Experiment Description Markup Language Level 1 Version 4, and OMEX Metadata specification Version 1.2. This document can also be consulted to identify the latest specifications of all COMBINE standards.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>J Integr Bioinform. 2021 Oct 22;18(3):20210026. doi: 10.1515/jib-2021-0026. PMID: 34674411; PMCID: PMC8573232.
 https://doi.org/10.1515/jib-2021-0026</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="E12" t="n">
         <v>1.9</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="F12" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matthias König </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="J12" t="n">
         <v>34674411</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>10.1515/jib-2021-0026</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>J Integr Bioinform</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Editorial: Computational Modeling for Liver Surgery and Interventions</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Bruno Christ, Uta Dahmen, Nicole Radde, Tim Ricken</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">not available </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Front Physiol. 2022 Feb 15;13:859522. doi: 10.3389/fphys.2022.859522. PMID: 35242057; PMCID: PMC8886156</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="E13" t="n">
         <v>4</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="F13" s="2" t="n">
         <v>44664</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>P1, P2, P5, P7</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Bruno Christ, Uta Dahmen, Nicole Erika Radde, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>P1 - Christ, P2 - Dahmen, P5 - Radde, P7 - Ricken</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v>35242057</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>10.3389/fphys.2022.859522</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Front Physiol</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>QuaLiPerF - Multi-X Liver Modelling</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Tim Ricken, Lena Lambers, Bruno Christ, Uta Dahmen, Karl-Heinz Herrmann, Matthias
 König, Manja Marz, Nicole Radde, Jürgen R. Reichenbach, Lars Ole Schwen, and
 Hans-Michael Tautenhahn</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>In this paper we present the objectives regarding
+multi-X liver modelling of the recently DFG-funded research
+unit QuaLiPerF (Quantifying Liver Perfusion-
+Function Relationship in Complex Resection { A Systems
+Medicine Approach). The aim of the research
+unit (RU) is to elucidate the interactions between the
+changes in blood 
+ow in the liver, also called perfusion,
+when normalized on liver volume, and the metabolic
+function of the liver. It will be investigated how this
+function-perfusion interaction will be in
+uenced by a
+liver resection operation and how this knowledge can
+be used in the clinical practise. On this basis, a model
+of the perfusion of the liver and its function is to be
+developed, which in the long term will make it possible
+to better predict liver function and regeneration after
+surgery and thus minimize the risk of liver failure, see
+Figure 1. The challenge of modelling biological systems
+is that they are by nature highly complex and often
+dicult to understand. Two main reasons are that
+biological systems
+i) are developed in an evolutionary process in contrast
+to deliberate design on a white-board, and that
+ii) they are inherently multiscale and consist of specialized
+cells that form tissues capable of performing
+multiple functions.
+Thus, multiscale modelling including evolutionary
+optimisation can contribute to a better understanding
+of the biology underlying these complex systems.
+The simulation can potentially support clinical
+decision-making based on predictions obtained as
+simulation output.
+Two scenarios are clinically important: to predict
+the progression of liver disease with and without a
+given treatment, and to predict the outcome after major
+removal of liver mass as needed in case of hepatic
+malignancies. The outcome is dependent on the individual
+risk of liver failure and the putative course of
+liver regeneration which is related to the planned type
+and extent of liver resection and the severity of an eventually
+underlying disease of the liver, such as steatosis,
+brosis or even cirrhosis and the overall condition of
+the patient. Thus, the liver is an ideal showcase for
+complex biological systems.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GACM-Report</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="E14" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="F14" s="2" t="n">
         <v>44175</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tim Ricken, Lena Lambers, Bruno Christ, Uta Dahmen, Karl-Heinz Herrmann, Matthias König
+König, Manja Marz, Nicole Radde, Jürgen R. Reichenbach, Lars Ole Schwen, and
+Hans-Michael Tautenhahn</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>P1 - Christ, P2 - Dahmen, P3 - König, P4 - Marz, P5 - Radde, P6 - Reichenbach, P7 - Ricken, P8 - Schwen, P9 - Tautenhahn, Coordination</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>GACM-Report</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Streptozotocin-Induced Diabetes Causes Changes in
 Serotonin-Positive Neurons in the Small Intestine in Pig Model</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">Bulc, M.; Palus, K.; Całka, J.; Kosacka, J.; Nowicki, M. </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Serotonin (5-hydroxytryptamine or 5-HT) is an important neurotransmitter of the central
+and peripheral nervous systems, predominantly secreted in the gastrointestinal tract, especially in
+the gut. 5-HT is a crucial enteric signaling molecule and is well known for playing a key role in
+sensory-motor and secretory functions in the gut. Gastroenteropathy is one of the most clinical
+problems in diabetic patients with frequent episodes of hyperglycemia. Changes in 5-HT expression
+may mediate gastrointestinal tract disturbances seen in diabetes, such as nausea and diarrhea. Based
+on the double immunohistochemical staining, this study determined the variability in the population
+of 5-HT-positive neurons in the porcine small intestinal enteric neurons in the course of streptozotocininduced diabetes. The results show changes in the number of 5-HT-positive neurons in the examined
+intestinal sections. The greatest changes were observed in the jejunum, particularly within the
+myenteric plexus. In the ileum, both de novo 5-HT synthesis in the inner submucosal plexus neurons
+and an increase in the number of neurons in the outer submucosal plexus were noted. The changes
+observed in the duodenum were also increasing in nature. The results of the current study confirm
+the previous observations concerning the involvement of 5-HT in inflammatory processes, and an
+increase in the number of 5-HT -positive neurons may also be a result of increased concentration of
+the 5-HT in the gastrointestinal tract wall and affects the motor and secretory processes, which are
+particularly intense in the small intestines.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Int J Mol Sci. 2022 Apr 20;23(9):4564. doi: 10.3390/ijms23094564. PMID: 35562954; PMCID: PMC9099899</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="E15" t="n">
         <v>5.6</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="F15" s="2" t="n">
         <v>44671</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Joanna Kosacka</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>P1 - Christ</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>35562954</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>10.3390/ijms23094564</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Int J Mol Sci</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>BioSimulators: a central registry of simulation engines and services for recommending specific tools</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Shaikh B, Smith LP, Vasilescu D, Marupilla G, Wilson M, Agmon E, Agnew H, Andrews SS, Anwar A, Beber ME, Bergmann FT, Brooks D, Brusch L, Calzone L, Choi K, Cooper J, Detloff J, Drawert B, Dumontier M, Ermentrout GB, Faeder JR, Freiburger AP, Fröhlich F, Funahashi A, Garny A, Gennari JH, Gleeson P, Goelzer A, Haiman Z, Hasenauer J, Hellerstein JL, Hermjakob H, Hoops S, Ison JC, Jahn D, Jakubowski HV, Jordan R, Kalaš M, &lt;b&gt;König M&lt;/b&gt;, Liebermeister W, Sheriff RSM, Mandal S, McDougal R, Medley JK, Mendes P, Müller R, Myers CJ, Naldi A, Nguyen TVN, Nickerson DP, Olivier BG, Patoliya D, Paulevé L, Petzold LR, Priya A, Rampadarath AK, Rohwer JM, Saglam AS, Singh D, Sinha A, Snoep J, Sorby H, Spangler R, Starruß J, Thomas PJ, van Niekerk D, Weindl D, Zhang F, Zhukova A, Goldberg AP, Schaff JC, Blinov ML, Sauro HM, Moraru II, Karr JR.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Computational models have great potential to accelerate bioscience, bioengineering, and medicine. However, it remains challenging to reproduce and reuse simulations, in part, because the numerous formats and methods for simulating various subsystems and scales remain siloed by different software tools. For example, each tool must be executed through a distinct interface. To help investigators find and use simulation tools, we developed BioSimulators (https://biosimulators.org), a central registry of the capabilities of simulation tools and consistent Python, command-line and containerized interfaces to each version of each tool. The foundation of BioSimulators is standards, such as CellML, SBML, SED-ML and the COMBINE archive format, and validation tools for simulation projects and simulation tools that ensure these standards are used consistently. To help modelers find tools for particular projects, we have also used the registry to develop recommendation services. We anticipate that BioSimulators will help modelers exchange, reproduce, and combine simulations.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Nucleic Acids Res. 2022 Jul 5;50(W1):W108-W114. doi: 10.1093/nar/gkac331. PMID: 35524558; PMCID: PMC9252793</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="E16" t="n">
         <v>14.9</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="F16" s="2" t="n">
         <v>44688</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="J16" t="n">
         <v>35524558</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>10.1093/nar/gkac331</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Nucleic Acids Res</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Human Mesenchymal Stromal Cells Resolve Lipid Load in High Fat Diet‐Induced Non‐Alcoholic  Steatohepatitis in Mice by Mitochondria Donation</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Sandra Nickel, Madlen Christ, Sandra Schmidt, Joanna Kosacka, Hagen Kühne, Martin Roderfeld,
 Thomas Longerich, Lysann Tietze, Ina Bosse, Mei‐Ju Hsu, Peggy Stock, Elke Roeb, Bruno Christ</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mesenchymal stromal cells (MSC) increasingly emerge as an option to ameliorate non-alcoholic steatohepatitis (NASH), a serious disease, which untreated may progress to liver cirrhosis and cancer. Before clinical translation, the mode of action of MSC needs to be established. Here, we established NASH in an immune-deficient mouse model by feeding a high fat diet. Human bone-marrow-derived MSC were delivered to the liver via intrasplenic transplantation. As verified by biochemical and image analyses, human mesenchymal stromal cells improved high-fat-diet-induced NASH in the mouse liver by decreasing hepatic lipid content and inflammation, as well as by restoring tissue homeostasis. MSC-mediated changes in gene expression indicated the switch from lipid storage to lipid utilization. It was obvious that host mouse hepatocytes harbored human mitochondria. Thus, it is feasible that resolution of NASH in mouse livers involved the donation of human mitochondria to the mouse hepatocytes. Therefore, human MSC might provide oxidative capacity for lipid breakdown followed by restoration of metabolic and tissue homeostasis.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Cells. 2022 Jun 2;11(11):1829. doi: 10.3390/cells11111829. PMID: 35681524; PMCID: PMC9180625</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="E17" t="n">
         <v>6</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="F17" s="2" t="n">
         <v>44714</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joanna Kosacka, Lysann Tietze, Bruno Christ </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>P1 - Christ</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="J17" t="n">
         <v>35681524</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>10.3390/cells11111829</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Cells</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Model-based design of a synthetic oscillator based on an epigenetic methylation memory system</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Viviane Klingel, Dimitri Graf, Sara Weirich, Albert Jeltsch, Nicole E. Radde</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ACS Synth Biol. 2022 Jul 15;11(7):2445-2455. doi: 10.1021/acssynbio.2c00118. Epub 2022 Jun 24. PMID: 35749318; PMCID: PMC9295699</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>44714</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>P5 - Radde</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>35749318</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.1021/acssynbio.2c00118</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>ACS Synth Biol</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>An inverse transformation algorithm to infer parameter distributions from population snapshot data</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Vincent Wagner, Sebastian Höpfl, Viviane Klingel, Maria C. Pop, Nicole E. Radde</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>IFAC-PapersOnLine, 9th IFAC Conference on Foundations of Systems Biology in Engineering FOSBE 2022, https://doi.org/10.1016/j.ifacol.2023.01.020</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>44714</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>P5 - Radde</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>10.1016/j.ifacol.2023.01.020</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>IFAC-PapersOnLine</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Multimodale Therapie bei Lebermetastasen kolorektaler Karzinome in kurativer Intention</t>
+          <t>Model-based design of a synthetic oscillator based on an epigenetic methylation memory system</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">PD Dr. med. Hans-Michael Tautenhahn, Sandra Nickel, Eva Maria Kindler, Utz Settmacher </t>
+          <t>Viviane Klingel, Dimitri Graf, Sara Weirich, Albert Jeltsch, Nicole E. Radde</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chirurgie (Heidelb). 2022 Jul;93(7):652-658. German. doi: 10.1007/s00104-022-01665-0. Epub 2022 Jun 8. PMID: 35771270</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>44720</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t xml:space="preserve">Oscillations are an important component in biological systems; grasping their mechanisms and regulation, however, is difficult. Here, we use the theory of dynamical systems to support the design of oscillatory systems based on epigenetic control elements. Specifically, we use results that extend the Poincaré-Bendixson theorem for monotone control systems that are coupled to a negative feedback circuit. The methodology is applied to a synthetic epigenetic memory system based on DNA methylation that serves as a monotone control system, which is coupled to a negative feedback. This system is generally able to show sustained oscillations according to its structure; however, a first experimental implementation showed that fine-tuning of several parameters is required. We provide design support by exploring the experimental design space using systems-theoretic analysis of a computational model. </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ACS Synth Biol. 2022 Jul 15;11(7):2445-2455. doi: 10.1021/acssynbio.2c00118. Epub 2022 Jun 24. PMID: 35749318; PMCID: PMC9295699</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>44714</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>P9 - Tautenhahn</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>35771270</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicole Erika Radde </t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10.1007/s00104-022-01665-0</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Chirurgie</t>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>35749318</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.1021/acssynbio.2c00118</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>ACS Synth Biol</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Quasi-Entropy Closure: A Fast and Reliable Approach to Close the Moment Equations of the Chemical Master Equation</t>
+          <t>An inverse transformation algorithm to infer parameter distributions from population snapshot data</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wagner V, Castellaz B, Oesting M, Radde N</t>
+          <t>Vincent Wagner, Sebastian Höpfl, Viviane Klingel, Maria C. Pop, Nicole E. Radde</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Bioinformatics. 2022 Sep 15;38(18):4352-4359. doi: 10.1093/bioinformatics/btac501. PMID: 35916726</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>44760</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t>Population snapshot data can be used to study heterogeneity in cell populations. Various approaches to integrating such data into computational models have been published, which enable new treatment strategies for cancer therapy, by exploiting the intra-tumor heterogeneity. A precision medicine approach for the cure of cancer could benefit from the combination of single-cell data and respective analytical methods. Here, we introduce the inverse transformation algorithm, which transforms population snapshot data to parameter distributions that are consistent with the underlying data given a dynamic model with distributed parameters. Therefore, it enables the assessment of the heterogeneity in and behavior of the whole underlying cell population. In contrast to the frequently used Approximate Bayesian Computation methods for population matching, our algorithm is a non-parametric likelihood-free approach. It directly computes a density function value for a single parameter based on density transformation methods. If the model can be described as a one-to-one map that invertibly maps parameters to measurable outputs, the inverse transformation algorithm asymptotically returns the true underlying parameter distribution.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>IFAC-PapersOnLine, 9th IFAC Conference on Foundations of Systems Biology in Engineering FOSBE 2022, https://doi.org/10.1016/j.ifacol.2023.01.020</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>44714</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>P5 - Radde</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>35916726</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.1093/bioinformatics/btac501</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Bioinformatics</t>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>10.1016/j.ifacol.2023.01.020</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>IFAC-PapersOnLine</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Multimodale Therapie bei Lebermetastasen kolorektaler Karzinome in kurativer Intention</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PD Dr. med. Hans-Michael Tautenhahn, Sandra Nickel, Eva Maria Kindler, Utz Settmacher </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depending on the patient's constitution, the biological conditions of the primary tumor, the metastases and the liver function and perfusion, a variety of therapeutic options are available. The basis of metastatic surgery of the liver is partial liver resection. Multimodal therapies with local and systemic approaches are used in functionally or oncologically borderline situations. They are intended to improve long-term success and allow curative treatment in more patients. In recent years, for isolated lesions that cannot be removed by partial liver resection, an R0 situation is achieved in selected patients by liver transplantation with good long-term success. The large number of treatment options and the increasing individualization of therapy require treatment planning in the interdisciplinary tumor board. Also, in view of promising studies, for example, in the field of liver transplantation as well as regional therapy methods, the range of treatment options has not yet been exhausted. </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Chirurgie (Heidelb). 2022 Jul;93(7):652-658. German. doi: 10.1007/s00104-022-01665-0. Epub 2022 Jun 8. PMID: 35771270</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Hans-Michael Tautenhahn, Eva Maria Kindler</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>P9 - Tautenhahn</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>35771270</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>10.1007/s00104-022-01665-0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Chirurgie</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Quasi-Entropy Closure: A Fast and Reliable Approach to Close the Moment Equations of the Chemical Master Equation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Wagner V, Castellaz B, Oesting M, Radde N</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Motivation The Chemical Master Equation is the most comprehensive stochastic approach to describe the evolution of a (bio-)chemical reaction system. Its solution is a time-dependent probability distribution on all possible configurations of the system. As the number of possible configurations is typically very large, the Master Equation is often practically unsolvable. The Method of Moments reduces the system to the evolution of a few moments of this distribution, which are described by a system of ordinary differential equations. Those equations are not closed, since lower order moments generally depend on higher order moments. Various closure schemes have been suggested to solve this problem, with different advantages and limitations. Two major problems with these approaches are first that they are open loop systems, which can diverge from the true solution, and second, some of them are computationally expensive.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Bioinformatics. 2022 Sep 15;38(18):4352-4359. doi: 10.1093/bioinformatics/btac501. PMID: 35916726</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicole Erika Radde </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>35916726</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.1093/bioinformatics/btac501</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Bioinformatics</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>On robust discretization methods for poroelastic problems: Numerical examples and counter-examples</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Fleurianne Bertrand ,Maximilian Brodbeck, Tim Ricken</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Finite element approximations of poroelastic materials are nowadays used within multiple applications. Due to wide variation of possible material parameters, robustness of the considered discretization is important. Within this contribution robust of discretization schemes, initially developed for Biot’s theory, will be applied within the Theory of Porous Media. Selected numerical test-cases, special attention will be paid to incompressible and impermeable regimes, are conducted.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Examples and Counterexamples, 
 https://doi.org/10.1016/j.exco.2022.100087</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="E22" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="F22" s="2" t="n">
         <v>44832</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tim Ricken </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>10.1016/j.exco.2022.100087</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Examples and Counterexamples</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>libRoadRunner 2.0: A High-Performance SBML Simulation and Analysis Library</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Ciaran Welsh, Jin Xu, Lucian Smith, Matthias König, Kiri Choi, Herbert M. Sauro</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Motivation: This paper presents libRoadRunner 2.0, an extensible, high-performance, cross-platform, open-source software library for the simulation and analysis of models expressed using the Systems Biology Markup Language (SBML). Results: libRoadRunner is a self-contained library, able to run either as a component inside other tools via its C ++, C and Python APIs, or interactively through its Python or Julia interface. libRoadRunner uses a custom Just-In-Time (JIT) compiler built on the widely-used LLVM JIT compiler framework. It compiles SBML-specified models directly into native machine code for a large variety of processors, making it fast enough to simulate extremely large models or repeated runs in reasonable timeframes. libRoadRunner is flexible, supporting the bulk of the SBML specification (except for delay and nonlinear algebraic equations) as well as several SBML extensions such as hierarchical composition and probability distributions. It offers multiple deterministic and stochastic integrators, as well as tools for steady-state, sensitivity, stability and structural analyses. Availability: libRoadRunner binary distributions for Windows, Mac OS, and Linux, Julia and Python bindings, source code, and documentation are all available at https://github.com/sys-bio/roadrunner, and Python bindings are also available via pip. The source code can be compiled for the supported systems as well as in principle any system supported by LLVM-13, such as ARM-based computers like the Raspberry Pi. The library is licensed under the Apache License Version 2.0.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Bioinformatics. 2022 Dec 8:btac770. doi: 10.1093/bioinformatics/btac770. Epub ahead of print. PMID: 36478036.</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="E23" t="n">
         <v>5.8</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="F23" s="2" t="n">
         <v>44903</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="J23" t="n">
         <v>36478036</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>10.1093/bioinformatics/btac770</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>Bioinformatics</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">Periportal steatosis in mice affects distinct parameters of pericentral drug metabolism
 </t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Albadry M.,  Höpfl, S., Ehteshamzad, N., König, M., Böttcher, M., Neumann, J., Lupp, A., Dirsch, O., Radde, N., Christ, B., Christ, M., Schwen, L. O., Laue, H., Klopfleisch, R., Dahmen, U.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Little is known about the impact of morphological disorders in distinct zones on metabolic zonation. It was described recently that periportal fibrosis did affect the expression of CYP proteins, a set of pericentrally located drug-metabolizing enzymes. Here, we investigated whether periportal steatosis might have a similar effect. Periportal steatosis was induced in C57BL6/J mice by feeding a high-fat diet with low methionine/choline content for either two or four weeks. Steatosis severity was quantified using image analysis. Triglycerides and CYP activity were quantified in photometric or fluorometric assay. The distribution of CYP3A4, CYP1A2, CYP2D6, and CYP2E1 was visualized by immunohistochemistry. Pharmacokinetic parameters of test drugs were determined after injecting a drug cocktail (caffeine, codeine, and midazolam). The dietary model resulted in moderate to severe mixed steatosis confined to periportal and midzonal areas. Periportal steatosis did not affect the zonal distribution of CYP expression but the activity of selected CYPs was associated with steatosis severity. Caffeine elimination was accelerated by microvesicular steatosis, whereas midazolam elimination was delayed in macrovesicular steatosis. In summary, periportal steatosis affected parameters of pericentrally located drug metabolism. This observation calls for further investigations of the highly complex interrelationship between steatosis and drug metabolism and underlying signaling mechanisms.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Sci Rep. 2022 Dec 17;12(1):21825. doi: 10.1038/s41598-022-26483-6. PMID: 36528753; PMCID: PMC9759570</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="E24" t="n">
         <v>4.6</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="F24" s="2" t="n">
         <v>44912</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Mohamed Albadry, Sebastian Höpfl, Matthias König, Nicole Erika Radde, Bruno Christ, Lars Ole Schwen, Uta Dahmen</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>P1 - Christ, P2 - Dahmen, P3 - König, P5 - Radde, P8 - Schwen</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="J24" t="n">
         <v>36528753</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>10.1038/s41598-022-26483-6</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>Sci Rep</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Uncertainty with Varying Subsurface Permeabilities Reduced
 Using Coupled Random Field and Extended Theory of Porous
 Media Contaminant Transport Models</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>S. M. Seyedpour, C. Henning, P. Kirmizakis, S. Herbrandt, K. Ickstadt, R. Doherty
 and T. Ricken</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>To maximize the usefulness of groundwater flow models for the protection of aquifers and
+abstraction wells, it is necessary to identify and decrease the uncertainty associated with the major parameters such as permeability. To do this, there is a need to develop set of estimates representing subsurface heterogeneity or representative soil permeability estimates. Here, we use a coupled Random Field and extended Theory of Porous Media (eTPM) simulation to develop a robust model with a good predictive ability that reduces uncertainty. The coupled model is then validated with a physical sandbox experiment. Uncertainty is reduced by using 500 realisations of the permeability parameter using the eTPM approach. A multi-layer contaminant transport scenario with varying permeabilities, similar to what could be expected with shallow alluvial sediments, is simulated. The
+results show that the contaminant arrival time could be strongly affected by random field realizations of permeability compared with a modelled homogenous permeability parameter. The breakthrough time for heterogeneous permeabilities is shorter than the homogeneous condition. Using the 75% confidence interval (CI), the average contaminant concentration shows 4.4% variation from the average values of the considered area and 8.9% variation in the case of a 95% confidence interval.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>Water 2023, 15, 159. https://doi.org/10.3390/w15010159</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="E25" t="n">
         <v>3.4</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="F25" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Tim Ricken</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>10.3390/w15010159</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Water</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Simulation of Contaminant Transport through the Vadose Zone:
 A Continuum Mechanical Approach within the Framework of
 the Extended Theory of Porous Media (eTPM)</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>S. M. Seyedpour, A. Thom and T. Ricken</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>The simulation of contaminant transport through the vadose zone enjoys high significance
+for decision makers and contaminated site planners since the vadose zone can serve as a filter, but many contaminants can be transported from this region to aquifers. The intention of this paper is to utilize the extended Theory of Porous Media (eTPM) to develop a ternary model for the simulation of contaminant transport in the vadose zone whose application is subsequently shown via a numerical example. The simulation was conducted for 140 days, during which the contamination source was removed after 25 days. The results indicate that the contaminant reached the water table after 76 days. The concentration of the contaminant reaching the groundwater was 17% less than that of the contaminant source.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Water 2023, 15, 343. https://doi.org/10.3390/w15020343</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="E26" t="n">
         <v>3.4</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="F26" s="2" t="n">
         <v>44939</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Tim Ricken</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>10.3390/w15020343</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Water</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Bayesian estimation reveals that reproducible models in Systems Biology get more citations</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Höpfl Sebastian, Pleiss Jürgen, Radde Nicole</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>The Systems Biology community has taken numerous actions to develop data and modeling standards towards FAIR data and model handling. Nevertheless, the debate about incentives and rewards for individual researchers to make their results reproducible is ongoing. Here, we pose the specific question of whether reproducible models have a higher impact in terms of citations. Therefore, we statistically analyze 328 published models recently classified by Tiwari et al. based on their reproducibility. For hypothesis testing, we use a flexible Bayesian approach that provides complete distributional information for all quantities of interest and can handle outliers. The results show that in the period from 2013, i.e., 10 years after the introduction of SBML, to 2020, the group of reproducible models is significantly more cited than the non-reproducible group. We show that differences in journal impact factors do not explain this effect and that this effect increases with additional standardization of data and error model integration via PEtab. Overall, our statistical analysis demonstrates the long-term merits of reproducible modeling for the individual researcher in terms of citations. Moreover, it provides evidence for the increased use of reproducible models in the scientific community.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Sci Rep 13, 2695 (2023). https://doi.org/10.1038/s41598-023-29340-2</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="E27" t="n">
         <v>4.6</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="F27" s="2" t="n">
         <v>44972</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="J27" t="n">
         <v>36792648</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>10.1038/s41598-023-29340-2</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Sci Rep</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Critical Evaluation of Discarded Donor Livers 
 in the Eurotransplant Region: Potential 
 Implications for Machine Perfusion</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Falk Rauchfuß, Hans-Michael Tautenhahn, Felix Dondorf, Aladdin Ali-Deeb, Utz Settmacher on behalf of the ELIAC</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>There are still many offered donor livers that are declined during the allocation process. Machine perfusion offers the option to evaluate (especially marginal) donor organs and to better decide whether a graft has the potential of being transplanted or not. There is a lack of clear detailed data on why organs are declined and how 
+many donor livers would have the potential of being evaluated in the machine.
+Material/Methods: We retrospectively reviewed 1356 donor livers between 2016 and 2018, which were offered by Eurotransplant 
+and were declined during the allocation process; 284 grafts were from donor after cardiac death (DCD) and 
+1072 donations were from after brain death (DBD). The analysis was performed independently and blinded by 
+senior transplant surgeons.
+Results: There were 904 (66.6%) donor livers with potential to be evaluated as suitable grafts in machine perfusion, 
+whereas 417 (30.8%) organs were definitely not-transplantable, mainly due to liver cirrhosis, (untreated) donor malignancy, cardiac diseases of the donor leading to a hepatic congestion, and/or systemic infections in 
+the donor. Donors in blood group “AB” were disproportionally often rejected. Due to missing data, 35 (2.6%) 
+organs could not be sufficiently evaluated.
+Conclusions: Our data suggest that many declined donor livers have potential of being evaluated by machine perfusion. 
+Comprehensive use of machine perfusion is necessary and useful to improve the current organ shortage.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>e-ISSN 2329-0358
 © Ann Transplant, 2023; 28: e938132
 DOI: 10.12659/AOT.938132</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="E28" t="n">
         <v>1.1</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="F28" s="2" t="n">
         <v>44990</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hans-Michael Tautenhahn </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="J28" t="n">
         <v>36927714</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10.12659/AOT.938132</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Ann Transplant</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Specifications of Standards in Systems and Synthetic Biology: Status and Developments in 2022 and the COMBINE meeting 2022</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>M. König, P. Gleeson, M. Golebiewski, T. Gorochowski, M. Hucka, S. Keating, C. Myers, D. Nickerson, F. Schreiber</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>J Integr Bioinform. 2023 Mar 29;20(1):20230004. doi: 10.1515/jib-2023-0004. PMID: 36989443; PMCID: PMC10063176</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>45014</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>P3 - König</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>36989443</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>10.1515/jib-2023-0004</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>J Integr Bioinform</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Editorial: Multiscale modeling for the liver</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Ho H, Rezania V, Schwen LO</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Front. Bioeng. Biotechnol. 2023 Apr 13;1179980. doi:10.3389/fbioe.2023.1179980</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>45029</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>P8 - Schwen</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>37122862</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10.3389/fbioe.2023.1179980 </t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Front Bioeng Biotechnol</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Automated Detection of Portal Fields and Central Veins in Whole-Slide Images of Liver Tissue</t>
+          <t>Specifications of Standards in Systems and Synthetic Biology: Status and Developments in 2022 and the COMBINE meeting 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Budelmann D, Laue H, Weis N, Dahmen U, D’Alessandro LA, Biermayer I, Klingmüller U, Ghallab A, Hassan R, Begher-Tibbe B, Hengstler JG, Schwen LO</t>
+          <t>M. König, P. Gleeson, M. Golebiewski, T. Gorochowski, M. Hucka, S. Keating, C. Myers, D. Nickerson, F. Schreiber</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Journal of Pathology Informatics 2022 13:100001, doi: 10.1016/j.jpi.2022.100001</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>44606</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>This special issue of the Journal of Integrative Bioinformatics contains updated specifications of COMBINE standards in systems and synthetic biology. The 2022 special issue presents three updates to the standards: CellML 2.0.1, SBML Level 3 Package: Spatial Processes, Version 1, Release 1, and Synthetic Biology Open Language (SBOL) Version 3.1.0. This document can also be used to identify the latest specifications for all COMBINE standards. In addition, this editorial provides a brief overview of the COMBINE 2022 meeting in Berlin.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>J Integr Bioinform. 2023 Mar 29;20(1):20230004. doi: 10.1515/jib-2023-0004. PMID: 36989443; PMCID: PMC10063176</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>45014</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Stea-PK Mod</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>35242441</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10.1016/j.jpi.2022.100001</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Journal of Pathology Informatics</t>
+          <t>P3 - König</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>36989443</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>10.1515/jib-2023-0004</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>J Integr Bioinform</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Perfusion and T2 Relaxation Time as Predictors of Severity and Outcome in Sepsis-Associated Acute Kidney Injury: A Preclinical MRI Study</t>
+          <t>Editorial: Multiscale modeling for the liver</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Zhao, W.-T, Herrmann, K.-H., Sibgatulin R., Nahardani A., Krämer M., Heitplatz B., Van Marck V. , Reuter S., Reichenbach J.R., Hoerr V.</t>
+          <t>Ho H, Rezania V, Schwen LO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>J Magn Reson Imaging 2023 Apr 7. doi: 10.1002/jmri.28698</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>45111</v>
-      </c>
-      <c r="F30" t="inlineStr">
+          <t>Multiscale modeling for the liver</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Front. Bioeng. Biotechnol. 2023 Apr 13;1179980. doi:10.3389/fbioe.2023.1179980</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45029</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>P6 - Reichenbach</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>37026419</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Lars Ole Schwen</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10.1002/jmri.28698</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>J Magn Reson Imaging</t>
+          <t>P8 - Schwen</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>37122862</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.3389/fbioe.2023.1179980 </t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Front Bioeng Biotechnol</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A pathway model of glucose-stimulated insulin secretion in the pancreatic β-cell</t>
+          <t>Automated Detection of Portal Fields and Central Veins in Whole-Slide Images of Liver Tissue</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Maheshvare MD., Raha S., König M.*, and Pal D.* (* equal contribution)</t>
+          <t>Budelmann D, Laue H, Weis N, Dahmen U, D’Alessandro LA, Biermayer I, Klingmüller U, Ghallab A, Hassan R, Begher-Tibbe B, Hengstler JG, Schwen LO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Front. Endocrinol. 14:1185656, doi: 10.3389/fendo.2023.1185656</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>44965</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t>Many physiological processes and pathological phenomena in the liver tissue are spatially heterogeneous. At a local scale, biomarkers can be quantified along the axis of the blood flow, from portal fields (PFs) to central veins (CVs), i.e., in zonated form. This requires detecting PFs and CVs. However, manually annotating these structures in multiple whole-slide images is a tedious task. We describe and evaluate a fully automated method, based on a convolutional neural network, for simultaneously detecting PFs and CVs in a single stained section. Trained on scans of hematoxylin and eosin-stained liver tissue, the detector performed well with an F1 score of 0.81 compared to annotation by a human expert. It does, however, not generalize well to previously unseen scans of steatotic liver tissue with an F1 score of 0.59. Automated PF and CV detection eliminates the bottleneck of manual annotation for subsequent automated analyses, as illustrated by two proof-of-concept applications: We computed lobulus sizes based on the detected PF and CV positions, where results agreed with published lobulus sizes. Moreover, we demonstrate the feasibility of zonated quantification of biomarkers detected in different stainings based on lobuli and zones obtained from the detected PF and CV positions. A negative control (hematoxylin and eosin) showed the expected homogeneity, a positive control (glutamine synthetase) was quantified to be strictly pericentral, and a plausible zonation for a heterogeneous F4/80 staining was obtained. Automated detection of PFs and CVs is one building block for automatically quantifying physiologically relevant heterogeneity of liver tissue biomarkers. Perspectively, a more robust and automated assessment of zonation from whole-slide images will be valuable for parameterizing spatially resolved models of liver metabolism and to provide diagnostic information.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Journal of Pathology Informatics 2022 13:100001, doi: 10.1016/j.jpi.2022.100001</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>44606</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>P3 - König</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>37600713</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(None received QuaLiPerF funding for this work)</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.3389/fendo.2023.1185656 </t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Front Endocrinol</t>
+          <t>Stea-PK Mod</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>35242441</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>10.1016/j.jpi.2022.100001</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Journal of Pathology Informatics</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Affine transformations accelerate the training of physics-informed neural networks of a one-dimensional consolidation problem</t>
+          <t>Perfusion and T2 Relaxation Time as Predictors of Severity and Outcome in Sepsis-Associated Acute Kidney Injury: A Preclinical MRI Study</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Luis Mandl, André Mielke, Seyed Morteza Seyedpour, Tim Ricken</t>
+          <t>Zhao, W.-T, Herrmann, K.-H., Sibgatulin R., Nahardani A., Krämer M., Heitplatz B., Van Marck V. , Reuter S., Reichenbach J.R., Hoerr V.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mandl, L., Mielke, A., Seyedpour, S.M. et al. Affine transformations accelerate the training of physics-informed neural networks of a one-dimensional consolidation problem. Sci Rep 13, 15566 (2023). https://doi.org/10.1038/s41598-023-42141-x</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>45189</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t>Background: Preventing sepsis-associated acute kidney injury (S-AKI) can be challenging because it develops rapidly and is often asymptomatic. Probability assessment of disease progression for therapeutic follow-up and outcome are important to intervene and prevent further damage.
+Purpose: To establish a noninvasive multiparametric MRI (mpMRI) tool, including T1 , T2 , and perfusion mapping, for probability assessment of the outcome of S-AKI.
+Study type: Preclinical randomized prospective study.
+Animal model: One hundred and forty adult female SD rats (65 control and 75 sepsis).
+Field strength/sequence: 9.4T; T1 and perfusion map (FAIR-EPI) and T2 map (multiecho RARE).
+Assessment: Experiment 1: To identify renal injury in relation to sepsis severity, serum creatinine levels were determined (31 control and 35 sepsis). Experiment 2: Animals underwent mpMRI (T1 , T2 , perfusion) 18 hours postsepsis. A subgroup of animals was immediately sacrificed for histology examination (nine control and seven sepsis). Result of mpMRI in follow-up subgroup (25 control and 33 sepsis) was used to predict survival outcomes at 96 hours.
+Statistical tests: Mann-Whitney U test, Spearman/Pearson correlation (r), P &lt; 0.05 was considered statistically significant.
+Results: Severely ill septic animals exhibited significantly increased serum creatinine levels compared to controls (70 ± 30 vs. 34 ± 9 μmol/L, P &lt; 0.0001). Cortical perfusion (480 ± 80 vs. 330 ± 140 mL/100 g tissue/min, P &lt; 0.005), and cortical and medullary T2 relaxation time constants were significantly reduced compared to controls (41 ± 4 vs. 37 ± 5 msec in cortex, P &lt; 0.05, 52 ± 7 vs. 45 ± 6 msec in medulla, P &lt; 0.05). The combination of cortical T2 relaxation time constants and perfusion results at 18 hours could predict survival outcomes at 96 hours with high sensitivity (80%) and specificity (73%) (area under curve of ROC = 0.8, Jmax = 0.52).
+Data conclusion: This preclinical study suggests combined T2 relaxation time and perfusion mapping as first line diagnostic tool for treatment planning.
+Level of evidence: 2 TECHNICAL EFFICACY STAGE: 2.
+Keywords: S-AKI; T1 and T2 relaxation time; multiparametric MRI; perfusion; sepsis.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>J Magn Reson Imaging 2023 Apr 7. doi: 10.1002/jmri.28698</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>45111</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>P7 - Ricken, SimLivA, ATLAS</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>37730743</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Wan-Ting Zhao, Karl-Heinz Herrmann, Jürgen R. Reichenbach</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.1038/s41598-023-42141-x </t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Sci Rep</t>
+          <t>P6 - Reichenbach</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>37026419</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>10.1002/jmri.28698</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>J Magn Reson Imaging</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OMEX Metadata Specification Version 1.2</t>
+          <t>A pathway model of glucose-stimulated insulin secretion in the pancreatic β-cell</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">John Gennari, Matthias König, Goskel Misirli, Maxwell Neal, David Nickerson, Dagmar Waltemath </t>
+          <t>Maheshvare MD., Raha S., König M.*, and Pal D.* (* equal contribution)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>J Integr Bioinform. 2021 Oct 20;18(3):20210020. doi: 10.1515/jib-2021-0020. PMID: 34668356; PMCID: PMC8560343.</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>44416</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>The pancreas plays a critical role in maintaining glucose homeostasis through the secretion of hormones from the islets of Langerhans. Glucose-stimulated insulin secretion (GSIS) by the pancreatic β-cell is the main mechanism for reducing elevated plasma glucose. Here we present a systematic modeling workflow for the development of kinetic pathway models using the Systems Biology Markup Language (SBML). Steps include retrieval of information from databases, curation of experimental and clinical data for model calibration and validation, integration of heterogeneous data including absolute and relative measurements, unit normalization, data normalization, and model annotation. An important factor was the reproducibility and exchangeability of the model, which allowed the use of various existing tools. The workflow was applied to construct a novel data-driven kinetic model of GSIS in the pancreatic β-cell based on experimental and clinical data from 39 studies spanning 50 years of pancreatic, islet, and β-cell research in humans, rats, mice, and cell lines. The model consists of detailed glycolysis and phenomenological equations for insulin secretion coupled to cellular energy state, ATP dynamics and (ATP/ADP ratio). Key findings of our work are that in GSIS there is a glucose-dependent increase in almost all intermediates of glycolysis. This increase in glycolytic metabolites is accompanied by an increase in energy metabolites, especially ATP and NADH. One of the few decreasing metabolites is ADP, which, in combination with the increase in ATP, results in a large increase in ATP/ADP ratios in the β-cell with increasing glucose. Insulin secretion is dependent on ATP/ADP, resulting in glucose-stimulated insulin secretion. The observed glucose-dependent increase in glycolytic intermediates and the resulting change in ATP/ADP ratios and insulin secretion is a robust phenomenon observed across data sets, experimental systems and species. Model predictions of the glucose-dependent response of glycolytic intermediates and biphasic insulin secretion are in good agreement with experimental measurements. Our model predicts that factors affecting ATP consumption, ATP formation, hexokinase, phosphofructokinase, and ATP/ADP-dependent insulin secretion have a major effect on GSIS. In conclusion, we have developed and applied a systematic modeling workflow for pathway models that allowed us to gain insight into key mechanisms in GSIS in the pancreatic β-cell.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Front. Endocrinol. 14:1185656, doi: 10.3389/fendo.2023.1185656</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>44965</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>34668356</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.1515/jib-2021-0020</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>J Integr Bioinform</t>
+      <c r="J33" t="n">
+        <v>37600713</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.3389/fendo.2023.1185656 </t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Front Endocrinol</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>The Simulation Experiment Description Markup Language (SED-ML): Language Specification for Level 1 Version 4</t>
+          <t>Affine transformations accelerate the training of physics-informed neural networks of a one-dimensional consolidation problem</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Lucian P. Smith, Frank T. Bergmann, Alan Garny, Thomas Helikar, Jonathan Karr, David Nickerson, Herbert Sauro, Dagmar Waltemath, and Matthias König</t>
+          <t>Luis Mandl, André Mielke, Seyed Morteza Seyedpour, Tim Ricken</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>J Integr Bioinform. 2021 Oct 5;18(3):20210021. doi: 10.1515/jib-2021-0021. PMID: 35330701; PMCID: PMC8560344</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>44416</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+          <t>Physics-informed neural networks (PINNs) leverage data and knowledge about a problem. They provide a nonnumerical pathway to solving partial differential equations by expressing the field solution as an artificial neural network. This approach has been applied successfully to various types of differential equations. A major area of research on PINNs is the application to coupled partial differential equations in particular, and a general breakthrough is still lacking. In coupled equations, the optimization operates in a critical conflict between boundary conditions and the underlying equations, which often requires either many iterations or complex schemes to avoid trivial solutions and to achieve convergence. We provide empirical evidence for the mitigation of bad initial conditioning in PINNs for solving one-dimensional consolidation problems of porous media through the introduction of affine transformations after the classical output layer of artificial neural network architectures, effectively accelerating the training process. These affine physics-informed neural networks (AfPINNs) then produce nontrivial and accurate field solutions even in parameter spaces with diverging orders of magnitude. On average, AfPINNs show the ability to improve the L2 relative error by 64.84% after 25,000 epochs for a one-dimensional consolidation problem based on Biot’s theory, and an average improvement by 58.80% with a transfer approach to the theory of porous media.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Mandl, L., Mielke, A., Seyedpour, S.M. et al. Affine transformations accelerate the training of physics-informed neural networks of a one-dimensional consolidation problem. Sci Rep 13, 15566 (2023). https://doi.org/10.1038/s41598-023-42141-x</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45189</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>P3 - König</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>35330701</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Luis Mandl, Tim Ricken</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>10.1515/jib-2021-0021</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>J Integr Bioinform</t>
+          <t>P7 - Ricken, SimLivA, ATLAS</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>37730743</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.1038/s41598-023-42141-x </t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Sci Rep</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2148,30 +2624,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Abstract</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Qualiperf</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Authors Qualiperf</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Projects</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Pubmed</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>DOI</t>
         </is>
@@ -2190,24 +2676,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Science continues to become more interdisciplinary and to involve increasingly complex data sets. Many projects in the biomedical and health related sciences adhere to the principles of FAIR data sharing, or aim to follow them. Data sharing has been proven to foster collaboration, to lead to better research outcomes, and to help ensure reproducibility of results. Data generated in biomedical and health research are specific in the sense that they are heterogeneous, often big, and highly sensitive in terms of data protection needs and contextuality. Data sharing has to respect these features, but at the same time advances in medical therapy and treatment are time-critical. Modeling and simulation of biomedical processes have become an established tool, and a global community has been developing algorithms, methodologies, and standards for applying biomedical simulation models in clinical research. However, it can be difficult for clinician scientists to follow the specific rules and recommendations for FAIR data sharing within the domain. With this paper, we aim to clarify the standard workflow for sharing experimental and clinical data with the simulation modeling community. By following these recommendations, data sharing will be improved, collaborations will become more effective, and the FAIR publication and subsequent reuse of data will become possible at the level of quality necessary in biomedical and health related sciences.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Preprints 2021, 2021080303, https://www.preprints.org/manuscript/202108.0303/v1</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="E2" s="2" t="n">
         <v>44421</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Matthias König*</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>10.20944/preprints202108.0303.v1</t>
         </is>
@@ -2216,593 +2712,373 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Physiologically based modeling of the effect of physiological and anthropometric variability on indocyanine green based liver function tests</t>
+          <t>SED-ML Validator: tool for debugging simulation experiments</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adrian Köller, Jan Grzegorzewski and Matthias König</t>
+          <t>Bilal Shaikh, Andrew Philip Freiburger, Matthias König, Frank T. Bergmann, David P. Nickerson, Herbert M. Sauro, Michael L. Blinov, Lucian P. Smith, Ion I. Moraru, Jonathan R. Karr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bioRxiv 2021.08.11.455999; doi: https://doi.org/10.1101/2021.08.11.455999 [Submitted to Frontiers Physiology 2021-08-12]</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>44420</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t>Summary: More sophisticated models are needed to address problems in bioscience, synthetic biology, and precision medicine. To help facilitate the collaboration needed for such models, the community developed the Simulation Experiment Description Markup Language (SED-ML), a common format for describing simulations. However, the utility of SED-ML has been hampered by limited support for SED-ML among modeling software tools and by different interpretations of SED-ML among the tools that support the format. To help modelers debug their simulations and to push the community to use SED-ML consistently, we developed a tool for validating SED-ML files. We have used the validator to correct the official SED-ML example files. We plan to use the validator to correct the files in the BioModels database so that they can be simulated. We anticipate that the validator will be a valuable tool for developing more predictive simulations and that the validator will help increase the adoption and interoperability of SED-ML. 
+Availability: The validator is freely available as a webform, HTTP API, command-line program, and Python package at https://run.biosimulations.org/utils/validate and https://pypi.org/project/biosimulators-utils. The validator is also embedded into interfaces to 11 simulation tools. The source code is openly available as described in the Supplementary data.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">arXiV, 2021, 2106.00844, [Submitted to Bioinformatics 2021-06-02] </t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>43984</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>34880776</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10.1101/2021.08.11.455999</t>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10.48550/arXiv.2106.00844</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SBMLWebApp: Web-based Simulation, Steady-State Analysis, and Parameter Estimation of Systems Biology Models</t>
+          <t>Dynamic Flux Balance Analysis Models in SBML</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Takahiro G. Yamada, Kaito Ii, Matthias König, Martina Feierabend, Andreas Dräger, Akira Funahashi</t>
+          <t>Matthias König* , Leandro H. Watanabe, Jan Grzegorzewski, Chris J.
+Myers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Preprints 2021, 2021080259 (doi: 10.20944/preprints202108.0259.v1). [Submitted to MDPI, 2021-08-11] </t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>44419</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t>ABSTRACT2
+Computational models in systems biology and systems medicine are typically simulated using a single formalism such as ordinary differential equations (ODE). However, more complex models require the coupling of multiple formalisms since different biological phenomena are better described by different methods. For example, metabolism in steady state is often modeled using flux-balance analysis (FBA) whereas dynamic changes of model components are better described via ODEs. The coupling of FBA and ODE modeling formalisms results in dynamic FBA models. A major challenge is how to describe such hybrid models that couple multiple formalisms in a standardized way so that they can be exchanged between tools and simulated consistently in a reproducible manner. This paper presents a scheme for encoding and implementation of dynamic FBA models in the Systems Biology Markup Language (SBML), thereby enabling the exchange of multi-framework computational models between software tools. We demonstrate the feasibility of the approach using various example models and show that different tools are able to simulate the hybrid models and agree on the results. As part of this work, two independent implementations of a multi-framework simulation method for dynamic FBA have been developed supporting such models: iBioSim and sbmlutils.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>bioRxiv doi: https://doi.org/10.1101/245076</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>44648</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Matthias König, Jan Grzegorzewski</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.20944/preprints202108.0259.v1</t>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>10.1101/245076</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pharmacokinetics of caffeine: A systematic analysis of reported data for application in metabolic phenotyping and liver function testing</t>
+          <t>FAIR Sharing of Reproducible Models of Epidemic and Pandemic Forecast</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jan Grzegorzewski, Florian Bartsch, Adrian Köller, Matthias König</t>
+          <t>Ramachandran K.*, König M.*, Scharm M., Nguyen T.V.N, Hermjakob H., Waltemath D., Malik Sheriff R.S.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>bioRxiv 2021.07.12.452094; doi: https://doi.org/10.1101/2021.07.12.452094 [Submitted to Frontiers Pharmacology, 2021-08-03]</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>44411</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t>A major challenge for the dissemination, replication, and reuse of epidemiological forecasting studies during COVID-19 pandemics is the lack of clear guidelines and platforms to exchange models in a Findable, Accessible, Interoperable, and Reusable (FAIR) manner, facilitating reproducibility of research outcomes. During the beginning of pandemics, models were developed in diverse tools that were not interoperable, opaque without traceability and semantics, and scattered across various platforms - making them hard to locate, infer and reuse. In this work, we demonstrate that implementing the standards developed by the systems biology community to encode and share COVID-19 epidemiological models can serve as a roadmap to implement models as a tool in medical informatics, in general. As a proof-of-concept, we encoded and shared 24 epidemiological models using the standard format for model exchange in systems biology, annotated them with cross-references to data resources, packed up all associated files in COMBINE archives for easy sharing, and finally, disseminated the models through BioModels repository to significantly enhance their reproducibility and repurposing potential. We recommend the use of systems biology standards to encode and share models of epidemic and pandemic forecasts to improve their findability, accessibility, interoperability, reusability, and reproducibility.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Preprints 2022, 2022060137 (doi: 10.20944/preprints202206.0137.v1).</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>44721</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>35280254</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>10.1101/2021.07.12.452094</t>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>10.20944/preprints202206.0137.v1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Systems Biology Simulation Core Library</t>
+          <t>Simvastatin therapy in different subtypes of hypercholesterolemia - a physiologically based modelling approach</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Panchiwala, H.; Shah, S.; Planatscher, H.; Zakharchuk, M.; König, M.; Dräger, A.</t>
+          <t>Bartsch F. , Grzegorzewski J., Pujol H., Tautenhahn HM., König M.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Preprints 2020, 2020120296 (doi: 10.20944/preprints202012.0296.v1), [In revision, Bioinformatics] </t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>44176</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t>Hypercholesterolemia is a multifaceted plasma lipid disorder with heterogeneous causes including lifestyle and genetic factors. A key feature of hypercholesterolemia is elevated plasma levels of low-density lipoprotein cholesterol (LDL-C). Several genetic variants have been reported to be associated with hypercholesterolemia, known as familial hypercholesterolemia (FH). Important variants affect the LDL receptor (LDLR), which mediates the uptake of LDL-C from the plasma, apoliporotein B (APOB), which is involved in the binding of LDL-C to the LDLR, and proprotein convertase subtilisin/kexin type 9 (PCSK9), which modulates the degradation of the LDLR. A typical treatment for hypercholesterolemia is statin medication, with simvastatin being one of the most commonly prescribed statins. In this work, the LDL-C lowering therapy with simvastatin in hypercholesterolemia was investigated using a computational modeling approach. A physiologically based pharmacokinetic model of simvastatin integrated with a pharmacodynamic model of plasma LDL-C (PBPK/PD) was developed based on extensive data curation. A key component of the model is LDL-C turnover by the liver, consisting of: hepatic cholesterol synthesis with the key enzymes HMG-CoA reductase and HMG-CoA synthase; cholesterol export from the liver as VLDL-C; de novo synthesis of LDLR; transport of LDLR to the membrane; binding of LDL-C by LDLR via APOB; endocytosis of the LDLR-LDL-C complex; recycling of LDLR from the complex. The model was applied to study the effects of simvastatin therapy in hypercholesterolemia due to different causes in the LDLR pathway corresponding to different subtypes of hypercholesterolemia. Model predictions of LDL-C lowering therapy were validated with independent clinical data sets. Key findings are: (i) hepatic LDLR turnover is highly heterogeneous among FH classes; (ii) despite this heterogeneity, simvastatin therapy results in a consistent reduction in plasma LDL-C regardless of class; and (iii) simvastatin therapy shows a dose-dependent reduction in LDL-C. Our model suggests that the underlying cause of hypercholesterolemia does not influence simvastatin therapy. Furthermore, our model supports the treatment strategy of stepwise dose adjustment to achieve target LDL-C levels. Both the model and the database are freely available for reuse.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>medRxiv 2023.02.01.23285358; doi: https://doi.org/10.1101/2023.02.01.23285358</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>44960</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P3 - König</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>34554191</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Jan Grzegorzewski, Hans-Michael Tautenhahn, Matthias König</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10.20944/preprints202012.0296.v1</t>
+          <t>P3 - König, P9 - Tautenhahn</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>10.1101/2023.02.01.23285358</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Prediction of survival after hepatectomy using a physiologically based pharmacokinetic model of indocyanine green liver function tests</t>
+          <t>standard-GEM: standardization of open-source genome-scale metabolic models</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Adrian Köller, Jan Grzegorzewski, Michael Tautenhahn, Matthias König</t>
+          <t>Mihail Anton, Eivind Almaas, Rui Benfeitas, Sara Benito-Vaquerizo, Lars M. Blank, Andreas Dräger, John M. Hancock, Cheewin Kittikunapong, &lt;b&gt;Matthias König&lt;/b&gt;, Feiran Li, Ulf W. Liebal, Hongzhong Lu, Hongwu Ma, Radhakrishnan Mahadevan, Adil Mardinoglu, Jens Nielsen, Juan Nogales, Marco Pagni, Jason A. Papin, Kiran Raosaheb Patil, Nathan D. Price, Jonathan L. Robinson, Benjamín J. Sánchez, Maria Suarez-Diez, Snorre Sulheim, L. Thomas Svensson, Bas Teusink, Wanwipa Vongsangnak, Hao Wang, Ahmad A. Zeidan, Eduard J. Kerkhoven</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bioRxiv 2021.06.15.448411; doi: https://doi.org/10.1101/2021.06.15.448411, [Submitted to Frontiers Physiology 2021-06-30]</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>44377</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t>The field of metabolic modelling at the genome-scale continues to grow with more models being created and curated. This comes with an increasing demand for adopting common principles regarding transparency and versioning, in addition to standardisation efforts regarding file formats, annotation and testing. Here, we present a standardised template for git-based and GitHub-hosted genome-scale metabolic models (GEMs) supporting both new models and curated ones, following FAIR principles (findability, accessibility, interoperability, and reusability), and incorporating best-practices. standard-GEM facilitates the reuse of GEMs across web services and platforms in the metabolic modelling field and enables automatic validation of GEMs. The use of this template for new models, and its adoption for existing ones, paves the way for increasing model quality, openness, and accessibility with minimal effort.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>bioRxiv 2023.03.21.512712; doi: https://doi.org/10.1101/2023.03.21.512712</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45012</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>34880771</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>10.1101/2021.06.15.448411</t>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>10.1101/2023.03.21.512712</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SED-ML Validator: tool for debugging simulation experiments</t>
+          <t>A physiologically based pharmacokinetic model for CYP2E1 phenotyping via chlorzoxazone</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bilal Shaikh, Andrew Philip Freiburger, Matthias König, Frank T. Bergmann, David P. Nickerson, Herbert M. Sauro, Michael L. Blinov, Lucian P. Smith, Ion I. Moraru, Jonathan R. Karr</t>
+          <t>J. Küttner, J. Grzegorzewski, HM. Tautenhahn, M. König</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">arXiV, 2021, 2106.00844, [Submitted to Bioinformatics 2021-06-02] </t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>43984</v>
+          <t>The cytochrome P450 (CYP) superfamily of enzymes plays a critical role in the metabolism of drugs, toxins, and endogenous and exogenous compounds. The activity of CYP enzymes can be influenced by a variety of factors, including genetics, diet, age, environmental factors, and disease. Among the major isoforms, CYP2E1 is of particular interest due to its involvement in the metabolism of various low molecular weight chemicals, including alcohols, pharmaceuticals, industrial solvents, and halogenated anesthetics. Metabolic phenotyping of CYPs based on the elimination of test compounds is a useful method for assessing in vivo activity, with chlorzoxazone being the primary probe drug for phenotyping of CYP2E1. The aim of this work was to investigate the effect of changes in CYP2E1 level and activity, ethanol consumption, ethanol abstinence, and liver impairment on the results of metabolic phenotyping with chlorzoxazone. To accomplish this, an extensive pharmacokinetic dataset for chlorzoxazone was established and a physiologically based pharmacokinetic (PBPK) model of chlorzoxazone and its metabolites, 6-hydroxychlorzoxazone and chlorzoxazone-O-glucuronide, was developed and validated. The model incorporates the effect of ethanol consumption on CYP2E1 levels and activity by extending the model with a core ethanol pharmacokinetic model and a CYP2E1 turnover model. The model accurately predicts pharmacokinetic data from several clinical studies and is able to estimate the effect of changes in CYP2E1 levels and activity on chlorzoxazone pharmacokinetics. Regular ethanol consumption induces CYP2E1 over two to three weeks, resulting in increased conversion of chlorzoxazone to 6-hydroxychlorzoxazone and a higher 6-hydroxychlorzoxazone/chlorzoxazone metabolic ratio. After ethanol withdrawal, CYP2E1 levels return to baseline within one week. Importantly, liver impairment has an opposite effect, resulting in reduced liver function via CYP2E1. In alcoholics with liver impairment who also consume ethanol, these factors will have opposite confounding effects on metabolic phenotyping with chlorzoxazone.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>bioRxiv 2023.04.12.536571; doi: https://doi.org/10.1101/2023.04.12.536571</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>4/14/2023</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P3 - König</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Jan Grzegorzewski, Hans-Michael Tautenhahn, Matthias König</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10.48550/arXiv.2106.00844</t>
+          <t>P3 - König, P9 - Tautenhahn</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>10.1101/2023.04.12.536571</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Quasi-Entropy Closure: A Fast and Reliable Approach to Close the Moment Equations of the Chemical Master Equation</t>
+          <t>Eleven Strategies for Making Reproducible Research and Open Science Training the Norm at Research Institutions</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vincent Wagner, Benjamin Castellaz, Marco Oesting, Nicole Radde</t>
+          <t>Friederike E. Kohrs, Susann Auer, Alexandra Bannach-Brown, Susann Fiedler, Tamarinde Haven, Verena Heise, Constance Holman, Flavio Azevedo, René Bernard, Arnim Bleier, Nicole Bössel, Brian Cahill, Leyla Jael Castro, Adrian Ehrenhofer, Kristina Eichel, Maximilian Frank, Claudia Frick, Malte Friese, Anne Gärtner, Kerstin Gierend, David Joachim Grüning, Lena Hahn, Maren Hülsemann, Malika Ihle, Sabrina Illius, Laura König, Matthias König, Louisa Kulke, Anton Kutlin, Fritjof Lammers, David M.A. Mehler, Christoph Miehl, Anett Müller-Alcazar, Claudia Neuendorf, Helen Niemeyer, Florian Pargent, Aaron Peikert, Christina U. Pfeuffer, Robert Reinecke, Jan Philipp Röer, Jessica L. Rohmann, Alfredo Sánchez-Tójar, Stefan Scherbaum, Elena Sixtus, Lisa Spitzer, Vera Maren Straßburger, Marcel Weber, Clarissa Whitmire, Josephine Zerna, Dilara Zorbek, Philipp Zumstein, Tracey L. Weissgerber</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">BioRxiv 2021.12.01.470753 doi: https://doi.org/10.1101/2021.12.01.470753 </t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>44532</v>
+          <t>Across disciplines, researchers increasingly recognize that open science and reproducible research practices may accelerate scientific progress by allowing others to reuse research outputs and by promoting rigorous research that is more likely to yield trustworthy results. While initiatives, training programs, and funder policies encourage researchers to adopt reproducible research and open science practices, these practices are uncommon in many fields. Researchers need training to integrate these practices into their daily work. We organized a virtual brainstorming event, in collaboration with the German Reproducibility Network, to discuss strategies for making reproducible research and open science training the norm at research institutions. Here, we outline eleven strategies, concentrated in three areas: (1) offering training, (2) adapting research assessment criteria and program requirements, and (3) building communities. We provide a brief overview of each strategy, offer tips for implementation, and provide links to resources. Our goal is to encourage members of the research community to think creatively about the many ways they can contribute and collaborate to build communities, and make reproducible research and open science training the norm. Researchers may act in their roles as scientists, supervisors, mentors, instructors, and members of curriculum, hiring or evaluation committees. Institutional leadership and research administration and support staff can accelerate progress by implementing change across their institutions.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>osfpreprints 2023.04.12.536571 doi: 10.31219/osf.io/kcvra</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>5/28/2023</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P5 - Radde</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>35916726</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.1101/2021.12.01.470753 </t>
+          <t>P3 - König</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>10.31219/osf.io/kcvra</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dynamic Flux Balance Analysis Models in SBML</t>
+          <t>Quantifying Fat Zonation in Liver Lobules: An Integrated Multiscale In-silico Model Combining Disturbed Microperfusion and Fat Metabolism via a Continuum-Biomechanical Bi-scale, Tri-phasic Approach</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Matthias König* , Leandro H. Watanabe, Jan Grzegorzewski, Chris J.
-Myers</t>
+          <t>Lena Lambers, Navina Waschinsky, Jana Schleicher, Matthias König, Hans-Michael Tautenhahn, Mohamed Albadry, Uta Dahmen and Tim Ricken</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>bioRxiv doi: https://doi.org/10.1101/245076</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>44648</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+          <t>see preprint</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Research Square</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45269</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P3 - König</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Matthias König, Hans-Michael Tautenhahn, Mohamed Albadry, Uta Dahmen, Tim Ricken</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10.1101/245076</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>FAIR Sharing of Reproducible Models of Epidemic and Pandemic Forecast</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Ramachandran K.*, König M.*, Scharm M., Nguyen T.V.N, Hermjakob H., Waltemath D., Malik Sheriff R.S.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Preprints 2022, 2022060137 (doi: 10.20944/preprints202206.0137.v1).</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>44721</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>P3 - König</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>10.20944/preprints202206.0137.v1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Physiologically based pharmacokinetic (PBPK) modeling of the role of CYP2D6 polymorphism for metabolic phenotyping with dextromethorphan</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Grzegorzewski J., Brandhorst J., König M.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>bioRxiv 2022.08.23.504981; doi: https://doi.org/10.1101/2022.08.23.504981</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>44799</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>P3 - König</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>36353484</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>10.1101/2022.08.23.504981</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Simvastatin therapy in different subtypes of hypercholesterolemia - a physiologically based modelling approach</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Bartsch F. , Grzegorzewski J., Pujol H., Tautenhahn HM., König M.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>medRxiv 2023.02.01.23285358; doi: https://doi.org/10.1101/2023.02.01.23285358</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>44960</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>P3 - König, P9 - Tautenhahn</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>10.1101/2023.02.01.23285358</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A Consensus Model of Glucose-Stimulated Insulin Secretion in the Pancreatic beta-Cell</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Maheshvare MD., Raha S., König M.*, and Pal D.*</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>bioRxiv 2023.03.10.532028</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>P3 - König</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>36945414</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>10.1101/2023.03.10.532028</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>standard-GEM: standardization of open-source genome-scale metabolic models</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Mihail Anton, Eivind Almaas, Rui Benfeitas, Sara Benito-Vaquerizo, Lars M. Blank, Andreas Dräger, John M. Hancock, Cheewin Kittikunapong, &lt;b&gt;Matthias König&lt;/b&gt;, Feiran Li, Ulf W. Liebal, Hongzhong Lu, Hongwu Ma, Radhakrishnan Mahadevan, Adil Mardinoglu, Jens Nielsen, Juan Nogales, Marco Pagni, Jason A. Papin, Kiran Raosaheb Patil, Nathan D. Price, Jonathan L. Robinson, Benjamín J. Sánchez, Maria Suarez-Diez, Snorre Sulheim, L. Thomas Svensson, Bas Teusink, Wanwipa Vongsangnak, Hao Wang, Ahmad A. Zeidan, Eduard J. Kerkhoven</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>bioRxiv 2023.03.21.512712; doi: https://doi.org/10.1101/2023.03.21.512712</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>P3 - König</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>10.1101/2023.03.21.512712</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A physiologically based pharmacokinetic model for CYP2E1 phenotyping via chlorzoxazone</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>J. Küttner, J. Grzegorzewski, HM. Tautenhahn, M. König</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>bioRxiv 2023.04.12.536571; doi: https://doi.org/10.1101/2023.04.12.536571</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4/14/2023</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>P3 - König, P9 - Tautenhahn</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>10.1101/2023.04.12.536571</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Eleven Strategies for Making Reproducible Research and Open Science Training the Norm at Research Institutions</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Friederike E. Kohrs, Susann Auer, Alexandra Bannach-Brown, Susann Fiedler, Tamarinde Haven, Verena Heise, Constance Holman, Flavio Azevedo, René Bernard, Arnim Bleier, Nicole Bössel, Brian Cahill, Leyla Jael Castro, Adrian Ehrenhofer, Kristina Eichel, Maximilian Frank, Claudia Frick, Malte Friese, Anne Gärtner, Kerstin Gierend, David Joachim Grüning, Lena Hahn, Maren Hülsemann, Malika Ihle, Sabrina Illius, Laura König, Matthias König, Louisa Kulke, Anton Kutlin, Fritjof Lammers, David M.A. Mehler, Christoph Miehl, Anett Müller-Alcazar, Claudia Neuendorf, Helen Niemeyer, Florian Pargent, Aaron Peikert, Christina U. Pfeuffer, Robert Reinecke, Jan Philipp Röer, Jessica L. Rohmann, Alfredo Sánchez-Tójar, Stefan Scherbaum, Elena Sixtus, Lisa Spitzer, Vera Maren Straßburger, Marcel Weber, Clarissa Whitmire, Josephine Zerna, Dilara Zorbek, Philipp Zumstein, Tracey L. Weissgerber</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>osfpreprints 2023.04.12.536571 doi: 10.31219/osf.io/kcvra</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5/28/2023</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>P3 - König</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>10.31219/osf.io/kcvra</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Quantifying Fat Zonation in Liver Lobules: An Integrated Multiscale In-silico Model Combining Disturbed Microperfusion and Fat Metabolism via a Continuum-Biomechanical Bi-scale, Tri-phasic Approach</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Lena Lambers, Navina Waschinsky, Jana Schleicher, Matthias König, Hans-Michael Tautenhahn, Mohamed Albadry, Uta Dahmen and Tim Ricken</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Research Square</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>45269</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>10.21203/rs.3.rs-3348101/v1</t>
         </is>
@@ -2819,7 +3095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2840,20 +3116,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Abstract</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Qualiperf</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Authors Qualiperf</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Projects</t>
         </is>
@@ -2872,18 +3158,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Population snapshot data can be used to study heterogeneity in cell populations, and
+various approaches to integrate such data into computational models have been published. This enables new treatment strategies for cancer therapy, which exploit the intra-tumor heterogeneity.
+In the future, this could help to approach the cure of cancer in a precision medicine approach. Here, we introduce the inverse transformation algorithm, which transforms population snapshot data to parameter distributions that are consistent with these data given an underlying dynamic model with distributed parameters. Therefore, it enables the assessment of the heterogeneity in and behavior of the whole underlying cell population. Our algorithm is a non-parametric likelihood-free approach which, in contrast to the frequently used Approximate Bayesian Computation methods for population matching directly computes a density function value for a single parameter based on density transformation methods. If the model can be described as a one-to-one map that invertibly maps parameters to measurable outputs, the inverse transformation algorithm asymptotically returns the true underlying parameter distribution.
+The inverse transformation algorithm is applied to snapshot data simulated via standard
+differential equation models for biochemical reaction networks. In particular, we evaluate our algorithm on two small test-bed models and discuss advantages and limitations in comparison to other existing approaches.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>IFAC-PapersOnline series, https://www.sciencedirect.com/journal/ifac-papersonline</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="E2" s="2" t="n">
         <v>44664</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -2900,16 +3200,26 @@
           <t>Budelmann D, Cao Q, Laue H, Albadry M, Dahmen U, Schwen LO</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" s="2" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Steatosis is a common liver disease characterized by the accumulation of lipid droplets in cells. Precise and reliable fat droplet identification is essential for automatic steatosis quantification in histological images. We trained a nnU-Net to automatically segment lipid vacuoles in whole-slide images using semi-automatically generated reference annotations. We evaluated the performance of the trained model on two out-of-distribution datasets. The trained model’s average F1 scores (0.801 and 0.804) suggest a high potential of the nnU-Net framework for the automatic segmentation of lipid vacuoles.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" s="2" t="n">
         <v>45081</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(None received QuaLiPerF funding for this work)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Stea-PK Mod</t>
         </is>
@@ -2926,7 +3236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2937,30 +3247,40 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Authors</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Journal</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Abstract</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Qualiperf</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Authors Qualiperf</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Projects</t>
         </is>
@@ -2969,6 +3289,2823 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Bachelor Thesis</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A physiologically based model of pravastatin - The role of genotypes and hepatic or renal impairment on the pharmacokinetics of pravastatin</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Helen Leal Pujol, Matthias König</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Hypercholesterolaemia, i.e., elevated plasma levels of cholesterol, is a major risk factor for cardio- vascular disease, the leading cause of death globally. Hypercholesterolaemia can be treated using statins, a class of medications which inhibit HMG-CoA reductase, a major enzyme in cholesterol synthesis. Pravastatin is a statin used to reduce total and low-density plasma cholesterol levels and increase high-density plasma cholesterol levels in hypercholesterolaemic patients. Pravastatin is absorbed from the small intestine by the transporter OATP2B1 and subsequently transported in the liver via OATP1B1 from where it can be exported in the bile via the enzymatic exporter MRP2. Pravastatin can be excreted either in the urine via the kidneys or in the faeces due to incomplete absorption. Hepatic and renal impairment could have a large impact on the pharmacokinetics of statins as could have genetic variants of the transporters OATP2B1, OATP1B1 and MRP2. Within this thesis the pharmacokinetics of pravastatin were analysed by developing a physio- logically-based pharmacokinetics model based on extensive data curation of pravastatin data. The model allows to simulate the time-concentration courses of pravastatin in various tissues and to calculate the pharmacokinetic parameters for pravastatin. Furthermore, the model was applied to investigate the effects of genotypes of the enzymatic transporters and hepatic and renal im- pairment on the pharmacokinetics of pravastatin. Thus, key questions such as, how pravastatin therapy would be affected in renal or hepatic disease, as well as how pravastatin therapy should be adapted based on genotypes, find an answer in this work.</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>P3 - König</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Master thesis</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Coupling of macro and micro scale in a continuum-biomechanical model of the human liver using preCICE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fritz Otlinghaus, Steffen Gerhäusser, Ishaan Desai, Tim Ricken, Benjamin Uekermann</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>As the human liver is one of the most important organs in the human body, the scientific community aims to improve our understanding of its internal processes to enable better planning for individual liver surgeries. This includes the complex relationship between hepatic tissue and metabolic cell processes.
+This work is based on the modeling approach proposed by [RWH+14] where the hepatic tissue is modeled by partial differential equations (PDEs) in a homogenization approach based on the extended Theory of Porous Media (eTPM). These equations are then coupled with ordinary differential equations (ODEs), representing the metabolic processes in the liver cells. These models are solved by the FEM-solver FEBio for the hepatic tissue, and the ODEs on the cell scale are solved by the biochemical software library libRoadRunner.
+This work introduces a new two scale coupling using the coupling library preCICE and the Micro Manager. A new FEBio-preCICE adapter is implemented and compared to an existing coupling. To evaluate the differences in the couplings, three test cases are defined and simulation time, quality and memory usage for each test case is compared. This is followed up by discussing and comparing advantages and disadvantages for each coupling.</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Steffen Gerhäusser, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>P7 - Ricken</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PhD thesis</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Multiscale and multiphase modeling and numerical simulation of function-perfusion processes in the liver</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Lambers, Lena</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>see pdf</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3/21/2023</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Lena Lambers</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>P7 - Ricken</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bachelor Thesis</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A physiologically based pharmacokinetic (PBPK) model of the probe drug talinolol for the characterization of intestinal P-glycoprotein</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Beatrice Stemmer Mallol, Matthias König (supervisor)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Talinolol is a cardioselective beta-blocker used for the treatment of various cardiovascular diseases and tachyarrhythmia. The gastrointestinal absorption of talinolol is determined via its uptake in the intestine via the organic anion transporting polypeptide 2B1 (OATP2B1) and its efflux via the P-glycoprotein (P-gp). After intestinal absorption talinolol can be transported into the liver via OATP1B1 talinolol where it undergoes enterohepatic circulation. Talinolol is excreted unchanged in the urine and feces. In addition to its clinical application, talinolol is widely used as a probe drug for the intestinal efflux transporter P-glycoprotein. P-gp plays a crucial role in the human body as it is expressed in various tissues to protect against potentially toxic substances, facilitating the elimination of xenobiotics. The application of talinolol for P-gp phenotyping enables evaluation of factors influencing P-gp-mediated transport in vivo such as genetic polymorphisms of P-gp as well as the distribution of P-gp along the intestine.
+Within this thesis, an extensive dataset of talinolol pharmacokinetics was established and used to develop a physiologically based pharmacokinetic (PBPK) model for talinolol. The model was applied to investigate the influence of various factors on the pharmacokinetics of talinolol, including: (i) genetic variants of P-gp; (ii) enzymatic activity of the transporters OATP2B1 and OATP1B1; (iii) site-specific distribution of P-gp and OATP2B1 proteins in the intestine, and (iv) the impact of diseases such as liver cirrhosis and renal dysfunction. The model enables precise predictions of the concentration-time profile of talinolol in various tissues following oral or intravenous administration. Furthermore, the model accurately describes the effect of genetic variants of P-gp on the pharmacokinetics of talinolol. The detailed description of the limiting intestinal absorption of intestinal provided by the model, along with the precise prediction of talinolol`s pharmacokinetics in different renal functions, holds significant clinical relevance.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7/17/2023</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>P3 - König</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PhD thesis</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Physiologically based pharmacokinetic (PBPK) modeling for dynamical liver function tests and CYP phenotyping</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Jan Grzegorzewski, Matthias König</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Cytochrome P450 (CYP) phenotyping and dynamic liver function testing are essential methods in clinical practice. These methods utilize the pharmacokinetics (PK) of test substances and their metabolites to gain insight into the liver’s metabolic capacity and the activity of enzymes and transporters. Despite an extensive body of literature, many aspects affecting liver function and CYP activity are not well understood. Liver function tests are not only influenced by numerous characteristics of a studied subject but also by the specifics of individual study procedures. A key challenge is to disentangle the various factors which influence the outcome of the measurements from each other to study their influence on the dynamic liver function and CYP phenotype. In this work, the challenge was addressed through meta-analysis and physiologically based pharmacokinetic (PBPK) modeling. As a foundation, an open pharmacokinetics database (https://pk-db.com) was developed and pharmacokinetics data were curated for a wide range of test substances. To my knowledge, PK-DB currently contains the largest open pharmacokinetic dataset on substances used for phenotyping and dynamical liver function testing. The dataset allowed for identifying and quantifying demographic and racial bias (sex, ethnicity, age, health), reporting errors, and inconsistencies in pharmacokinetic literature. Based on the data, a caffeine pharmacokinetics meta-analysis was conducted concerning various factors affecting liver function and CYP1A2 activity. In particular, meta-analysis and data integration solidified existing knowledge on the effects of smoking, oral contraceptives, multiple diseases, and co-medications on caffeine pharmacokinetics. Similarly, the measurement accuracy of caffeine concentration in saliva versus plasma was quantified, and the effect of dosing amount and sampling timing for phenotyping were analyzed. In addition, the impact of CYP2D6 polymorphism was investigated. Therefore, a PBPK model of dextromethorphan (DXM) and its metabolites dextrorphan (DXO) and dextrorphan O-glucuronide (DXO-Glu) was developed, and calibrated and validated with pharmacokinetics data. The variability in CYP activity was modeled based on in vitro data. The model can predict individual plasma concentrations and urinary amounts of DXM, DXO, and DXO-Glu and the metabolic phenotype based on the individual’s CYP2D6 genotype and physiological characteristics. The analyses suggest that most of the variability in the pharmacokinetics of dextromethorphan can be attributed to the variability in CYP2D6 and CYP3A4 enzyme kinetics. Among various other investigations, the influence of ethnicity on CYP2D6 activity was also investigated. Contributions to PK data curation and PBPK model development were also made for other phenotyping and liver function test substances (chlorzoxazone, codeine, diazepam, galactose, indocyanine green (ICG), metoprolol, midazolam, omeprazole, pravastatin, simvastatin, talinolol, and torasemide). For ICG, in particular, the impact of hepatic blood flow, cardiac output, and body weight, as well as the survival probability after partial hepatectomy, were investigated by PBPK modeling. Notably, the studying of the various test substances was only made possible by a systematic and standardized workflow that facilitated data integration, data sharing, the creation of reproducible PBPK models, and the standardized integration of data and models. In conclusion, a pharmacokinetic database, methods, and workflows for the analysis of test compounds used in dynamical liver function testing and CYP phenotyping were established. Factors affecting CYP phenotyping and liver function testing were investigated by meta-analysis and PBPK modeling. The models developed in this effort have the potential to impact personalized medicine and to increase the precision of dynamic liver function tests in clinics.</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45179</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Jan Grzegorzewski, Matthias König</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>P3 - König</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Authors</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Abstract</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Conference</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Qualiperf</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Authors Qualiperf</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Differential gene expression analysis to determine liver perfusion and liver function</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Daria Meyer, Manja Marz</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Differential gene expression analysis to determine liver perfusion and liver function
+Background/Purpose
+For the understanding of the quantitative and spatial relationship between hepatic perfusion and function in healthy, steatotic and regenerating livers using a systems surgery approach, we focus on analyzing the transcriptome differences of healthy liver, steatotic liver, venous ligated liver lobe and during regeneration.
+Methods
+The transcriptome gives insights into the state of the cells from that the genetic material was sequenced. For each liver condition, we specifically distinguish spatial information between perivenous and periportal liver and compare it to whole liver. For both periportal and perivenous liver cells the differences between healthy liver to steatotic liver and healthy liver to venous ligated liver lobe and non-ligated liver lobe can be analyzed. The observed genes (with a focus on non-coding RNAs and isoforms) serve as potential marker genes for regeneration capacity and potential therapeutic targets. Additionally, by analyzing differentially expressed genes pathways can be detected, that are activated during liver perfusion restriction, liver function restriction and liver regeneration.
+Results
+The results of this analysis can be input for the metabolic and multiscale computational models to limit the parameter space of models used to describe the function and perfusion restricted liver more accurately.
+Conclusions
+Thus RNA-Sequencing analysis contributes essentially to the understanding of the liver perfusion and function.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24. Chirurgische Forschungstage, CFT2021, https://forschungstage2021.de/</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Daria Meyer, Manja Marz</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>P4 - Marz</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>An In-silico Model of Coupled Function-Perfusion Processes in the Human Liver with Application to Steatosis and Tumor Growth</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lambers L, Ricken T</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Computational multiphase and multiscale continuum-biomechanical modeling of biological tissue can simulate the complex hepatic deformationperfusion-function relationship and allow patient-specific prediction of
+liver surgery [1]. Our goal is the precise mathematical description and
+numerical simulation of the liver lobules coupled to metabolic processes
+in the liver cells.
+For the description of liver tissue we apply a poro-visco-elastic homogenization approach using the Theory of Porous Media [2] with an
+anisotropic blood flow [4, 5]. We consider the control body ϕ, which
+consists of κ main phases ϕ
+α. Each phase contains one carrier phase
+ϕ
+α and ν − 1 miscible substances ϕ
+αβ. In detail, we account for a
+porous solid structure representing healthy tissue (S), a liquid phase
+describing the blood (F), and two solid phases with the ability of growth
+and depletion representing the fat tissue (T) and the tumor tissue (C) as
+well as substances like nutrients or therapeutics.
+The liver tissue stress and deformation as well as blood perfusion and
+pressure on the lobular scale are described with partial-differential equations (PDEs), that are coupled to ordinary differential equations (ODEs)
+on the cellular scale for the calculation of hepatic processes as well as
+the production, utilization and storage of the involved metabolites.
+The results show a zonated accumulation of fat in the liver lobule. The
+storage of fat causes tissue growth with a negative impact on the blood
+flow wFS, shown by the relation between the change of blood velocity and
+fat fraction in Figure 2 b). Furthermore, the development of a liver tumor
+can be calculated dependent on nutrients, see Figure 2 c). The kinetics of tumor development follows the Monod kinetics, whereby glucose is
+consumed during the process.
+To investigate the dependence of microscopic perfusion on the geometry
+of liver lobules, the locations of central veins and portal triads from histological sections are identified, meshed and used as input of the simulation. The resulting pressure distribution shown in Figure 3 b) thus allows
+for a real velocity distribution.
+The calculation of steatotic livers requires identification and quantification of the existing fat content. Therefore, a convolutional neural network
+(CNN) was trained on previously manually annotated fat content in histological images [3], see Figure 4.
+The coupled multiphasic model enables the simulation of the complex
+hepatic deformation-function-perfusion processes with application to
+steatosis and tumor development and the simulation is able to depict
+changes in metabolism caused by altered perfusion or fat accumulation.
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24te Chirurgische Forschungstage, CFT2021, https://forschungstage2021.de/</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>44441</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>P7 - Ricken</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>F.A.I.R. Workflows for Bayesian Inference in Systems Medicine</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Höpfl Sebastian, Radde Nicole E.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Modelling is becoming increasingly essential to gain insights into biomedical systems, resulting in a large number of published models, data and results. A problem is that some of these are not available or can only be reproduced with a great deal of effort. However, this is essential as model predictions must be reliable and models should be easily expandable in a fast-moving field like systems medicine. This rises the need for comprehensive F.A.I.R. workflows.
+Especially Bayesian workflows, which provide a comprehensive description of uncertainties for all quantities of a model, produce a lot of data and need proper documentation to be reproducible. In particular, prior distributions must be specified and documented and the whole posterior should be reported (van de Schoot et al. 2021). Visualizations of the convergence and statistical tests which complement the analysis can also help others to understand the work. From a practitioners viewpoint, we aim to establish F.A.I.R. workflows that are build on existing standards particularly in a Bayesian learning context, thus simplifying and promoting reproducible work. Therefore, we combine the PEtab format, a format that contains an SBML model and the complete parameter estimation problem, with all information of our Bayesian analysis. Furthermore, visualizations that promote understanding are added and uploaded in a FAIRDOMHub project that can be accessed via a DOI. This helps biologists and clinicians to understand our work and promotes further research as other computational scientists can easily extend our models and make further analyses. </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8th international conference on Systems Biology of Mammalian Cells SBMC 2022, https://sbmc2022.de/</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Data and Model Driven Multiscale Simulation of Tumor Growth in the Human Liver</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken, Arndt Wagner, André Mielke, Marlon Suditsch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Computational multiphase and multiscale continuum-biomechanical modeling of biological
+tissue can simulate the hepatic deformation-perfusion-function relationship
+and allow patient-specific prediction of liver surgery [1, 2]. Our goal is the precise
+mathematical description and numerical simulation of the liver lobules coupled to
+metabolic processes in the liver cells using a multiscale and multiphase continuumbiomechanical model based on the Theory of Porous Media (TPM), see [4, 5].</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SimTech Status Seminar </t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>44481</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>P7 - Ricken, Coordination</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Data- and Model-Driven Multiscale Simulation of Tumor Growth in the Human Liver</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Computational multiphase and multiscale continuum-biomechanical modelling
+of biological tissue can simulate the hepatic deformationperfusion-
+function relationship and allow patient-specific prediction of liver
+surgery [1, 2]. Our goal is the precise mathematical description and numerical
+simulation of the liver lobules coupled to metabolic processes in
+the liver cells using a coupled continuum-biomechanical PDE-ODE model
+based on the Theory of Porous Media (TPM), see [4, 5].</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SimTech Status Seminar 2022, Bad Boll</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7/5/0022</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>P7 - Ricken, Coordination</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Data- and model-driven multiscale liver modelling function-perfusion interqaction during liver resction </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gerhäusser S., Ricken T., Lambers L., Mandl L. </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Computational multiphase and multiscale continuum-biomechanical modelling of biological tissue can simulate the hepatic deformation-perfusionfunction relationship and allow patient-specific prediction of liver surgery. Our goal is the precise mathematical description and numerical
+simulation of the liver lobules coupled to metabolic processes in the liver
+cells using a coupled continuum-biomechanical PDE-ODE model based
+on the theory of porous media (TPM).</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Simtech Status Seminar 2022</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Steffen Gerhäusser, Tim Ricken, Lena Lambers</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>P7 - Ricken, Coordination</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Data- and Model-Driven Multiscale Liver Modelling - Staging Ischemia Reperfusion Injury During Liver Transplantation</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Luis Mandl, Tim Ricken, Lena Lambers, Steffen Gerhäusser</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Computational multiphase and multiscale continuum-biomechanical modelling of biological tissue can simulate the hepatic deformation-perfusion-function relationship and allow patient-specific prediction of liver surgery. Our goal is the precise mathematical description and numerical simulation of the liver lobules coupled to metabolic processes in the liver cells using a coupled continuum-biomechanical PDE-ODE model based on the theory of porous media (TPM).</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SimTech Status-Seminar Bad Boll 2022</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tim Ricken, Lena Lambers, Steffen Gerhäusser</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>P7 - Ricken, Coordination</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Data- and Model-Driven Multiscale Liver Modelling</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Pints&amp;Posters, 15.07.2022, University of Stuttgart</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>P7 - Ricken, Coordination</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>F.A.I.R. Workflows for Bayesian Inference in Systems Medicine</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Höpfl Sebastian, Radde Nicole</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The research unit ‘Quantifying Liver Perfusion-Function Relationship’ (QuaLiPerF) aims at a holistic understanding of liver function in the context of liver resections. We use Bayesian methods for data integration and estimation of certainties for model predictions, which can be used for a risk stratification for liver surgery patients.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SimTech Status Seminar 2022, Bad Boll</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>F.A.I.R. Workflows for Bayesian Inference in Systems Medicine</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Nicole E. Radde</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>F.A.I.R. Workflows for Bayesian Inference in Systems Medicine</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Current Trends in Systems and Control Theory, June 7 2022 Stuttgart</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Differences in gene expression are stronger influenced by patient's sex than by biological conditions like fat content or disease</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Meyer D, Barth E, Marz M</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>German Conference on Bioinformatics 2022, https://gcb2022.de/</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Daria Meyer, Manja Marz</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>P4 - Marz</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Digital Liver Twin</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ricken Tim, Gerhäusser Steffen, Lambers Lena, Mandl Luis</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Computational multiphase and multiscale continuum-biomechanical
+modelling of biological tissue.
+Precise mathematical description and numerical simulation of
+function-perfusion processes in the human liver.
+Patient-specific prediction of liver disease and therapy.
+Coupled continuum-biomechanical PDE-ODE model based on the
+Theory of Porous Media.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Inventing the Future - University of Stuttgart meets Bosch</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Ricken Tim, Gerhäusser Steffen, Lambers Lena</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>P7 - Ricken</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Asymmetric echo variable flip angle RARE for n-echo Dixon based PDFF @ 9.4T</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Zhao WT, Herrmann KH, Sibgatulin R, Arlt J, Wei WW, Dahmen U, and Reichenbach JR.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Introduction
+Conventional fat fraction quantification relies on gradient echo based sequences1-4, which has the advantage of fast acquisition, while being vulnerable to motion and susceptibility artifacts. At 9.4T not only the susceptibility artifacts are much stronger, but also the echo time of a FLASH sequence can’t resolve the in-phase to opposed-phase progression which corresponds to an echo time difference of 0.357 ms. Additionally, at such high field, a spin- echo based sequence has the benefit to suppress R2* effects while echo shifting can be used to sample the spin echo asymmetrically at arbitrarily small echo differences to induce well defined phase shifts between fat and water signal components. To reduce the required scan time, the echo shifting was implemented into a 3D variable flip angle RARE sequence (Rapid Acquisition with Refocused Echoes, ES-VFA-RARE) which allows high RARE factors with excellent image quality5. Using this sequence, the abstract attempts to bridge the typical MRI mm scale to the histological microscale by recovering super high resolution fat signal fraction maps in ex vivo liver tissue at 100μm.
+Materials and methods
+MRI data were acquired on a Bruker BioSpec 94/20USR AVIII scanner using a 72mm (phantom) or 60mm (ex vivo sample) quadrature transceiver coil. To assess the phase shift created by progressively changing the echo shift value, ES-VFA-RARE images were acquired on a kerosene gel (a.k.a. paraffin or lamp oil) - water phantom with the 41 echo times = [-0.72:0.036:0.72] ms, fig. 1). The scan parameters of ES-VFA-RARE for phantom study were TA=6.5min for each echo shift, TR=1500ms, TE=63ms, BW=200kHz, resolution 0.44 x 0.44 x 0.55 mm3.Ex vivo acquisition was performed on a liver sample, harvested from a rat which received high fat diet for 12 weeks. The scan parameters were TA=4h 10min per echo shift, TR=1000ms, echo shifts= [-0.367,-0.357,-0.129,-0.059,0,0.059,0.178,0.367,0.397,0.416] ms, echo spacing 3.6ms, TE=18ms, RARE factor=60, 10 averages, BW=400kHz, isotropic resolution of (0.1mm)3. Fat-water separation was performed by fitting the following signal model:
+S(T_E) = S_0•(1 + f exp(i • ω_Δfw• T_E))• exp(i • (ω_ΔB0• T_E+φ_0))
+where $\omega_{\Delta fw} = \gamma Β_0 \sigma = 8.8\times 10^3$ rad / s, assumed to be the fat-water frequency shift; Optimisation was performed with respect to $S_0$, signal fat fraction f, off-resonance frequency ω_{ΔB0}, and phase after the RF pulse $\phi_0$. It was implemented in JAX6 to leverage automatic differentiation and is performed using a variable projection method, VARPRO7,8, with nonlinear parameters ω_{ΔB0} and φ0 optimised using AdaBelief optimiser9,10.
+Results
+Fig. 1 displays a clear boundary between kerosene and water. The phase difference across the boundary changes linearly with the applied echo shift. Fig. 2 shows the original MRI images and the results of the fat-water signal fraction separation. The calculated fat signal fraction ranges to approx. 22% in the areas with highest fat concentration. The B0 map shows primarily the residual linear gradient along the readout direction, together with a characteristic dipole field from, most likely an air bubble. The φ0 map shows the effects of the initial RF pulse for different tissue properties (e.g. electric conductivity). In Fig. 3 two large landmarks could be matched, in a first step, between MR images and low magnification histology. Following deeper inspection a small area of an MRI-derived fat distribution could be matched to a small area in the histology slide at higher magnification.
+Discussion
+Pieces of an entire rat liver were scanned with a very high isotropic resolution of 100mm3 using a large 60mm volume coil. To achieve sufficient SNR for voxelwise fat separation, rather long scan times were necessary, which would have been prohibitively long without the high RARE factors possible with the ES-VFA-RARE sequence. Complex non-linear optimisation is facilitated by the VARPRO algorithm, leveraging the separable nature of the problem, as well as by a total of 10 different echo shifts, providing high SNR for the fat-water separation. The very high resolution of the MR acquisitions allows to bridge the gap between the reconstructed fat fraction maps and μm histological images, showing qualitative agreement between the spatial distributions. Quantification of the fat proton density fraction, however, requires further calibrations to remove different signal weighting of fat and water due to their different T1 and T2 times.
+Conclusion
+Echo shifting was successfully incorporated into a scan-time efficient ES-VFA-RARE sequence, allowing high resolution acquisition of liver samples and subsequent Dixon based fat signal separation. The MRI images at 100μm resolution started to resolve the enhanced periportal fat depositions and fine structures in the local liver lobe as well as the larger scale differences within the liver lobe or between different liver parts.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>International Society for Magnetic Resonance in Medicine 2023, https://www.ismrm.org/23m/</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Wan-Ting Zhao, Karl-Heinz Herrmann, Sibgatulin R, Weiwei Wei, Uta Dahmen, Jürgen R. and Reichenbach</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>P2 - Dahmen, P6 - Reichenbach</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Digital Liver Twin</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Treffen der Joachim-Herz-Stiftung, 10.-11.20.2023 in Hamburg</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>P7 - Ricken, Coordination</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>The influence of marginal organs on the drug metabolism in liver transplantation</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bütow L.B., Tautenhahn H.-M. T., Schröter D.S., Schlattmann P.S., Settmacher U.S., Dahmen U.D.,</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background and Aims: 
+Metabolic zonation is a liver phenomenon, described as different distribution of functions among lobules. One liver function is the degradation of drugs, which is realized by cytochrome P450 enzymes. The alteration of CYP expression and activity will be studied in marginal donor livers for a better characterization of these high-risk organs to improve the graft selection process.
+Method: 
+The first step of the study is to investigate the influence of marginal organs on drug metabolism, by comparing the steatosis severity, the donor age, and the CIT to the CYP expression and activity. The measurements will be correlated to the change in reperfusion and ischemia-reperfusion-injured grafts. Second, to assess the LiMAx test, as a CYP 1A2 point- of care diagnostic, the in vivo and in vitro CYP measurements are correlated. The experimental results are related to the patient outcome, especially the prevalence of delayed graft function, as well as validated clinical chemistry parameters.
+40 patients undergoing a liver transplantation in 2022/23 at university hospital in Jena, who are giving their informed consent, will be examined. For an exploratory approach, with 10 subjects each independent variable, are needed.
+With the tissue samples we perform an H.E. staining for the morphological analysis of the donor organs. Indirect immunohistochemistry for CYP expression, precisely CYP 1A2, CYP 3A4, CYP 2C19 and a fluorescent assay measuring the CYP 1A2 activity in vitro, as well as a breath test (LiMAx) to measure the CYP activity in vivo. 
+Results: 
+The CYP enzymes are expressed pericentral in the lobules. Steatosis, age, and CIT are three interrelated factors, that we predict, will influence the CYP expression pattern. We assume that the CYP activity is altered by the reperfusion and the IRI. 
+Conclusion: 
+Potentially, the LiMAx could be used to assess recovery after transplantation, reflecting the IRI.
+</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>EASL European Association for the Study of the Liver, https://www.easlcongress.eu,</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6/24/2023</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Laura Bütow, Hans-Michael Tautenhahn. T., Schröter D.S., Uta Dahmen</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>P2 - Dahmen, P9 - Tautenhahn, SimLivA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Influence of marginal organs on the drug metabolism in liver transplantation. Outline for a prospective clinical study</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bütow L.B., Schröter D.S., Tautenhahn H.-M. T., Dahmen U.D., Nickel S. N.,</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Background:
+Due to the lack of donor organs there is an increasing use of non-optimal organs. These are organs from aged donors, with steatosis or organs subjected to prolonged cold ischemia. 
+Those factors might influence the recovery of function after transplantation and thereby affect outcome. 
+One of the key functions of the liver is the drug metabolism. Ex-vivo assessment of drug metabolism includes the visualization of the key drug metabolizing CYP enzymes and the determination of the enzyme activity. In-vivo assessment of CYP 1A2 metabolism is performed using a breath test (LiMAx) after injecting a test drug (Methacetin) and is accepted as a correlate of hepatic function.
+Hypothesis:
+We hypothesize that the three factors Steatosis, age, and CIT may influence drug metabolism in liver grafts after transplantation. 
+Objective and Methods:
+We want to investigate the impact of age, steatosis and cold ischemia time on expression and activity of CYP enzymes in tissue samples obtained from liver grafts at the end of cold ischemia and 1 hour after reperfusion. First, Severity of steatosis will be determined based on HE-staining of the liver samples. Second, CYP expression will be visualized using IHC. Third, CYP activity will be assessed using a fluorescent assay. As a fourth and thus clinical part, the CYP 1A2 activity in vivo is investigated with the LiMAx.
+Wetlab results will be compared to the postoperative course of the patient with special attention to the recovery of hepatic function as determined using the LiMAx assay on POD 1 and POD 7. 
+Based on statistical the considerations of Peduzzi et al., 10 patients per individual variable should be included for an explorative approach to assess factors influencing liver function.
+Results:
+Over the time period from January 2022 until March of 2023, 40 patients were included in the study. Donor age ranged from 23 to 88 years with a mean of 59.5 years. The mean CIT was 6.13 hours. The Limax test, as illustrated by a single case so far, demonstrated the posttransplant reduced hepatic function as well as the almost complete recovery within the first postoperative week. The patient was an 59 old male with ethyl toxic liver cirrhosis who gets an 65 year old organ with a CIT time of 8 h 51. 
+</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33., Wilseder Workshop von Biotest- Individulaisierte Therapie von Lebererkrnakungen, https://www.biotest-wilsede.de,</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6/28/2023</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Laura Bütow, Schröter D.S., Hans-Michael Tautenhahn, Uta Dahmen</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>P2 - Dahmen, P9 - Tautenhahn, SimLivA</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Time-series of transcriptome data reveal non-coding RNAs can be incorporated into modelling approaches</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Meyer D., Barth E., Christ B., König M., Marz M.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Time-series of transcriptome data reveal non-coding RNAs that can be incorporated into modelling approaches
+Daria Meyer1, Bruno Christ2, Matthias König3, Manja Marz1 
+1Friedrich-Schiller-Universität Jena, Germany; 2Universitätsklinikum Leipzig, Germany; 3Humboldt-Universität zu Berlin, Germany
+Non-coding RNAs (ncRNAs) are a special class of RNA that are transcribed from the DNA, but not translated into protein. Beside about 4,000 ncRNA classes in Rfam, an RNA families database (Griffiths-Jones et al.), the number of long ncRNAs is estimated to be more than 50,000 (Iyer et al.). Often ncRNAs have regulatory functions; but for most ncRNAs no function is yet known.
+Here, we propose a method to determine:
+(i) differentially expressed ncRNAs suggesting a potential function in a given experimental setup
+(ii) possible targets in the transcriptional 'behaviour' as the ncRNAs themself
+(iii) a proof-of-principle for integrating regulation via ncRNAs into pathway-based modelling approaches
+We show a clear functional relationship of ncRNAs using portal vein ligation (PVL), a surgical procedure that reduces perfusion in part of the liver. Specifically, we compare sham surgery to PVL, at 2 and 5 days, in both ligated and non-ligated liver lobes.
+Furthermore, we predict targets for selected ncRNAs by correlating transcriptome patterns with ncRNA expression.
+Finally, we propose to integrate ncRNAs into existing modelling approaches, such as pathway models of liver regeneration after partial hepatectomy (Köller et al.) or gene regulatory networks (Gebert et al.).
+References:
+Gebert, Jutta, Nicole Radde, and G-W. Weber. "Modeling gene regulatory networks with piecewise linear differential equations." European Journal of Operational Research 181.3 (2007): 1148-1165.
+Griffiths-Jones, Sam, et al. "Rfam: an RNA family database." Nucleic acids research 31.1 (2003): 439-441.
+Iyer, Matthew K., et al. "The landscape of long noncoding RNAs in the human transcriptome." Nature genetics 47.3 (2015): 199-208.
+Köller, Adrian, et al. "Prediction of survival after partial hepatectomy using a physiologically based pharmacokinetic model of indocyanine green liver function tests." Frontiers in physiology (2021): 1975.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Workshop on Computational Models in Biology and Medicine 2023</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6/15/2023</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Daria Meyer, Bruno Christ, Matthias König, Manja Marz</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>P1 - Christ, P3 - König, P4 - Marz</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Digital Liver Twin - Data- and Model-Driven Multiscale Liver Modeling</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tim Ricken, Steffen Gerhäusser, Lena Lambers, Luis Mandl</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>International Conference on Data-Integrated Simulation Science (SimTech2023), https://www.simtech2023.uni-stuttgart.de/, 04. - 06. Oktober 2023, Sutttgart</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Tim Ricken, Steffen Gerhäusser, Lena Lambers, Luis Mandl</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>P7 - Ricken</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GlucoCEST MRI to Assess Alterations in the Corticomedullary Glucose Gradient in a Rat Model of S-AKI</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wan-Ting Zhao, Karl-Heinz Herrmann, Jürgen R. Reichenbach and Verena Hoerr
+</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>The renal cortex and medulla exhibit distinct responses to glucose stimuli, highlighting their differential metabolic roles. This leads to variations in glucose concentrations between cortex and medulla, which are further influenced by different pathophysiologies. Therefore, in our study we could show, that investigating the distribution of glucose allows for the elucidation of disrupted nutritional utilization and inflammatory processes in sepsis-associated acute kidney injury (S-AKI).</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25th DS-ISMRM (Germany chapter International Society for Magnetic Resonance in Medicine), Berlin, 6-7 September, 2023, Poster</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Adaptive Response of Liver Perfusion in Preclinical Portal Vein Ligation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Wan-Ting Zhao, Weiwei Wei, Karl-Heinz Herrmann, Martin Krämer, Uta Dahmen, Jürgen R. Reichenbach</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Introduction
+In clinical practice, portal vein ligation (PVL, Fig.1-A) is a prelude of standard two-step hepatectomy to induce hypertrophy-atrophy complex. However, the regenerated liver volume often exhibits marked heterogeneity [1]. One theory of the liver’s response to PVL-induced blood supply restriction is that increased shear stress in the non-ligated lobes triggers liver regeneration to counterbalance functional decline. Yet, the intricate dynamics between non-ligated lobes and ligated lobes remains elusive [2]. To date, identification of liver function loss has relied on either invasive liver biopsy and/or systemic biochemical data (such as ASAT, ALAT, bilirubin), which provide limited insight into individual lobes [2]. Arterial spin labeling (ASL) MRI is a non-contrast, non-invasive technique that allows quantitative assessment of perfusion and can resolve the intralobar perfusion changes after PVL. The aim of our study was to delineate the changes in perfusion over time at days 1, 2, 3, and 5 after portal vein ligation in a cross-sectional study (Fig.1-B).
+Methods
+MRI data were collected on a Bruker BioSpec 94/20USR AVIII scanner using an 86 mm quadrature transceiver coil. A total of 23 animals were studied. PVL was performed by surgical ligation of portal branches of left lateral, left median and right lobes representing 65% PVL. After PVL (s. Fig 1A), animals were intubated for mechanical ventilation (tidal volume Vt = 5.5 ml, constant respiratory rate in the range of 45-55 bpm). To quantify the “kinetics” and re-distribution of the blood supply, respiratory-triggered MRI measurements and liver tissue harvesting were performed 1, 2, 3, or 5 days after surgery (POD1,2,3,5). Anatomic T2W images were acquired with a 3D VFA-RARE sequence. TR/TE = 1000/1.97 ms, RARE factor = 100, isotropic Resl = 350μm3, BW = 250 kHz, TA ~7m30 s with trigger. Multiple single-slice perfusion images were acquired using a FAIR-EPI sequence with TR/TE = 12000/12.87 ms, 14 TIs ranging from 100 – 5150 ms, Resl = (625 x 625 x 2000) μm3, TA ~ 10m 5s with trigger. Manual segmentation of ROIs on Bruker perfusion maps was performed with MATLAB (R2019a, MathWorks), followed by plotting and statistics (Python v.3.8, Seaborn v. 0.12.2, SciPy v.1.7.1). The Mann-Whitney test was applied, and p &lt; 0.05 was considered significant.
+Results
+Starting from POD1, the ligated lobes (LML, LLL and RL, Fig.2-A, blue dashed line) showed a darker contrast compared with the non-ligated lobes (RML, CL, Fig.2-A, red dashed line), and this contrast persisted in the anatomical images. In control animals (Ctrl), the average tissue perfusion across all lobes was 307±50 ml/min/100g tissue. For the operated animals, both non-ligated lobes exhibited hyperperfusion at POD1 (Fig.2-C, RML: 440 ± 84 ml/min/100g tissue; CL: 390 ± 37ml/ min/100g tissue), which was decreased at POD2 (insignificant compared to Ctrl) and reached equilibrium at POD5. In contrast, perfusion of ligated lobes remained minimal at approximately 150±50 ml/min/100g tissue. Notably, RML demonstrated the highest heterogeneity at POD1.
+Discussion
+The liver has a unique dual blood supply: it is supplied 25% by the hepatic artery and 75% by the portal vein [2]. When the portal vein of a lobe is ligated, the latter is supplied exclusively by the hepatic artery, which delivers oxygenated blood from the heart. Conversely, the non-ligated lobe is supplied with nutrient-rich, oxygen-poor blood from the intestine, resulting in a brighter contrast than the ligated lobes. The time course of the perfusion shows that the key time point is POD1-2. All ligated lobes exhibited an overshoot trend at POD1 and a re-elevated perfusion from POD2 on, suggesting a buffering response of the hepatic artery [3]. Our results demonstrate the dynamics of rapid perfusion changes after PVL in multiple lobes. Further studies are needed to refine and confirm our findings, preferably in a longitudinal study design.
+Conclusion
+ASL perfusion is a sensitive method to detect perfusion adaptation after PVL in the liver.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>39th European Society for Magnetic Resonance in Medicine and Biology, Basel, Switzerland. Poster</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FAIR Bayesian Optimal Experimental Design in Systems Biology</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Höpfl Sebastian, Wagner Vincent, Guizeni Eya, Pleiss Jürgen, Range Jan, Radde Nicole</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>The acquisition of experimental data in Systems Biology is time-consuming
+and costly. On the one hand, this is due to expensive chemicals, such as antibodies,
+on the other hand, due to the need for extensive preparation, incubation,
+and purification procedures of experiments. Finding the best experiment design
+helps to get the maximum possible information out of limited experimental data,
+thereby minimizing cost and time. Here, we present first results of Bayesian Optimal
+Experiment Design (BOED) in a Findable, Accessible, Interoperable, and
+Reusable (FAIR) fashion. In particular, our approach makes use of the Systems
+Biology Markup Language (SBML), the de facto modeling standard in Systems
+Biology, and is set up in an easily applicable and reusable way. Models, data,
+and code will be stored on Fairdomhub.
+BOED was applied to Michaelis-Menten enzyme kinetics with different initial
+substrate concentrations cinit (Figure 1). In the first attempt, three different
+experimental designs were investigated with artificial data. The first design includes
+three measurements with initial substrate concentrations larger than KM,
+the second design includes three measurements with initial substrate concentrations
+lower than KM, and the third design includes only two measurements but
+with lower and higher initial substrate concentrations than KM. Our results
+show that in the first design only kkat but not KM can be identified. In the
+second design, kkat and KM are correlated. Only in the third design with only
+two experiments, both parameters can be identified and the IG was highest.
+These results demonstrate that proper planning of the experimental design can
+improve the estimation of the parameters and at the same time reduce the number
+of experiments needed. Now, the next step is to predict the optimal starting
+concentrations via BOED.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>International Conference on Data-Integrated Simulation Science (SimTech2023), https://www.simtech2023.uni-stuttgart.de/</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45087</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Authors</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Abstract</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Conference</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Qualiperf</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Authors Qualiperf</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Impact of impaired perfusion on drug metabolism in diﬀerent species</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>M. Albadry , A. Lupp , O. Dirsch , H. - M. Tautenhahn , R. Klopﬂeisch , V. Liška, U. Dahmen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Background/Purpose
+Hepatobiliary research in clinical and experimental-surgery requires the assessment of liver function. One important parameter of liver function is drug metabolism (DM). DM is aﬀected by the underlying liver disease, liver-surgery, and the subsequent disturbance of hepatic perfusion (HP). However, DM is also aﬀected by the species in question. For translational purposes, it is therefore of importance to compare key aspects of DM in diﬀerent species.
+Methods
+First, we assess the impact of species on DM in normal liver-tissue by comparing CYP-expression and
+activity in three widely used species (mouse, rat, pig) in comparison to human samples.
+Second, we investigate the impact of HP on DM. Therefore, we use rats and mice with a particular
+impairment of HP: (1) moderate hepatic steatosis inducing heterogeneous perfusion due to zonal and lobular inhomogeneous fat accumulation in hepatocytes and (2) 70% partial hepatectomy (PH) inducing portal hyperperfusion due to the loss of liver mass.
+CYP-expression is visualized using immunohistochemistry and quantiﬁed by image analysis (Histokat, Fraunhofer Mevis) in whole slide scans (Nanozoomer, Hamamatsu). CYP-activity is assessed in cryo-preserved liver-tissue utilizing model-reactions.
+Results
+Pericentral expression of all CYP-isozymes in mice and humans extends to zone2. CYP-expression in rats is limited to 2-3 lines of hepatocytes, except CYP1A2 extending to zone2. In pigs, CYP1A2 is expressed in the whole liver lobule.
+In mice, steatosis induced by feeding a methionine-choline deﬁcient but fat-enriched diet for 2-4 weeks did neither aﬀect CYP-activity nor CYP-distribution pattern, with one exception (signiﬁcantly higher CYP2E1- activity as revealed by the model reaction p-Nitrophenol-Hydroxylation).
+In contrast, CYP-expression in the hyperperfused remnant liver was reduced in terms of signal intensity and distribution 24h after 70%PH in both species.
+Conclusions 
+CYP-expression pattern in normal mouse liver is similar to normal human liver, whereas normal rat and pig liver present with diﬀerent distribution patterns. However, surgery-induced substantial hyperperfusion caused similar relative changes in rats and mice.
+In conclusion, mice seem to be the most suitable species for DM-studies. Rats can be used as well, if relative changes are of importance. However, translation of results into the human setting should be done
+with caution.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24. Chirurgische Forschungstage, CFT2021, https://forschungstage2021.de/</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44441</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Uta Dahmen</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>P2 - Dahmen</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bayesian statistics for uncertainty quantification of a physiologically based model of indocyanine green liver function tests</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Höpfl Sebastian, König Matthias , Radde Nicole</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quantitative modeling in a medical context is often accompanied by sparse and noisy data, resulting in ill-posed optimization problems for model calibration. In addition, data varies considerably among different samples and subjects, reflecting interindividual heterogeneity. For a personalized medicine approach, the individual differences between patients must be considered to provide reliable predictions which support decisions about treatment options. This can be done via computational modelling, integrating heterogeneous data types and information from various sources into a holistic framework. Our project contributes towards an advanced understanding of liver function in the research unit QuaLiPerF, by providing the statistical methodology for a consistent estimation of uncertainty in kinetic models. This estimation is a prerequisite for the risk assessment of (extended) liver resections and the prediction of accurate recovery courses for individual patients.
+We have developed a workflow which uses statistical approaches for uncertainty tracking from heterogeneous and sparse data, via model parameters to model predictions. If computationally feasible, we use Markov Chain Monte Carlo (MCMC) sampling to assess information about the uncertainties in terms of probability distributions. From these, credibility intervals for unobserved parameters and predictions are derived, which can aid clinical decisions.
+In a first approach, we apply methodology to a physiologically based model of the Indocyanine Green (ICG) liver function test. The model allows to predict postoperative liver function after hepatectomy as well as survival and includes data from multiple curated clinical studies. The data reflects a large heterogeneity due to individual differences in the patients and different reporting protocols. To ensure compliance with the FAIR principles, we make use of standard exchange formats such as the Systems Biology Markup Language (SBML) and PEtab. Parameter estimation and further uncertainty analysis is performed with advanced tools such as the Parameter EStimation TOolbox for python (pyPESTO), which ultimately allows to integrate these analysis steps into modeling workflows.
+Our analysis shows how statistical methodology for uncertainty quantification can be implemented in systems medicine modeling approaches. This contributes to personalized medicine by linking predictions for individual patients with their confidence, an important prerequisite for the application of predictive computational models in clinical decision workflows.  </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24te Chirurgische Forschungstage, CFT2021, https://forschungstage2021.de/</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Matthias König, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Comparison of pCASL, DSC and FAIR for Cerebral Perfusion in Rats @9.4T</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hung LY1, Herrmann KH, Renat Sibgatulin1, Hirschler L2,3, Warnking Jan3, Barbier EL3, Witte EL4, Holthoff K4, Reichenbach JR1, and Joerk A4.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Synopsis:
+Attaining reproducible, time-efficient, high spatial resolution and quantitative MRI perfusion images in small animal MRI @9.4T is still challenging. To take a step toward this goal, perfusion data from arterial spin labeling (ASL), Flow-sensitive Alternating Inversion Recovery (FAIR), dynamic susceptibility contrast (DSC), and pseudo-continuous arterial spin labeling (pCASL) sequences are compared by assessing cerebral perfusion in 5 rats, each scanned 3 times. Differences in CBF in major brain regions were analyzed, and the repeatability of perfusion MRI was assessed. 
+Introduction:
+Perfusion MRI is widely used clinically to evaluate cerebral perfusion in numerous neurological disorders¹. However, cerebral perfusion of small rodents on ultra-high-field scanners is much less established, and although most methods such as pCASL², FAIR³, or contrast agent-based DSC³ have been implemented on small animal MRIs, there are few evaluations of existing methods in rodents ²⁻⁴. This work compares cerebral blood flow (CBF) obtained with pCASL, FAIR, and DSC in a group of 5 healthy rats in 3 repetitions to evaluate systematic differences between the techniques as well as their individual reproducibility. 
+Methods: 
+Animals: 5 adult Wistar rats were scanned on 3 separate days. Rats were pre-anesthetized with a bolus injection followed by a continuous infusion of Medetomidine in combination with 0.5% isoflurane to minimize the vasodilative effects of isoflurane. Respiration was maintained at 75 bpm±10bpm, and rectal temperature was 36.5±0.5°C at baseline and increased to 38.5±0.5°C during the course of the examination due to the high SAR of the pCASL sequence. All scans were performed on a 9.4T Bruker BioSpec MRI system with a 4 channel-head array. 
+Acquisition Protocol: pCASL acquisition followed published protocols² including calibration scans. pCASL and FAIR used the same spin-echo EPI: matrix 96x96 with partial Fourier 1.5, bandwidth of 300kHz, and spatial resolution of (0.22x0.22x1) mm3. The pCASL specific parameters were TE=16ms, TR=4000ms, labeling duration 3000ms, 60 repetitions, and TA=8min. The FAIR specific parameters were TE=13.6ms, TR=10000ms,  2 averages, 16 different inversion times each for global and selective inversion, and TA=11min.
+For the DSC acquisition, a matrix of 90x56 with partial Fourier of 1.2, resolution (0.26x0.26x1) mm3, TE=9.46ms, TR=150ms, BW 300kHz, 800 repetitions, and TA 2min was used.  A bolus of 1ml/kg of 1:5 diluted Gd-DTPA was administered via the lateral tail vein after 25s with a bolus length of 2s and flushed with saline.  
+Post-processing: For pCASL, the measured inversion efficiency and a T1map were used for calibration. FAIR perfusion maps were calculated using Bruker Paravision 6, and pCASL evaluation was performed in Matlab². For DSC the cerebral blood flow (CBF) maps were calculated via deconvolution with an arterial input function.
+Regions of interest (ROI) were manually drawn in Freeview5 (see Fig 1a) for each rat and repeat scan and separately for DSC and ASL. DSC-based CBF maps represent relative CBF values in arbitrary units, ASL CBF values are quantitative. 
+Results: 
+Fig. 1b-d show example parameter maps for DSC, pCASL, and FAIR. The pCASL sequence yields lower noise in the derived CBF maps compared with FAIR, and the visual perfusion contrast between the tissues is best in the pCASL-CBF maps. 
+The cumulative distribution (eCDF) of the perfusion values in each ROI is shown in Fig. 2. The eCDF shows the value range and distribution of the different methods and how well the ROI-areas are separated with respect to perfusion. The distributions obtained with pCASL and FAIR are in fair  agreement and show CBF increasing from white matter and hippocampus followed by cortex and thalamus. This ranking is, however, changed in the data obtained from DSC, where the hippocampus shows the lowest perfusion of the 4 ROIs. 
+Figure 3 examines the CBF correlation of pCASL with FAIR and DSC, comparing the median CBF value in each ROI in each animal. In general, CBF was most highly correlated for pCASL and FAIR (Spearman’s r = 0.63 across all animals, compared to r = 0.42 for pCASL vs DSC). 
+Figure 4 compares the relative agreement between pCASL and FAIR and pCASL and DSC using Bland-Altman plots. FAIR and pCASL agree well across the range of values, but white matter shows much less variation than the other tissues, particularly thalamus and cortex. The lower plot comparing DSC-CBF and pCASL again shows the deviating behavior of white matter with higher apparent perfusion in the DSC-based values. 
+Figure 5 analyses the 3 re-scans of each animal using boxplots with outliers. The FAIR plot (c) has a very wide distribution and many outliers to the right (some even cut off). DSC-CBF is scaled differently and therefore difficult to compare directly, but the distributions are narrow compared with the differences between ROIs. 
+Discussion: 
+All three perfusion MRI methods presented provided CBF maps of rat brains, but their comparison did not result in a clear winner. While FAIR shows noisier CBF maps and the distinction between the tissue types is less clear, the method is robust and easy to use. pCASL causes significant SAR heating and requires multiple calibration scans2 to achieve accurate results. This requires practice and a smooth workflow, possibly also indicated by the lower perfusion values in Fig. 5b for the first repetition.  The presented DSC-CBF maps currently do not provide absolute quantitative values, but this may be possible in future studies. The time resolution of 150ms was sufficient to extract arterial input functions for deconvolution. However, in the DSC-CBF maps, the low-perfused white matter showed higher perfusion than hippocampus, although ASL did. Although this may be a known issue with FAIR3, the effect was quite strong in our data and hence requires further, more detailed investigation.
+Summary: 
+The ideal MRI perfusion sequence is dependent on the pre-clinical question. In rats, pCASL and DSC are more suitable for reproducibility of CBF but do not entirely agree, whereas FAIR is noisier but easier to use.  
+</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ISMRM</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hung LY1, Karl-Heinz Herrmann</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>P6 - Reichenbach</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fast 3D Isotropic High-Resolution MRI of Mouse Brain Using a Variable Flip Angle RARE
+Sequence With T2 Compensation @9.4T</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Herrman KH , Hung LY, and Reichenbach JR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Synopsis
+Some applications require T2-weighted mouse brain MRI with isotropic high resolution (100µm3), but at 9.4T the short T2 of mouse brain limits the echo train length of RARE sequences and exacerbates T2-decay artifacts. Adapting a RARE sequence by using variable ﬂip-angles allows a reduction in scan time from 19min to 7-9min with similar image quality. However, long RARE echo trains and strong imaging gradients can unintentionally cause substantial diﬀusion weighting. To minimize the diﬀusion eﬀects crusher gradients were optimized and the variable ﬂip angles were kept above 40°.
+Introduction
+We aim to achieve artifact-free, isotropic high-resolution images of the mouse brain for neurological applications1. While 9.4T renders T1-based grey-white-matter contrast mostly useless, T2-weighted images achieve excellent anatomical contrast and can be eﬃciently acquired by 2D-RARE sequences. However, 2D acquisitions limit the achievable isotropic resolution due to minimal slice thickness and SAR. Using 3D acquisitions increases the acquisition time (TA), particularly since at 9.4T the short T2 of brain tissue limits echo train length with standard 180° refocusing pulses. The use of refocusing pulses with constant reduced ﬂip angles was shown2 to prolong the echo train to facilitate anatomic mouse brain scans within 20-40min.
+Our aim here was to reduce the acquisition time for T2w-3D-RARE by applying variable ﬂip angles (VFAs) to shape the echoes' signal envelope3,4 while preserving the image quality.
+Material &amp; Methods
+All data were acquired on a Bruker BioSpec 94/20USR with 660mT/m gradients using a helium-cooled 2-channel transceiver quadrature surface coil (CryoProbe, Bruker Biopsin, Ettlingen). All mice were scanned in vivo under Isoﬂurane anesthesia.
+The proposed varFlipRARE sequence uses three initialization RF pulses4 to drive the magnetization into a pseudo-steady-state matching the
+target FA&lt;&lt;90°. Subsequently, three acquisition phases can be adjusted separately, each allowing for a linear transition from one FA to another within a given number of echoes (Figure 3). Typically, the ﬁrst phase comprised the ﬁrst 1/3 of echoes, repeating the target FA or slightly increasing it. In the second phase, the FA increased to ~90° over 1/2 of the total echoes, followed by the last phase, which ramped the FA up to 160-180°. Usually, k0 was acquired at the center of the echo train.
+The general scan parameters for all varFlipRARE acquisitions were TA=7min 15s, TR=2200ms, isotropic resolution 100µm3, ΔTE=2.45ms,
+TF=70, BW=150kHz. The excitation and refocusing pulses were non-selective hard pulses with duration 128µs (exc) and 80µs (rfc) corresponding to 10kHz bandwidth to minimize echo spacing. The phase encoding gradients were 430µs long and the read and slice crusher gradients were played out during the same time frame at 10% (approx. 66mT/m).
+To explore further possibilities of applying VFAs, a faster sequence with RARE factor TF=140 with TA=4min was used, setting the target FA to 30-35°, following similar VFA increase patterns as stated above. The second variation aimed to increase the resolution to 76µm3 with TF=86 and TA=24min, ΔTE=3ms, TR=2700ms, and 2 averages.
+For reference, a RARE acquisition2 with slab-selective 90° excitation and 125° refocusing RF pulses was used with TA=19min, TR=1600ms,
+isotropic resolution 100µm3, ΔTE=5ms, TF=20, BW=150kHz.
+All sequences used full Nyquist sampling of the 18x14x10mm3 FoV and were acquired in coronal orientation, i.e. read out head-feet, phase left-right, and slice ventral-dorsal direction. All shown images were reconstructed with T2-compensation and Gibbs-ringing-ﬁlter for basic artifact reduction2. SNR and CNR values were calculated from the mean signal in ROIs and the standard deviation in artifact-free background areas.
+Results
+Figure 1 presents the reference image (a) and images acquired with the faster varFlipRARE sequence (b-i) for diﬀerent FA schemes. With a low target FA=30° (h, i) a distinctly lower signal for the ventricles(Vs) was observed. For a higher target, FA≈40° (f) or when k0 was shifted to 120ms (FA≈35°, e) the T2- and ventricle-contrast was improved. The contrast could be further enhanced by immediately ramping up to ~50° from the target FA≈40° (c,d) in the ﬁrst phase. To further improve ventricle signal TR was increased to 2700ms (TA=9min, b). The SNR grey matter (GM)=35, white matter(WM)=27, V=51 and CNR CGM-WM=9, CV-GW=15, CV-WM=24 in Fig 1b and c both match the reference image in GM and WM, the ventricle contrast is 15-20% lower. The signal envelope along the echo train is given below each MR image for the 2 channels of the CryoProbe, providing more insights into the actual signal behavior.
+To assess the eﬀect of the crusher gradients in read and slice direction Figure 2 shows an image comparison. In 2b) no crusher was used at all, leading to some ripple artifacts in the frontal olfactory bulb. Increasing the slice-crusher to 10% amplitude doesn't create a visual diﬀerence.
+Increasing the read-crusher to 10% removes the ripple artifacts, but at 20% the frontal bulbous and ventricles lose signal.
+Figure 2e-f shows the resulting images using TF=140. The low ventricle contrast in e) was improved by a faster increase of the target FA (f). The higher resolution scans with 76µm are shown in Figure 2g-h.
+Discussion 
+The use of VFAs together with faster non-selective acquisitions reduced the scan time from 19min to 7-9min achieving similar image contrast and quality as the reference. Reducing the scan time further to TA=4min leads to SNR below 10 due to unintentional diﬀusion weighting as has been described before5. Simulations5 showed that the use of FAs lower than 40° strongly enhances the eﬀective b-value and 99% of the
+b-contribution arises from the readout gradients, leading to water-signal suppression. Increasing the read crushers to remove artifacts will further increase the diﬀusion weighting and has to be carefully chosen.
+Summary 
+In summary, variable ﬂip angles enable faster 3D RARE acquisitions without compromising image quality, and even resolutions of isotropic 76µm3 are feasible in less than 30min with rich anatomic details.
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Karl-Heinz Herrman, Hung LY, Jürgen R Reichenbach</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>P6 - Reichenbach</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A Multiscale and Multiphase, Data- and Knowledge-Driven Simulation of Function-Perfusion Processes in the Human Liver</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Steffen Gerhäusser, Luis Mandl, André Mielke, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Modeling active biological systems, such as the human liver, with a complex interaction between cellular metabolism and perfusion in the functional units, requires a multiscale and multiphase approach to the tissue. Changes in hepatic perfusion and tissue morphol-ogy induced by surgical interventions or liver disease, directly influence the coupled liver function [1]. To better understand the interplay between hepatic perfusion, metabolism and tissue in the hierarchically organized liver structure, we have developed a multicom-ponent, poro-elastic multiphase and multiscale function-perfusion model, cf. [2], using a multicomponent mixture theory based on the Theory of Porous Media (TPM, see [3]). The multiscale approach considers the different functional units of the liver, the so-called liver lobules, with an anisotropic blood flow, and the hepatocytes, where the biochemical metabolic reactions take place. On the lobular scale, we assume a homogenized tetra-phasic mixture body, composed of a porous solid structure representing healthy tissue, a liquid phase describing the blood, and two solid phases with the ability of growth and depletion representing the fat and the tumor tissue. The phases consist of a carrier phase, called solvent, and solutes, representing microscopic components dissolved in the solvent. To describe the metabolic processes in the cells, the describing PDEs on the lobule scale are coupled with ODEs on the cell scale, resulting in a bi-scale PDE-ODE approach. To enable patient-specific simulations and increase the robustness of the model, data-driven approaches will be implemented for computationally critical parts of the model. We use experimental, clinical and in silico data such as stained histological liver sec-tions, perfusion measures or imaging data [4] for parametrization and validation of the multiphase model. The overarching goal is to define and develop an accurate decision-supporting framework for clinical applications.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The 8th European Congress on Computational Methods in Applied Sciences and Engineering ECCOMAS Congress 2022</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>44717</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Steffen Gerhäusser, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>P7 - Ricken, Coordination</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Data- and Knowledge-Driven Multiphase and Multiscale Simulation of Growth and Remodeling Processes in the Human Liver</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Steffen Gerhäusser, Luis Mandl, André Mielke, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>As a central organ for metabolic processes in the human body, the liver has a complex perfusion-function relationship defined by microcirculation through the capillaries coupled to function processes in liver cells. Numerical multiscale simulations can describe this relation and thus support the diagnosis as well as the prediction of hepatic diseases [1]. Surgical interventions and the development of various liver diseases lead to growth and remodeling processes in liver tissue as well as changes of the perfusion, which directly affects the coupled liver function [2]. To better understand the interplay between hepatic perfusion, metabolism and tissue in the hierarchically organized liver structure, we have developed a multicomponent, poro-elastic multiphasic and multiscale function-perfusion model, cf. [3], using a mul-ticomponent mixture theory based on the Theory of Porous Media (TPM, see [4]). The multiscale ap-proach considers the different functional units of the liver, the so-called liver lobules, with an anisotropic blood flow, and the hepatocytes, where the biochemical metabolic reactions take place. On the lobular scale, we assume a homogenized tetra-phasic mixture body, composed of a porous solid structure rep-resenting healthy tissue, a liquid phase describing the blood, and two solid phases with the ability of growth and depletion representing the fat tissue and the tumor tissue. The phases consist of a carrier phase, called solvent, and solutes, representing microscopic components, e.g. nutrients, dissolved in the solvent. To describe the metabolic processes as well as the production, utilization and storage of the metabolites in the cells, the describing PDEs on the lobule scale are coupled with ODEs on the cell scale resulting in a bi-scale PDE-ODE approach. To increase the robustness of the model and allow for near real-time patient-specific simulations, com-putationally critical parts of the model are enhanced by data-driven methods through the integration of experimental, clinical and in silico data, such as the zonated quantification of steatosis or the realistic geometry of the liver lobules by image segmentation from stained histological liver sections. The over-arching goal is the definition and development of an accurate decision-supporting framework for clinical applications.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15th World Congress on Computational Mechanics (WCCM-XV)
+8th Asian Pacific Congress on Computational Mechanics (APCOM-VIII)</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Steffen Gerhäusser, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>P7 - Ricken, Coordination</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Prehabilitation in geriatric surgery</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hans-Michael Tautenhahn</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>tbd</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Jahrestagung der mitteldeutschen Viszeralmedizin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6/10/0022</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hans-Michael Tautenhahn</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>P9 - Tautenhahn</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A Multiscale and Multiphase, Data- and Knowledge-Driven Simulation of Function-Perfusion Processes in the Human Liver</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl, André Mielke </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BioMechBW Symposium, 19.07.2022, Tübingen</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>P7 - Ricken, Coordination</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Data- and Knowledge-Driven Multiphase and Multiscale Simulation of</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Steffen Gerhäusser, Luis Mandl, André Mielke
+and Tim Ricken</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>see pdf</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>92nd Annual Meeting of the International Association of Applied Mathematics and Mechanics (GAMM)</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Steffen Gerhäusser, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>P7 - Ricken</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Numerical Data- and Knowledge-Driven Simulation of Function-Perfusion Processes in Liver Cell, Tissue and Organ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Steffen Gerhäusser, Luis Mandl, André Mielke, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>see pdf</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GACM Congress, Essen</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>44826</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Steffen Gerhäusser, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>P7 - Ricken</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Physiologically based pharmacokinetic (PBPK) models for metabolic phenotyping and evaluation of liver function</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>König M, Grzegorzewski J</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Physiologically-based pharmacokinetic models (PBPK) are digital twins of human physiology which allow the study of individual drug metabolism in silico. PBPK models can simulate the absorption, distribution, metabolization and elimination of substances and when coupled to pharmacodynamics models also the effect of the substance on the body.
+Here we present our work on PBPK models for metabolic phenotyping and evaluation of liver function [1-5]. For the development and validation we established the first open pharmacokinetics database PB-PK with data from over 600 curated clinical studies [1]. The database allows to integrate data for given test substances and study the effect of lifestyle factors or co-administration such as smoking or oral contraceptives [2]. Based on the curated data individualized and stratified computational models have been established and applied to various clinical questions [3-5]. A model of indocyanine green allowed to simulate individual outcome after hepatectomy by building patient-specific models using data such as anthropometric information (e.g. sex, weight, age) and pre-existing liver disease [3]. Combining the data with information on study cohorts allowed to simulate virtual populations [4]. Using a model of dextromethorphan coupled to drug-gene interactions accounting for changes in CYP2D6 enzyme kinetics depending on activity score (AS), allowed in combination with AS for individual polymorphisms to study the effect of CYP2D6 gene variants [5]. The model was applied to investigate the genotype-phenotype association and the role of CYP2D6 polymorphisms for metabolic phenotyping using the urinary cumulative metabolic ratio (UCMR). The model is capable of estimating the UCMR dispersion within and across populations depending on activity scores. The model can be applied for individual prediction of UCMR and metabolic phenotype based on CYP2D6 genotype. A model of omeprazole allowed to study the effect of omeprazole therapy on stomach pH, a model of simvastatin to study the LDL-C lowering effect of statins, and a model of pravastatin the effect of genetic variants and hepato-renal impairment on pravastatin pharmacokinetics. All models and data are available for reuse with models encoded in SBML.
+We end the talk with an outlook on how such PBPK models can be applied to predict liver function in liver cancer and how coupling of such models to AI could help in clinical decision support.
+[1] https://doi.org/10.1093/nar/gkaa990 [2] https://doi.org/10.3389/fphar.2021.752826 [3] https://doi.org/10.3389/fphys.2021.730418 [4] https://doi.org/10.3389/fphys.2021.757293 [5] https://doi.org/10.1101/2022.08.23.504981</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ICSB2022, The 21st International Conference on Systems Biology</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Matthias König, Jan Grzegorzewski</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>P3 - König</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Modeling of function-perfusion interaction in the human liver based on a multiscale porous media model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Steffen Gerhäusser, Tim Ricken, Lena Lambers, Luis Mandl, Matthias König</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The liver is the central organ of metabolic homeostasis in the whole body and and is the first line for the detoxification of drugs and toxins. Due to our diet and lifestyle choices, liver diseases such as non-alcoholic fatty liver disease (NAFLD) or liver cancer are among the most common diseases in industrial countries. In the context of clinical treatment, digital models offer an enormous potential to assess the risk of surgical intervention in liver resections [1]. Here we present a multiscale mathematical model based on the coupling of the tissue and the cellular scale. Within a continuum biomechanical approach the hepatic lobule can be modeled as a multiphasic, porous solid body saturated with blood using a multicomponent mixture theory based on the Theory of Porous Media (TPM, see [2]). The deformation, blood flow and transport processes within the lobule are modeled using a system of coupled partial differential equations (PDE). Microscopic components like nutrients or xenobiotics are represented as solutes solved in the carrier phase (blood), which are transported through the lobule domain by advection and diffusion. On the cell scale underneath, metabolic processes take place in the form of chemical reaction networks influencing the local concentration of the solutes. Those processes are modelled using a system of coupled ordinary differential equations (ODE). In the context of a systems biology approach, the elimination rate of the contaminant within the cell is depends on many factors, such as the zonation of CYP2E1 or the necrosis state of the cell. In our PDE-ODE approach the cell model is embedded in every integration point of the finite element providing source/sink terms for the balance equations of the macro model. Using a one-way coupling scheme, the macro model provides the solute concentration and the volume fractions for the cell model. A peculiarity of the coupling is the integration of domain specific solvers, combining a software tool for finite element analysis with a software library for high-performance simulation of Systems Biology Markup Language (SBML) based models. The described model is used to simulate paracetamol degradation as a showcase for the liver function. In addition, the coupling of the multiscale lobule model to an ODE-based physiological-based pharmacokinetics models on the whole body scale is also addressed. The developed model can pave the way to simulate patient-specific data and ultimately drive the development of an accurate decision-supporting framework for everyday clinical use.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GAMM Annual Meeting 2022 ,https://jahrestagung.gamm-ev.de/</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Steffen Gerhäusser, Tim Ricken, Lena Lambers, Matthias König</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>P7 - Ricken</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>F.A.I.R. Bayesian workflows and F.A.I.R. model citation analysis</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nicole Radde</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Combine Meeting, Satellite Event to the ICSB Conference, October 6-7, 2022, Berlin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10/6/0022</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Bayesian modelling of enzymatic processes and model-based design of experiments</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nicole Radde</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>n.a.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3rd EnzymeML Workshop, October 18-19, 2022, Rüdesheim</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10/18/0022</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bayesian estimation shows the merits of reproducible and reusable modeling in systems
+biology</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Höpfl Sebastian, Radde Nicole</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>one page abstract</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>BioSB 2023, https://www.aanmelder.nl/biosb2023, Egmond aan Zee</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Journals in Systems Biology could improve their impact factor by enforcing reproducibility</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Höpfl Sebastian, Radde Nicole</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Systems Biology is at the forefront of developing and using modeling standards to improve the reproducibility and reuse of models. Still, a recent study by Tiwari et al. showed that only every second model out of a set of 455 models could be directly reproduced (Tiwari et al. 2021). This limited reproducibility shows the need for further efforts or mechanisms that promote reproducibility. Reproducibility of scientific results fosters collaborations and leads ultimately to faster progress in the whole field and increased trust in science. Since these merits are mainly long-term and not immediate for the publishing researcher, it seems crucial that third parties like publishing companies or funding organizations foster reproducibility. For example, the largest German research funding organization (German Research Foundation, DFG) signed 2003 the "Berlin Declaration on Open Access to Knowledge in the Sciences and Humanities" and has since been engaged in promoting open source and reusable data and publications.
+Here, we applied Bayesian Estimation to analyze the citation count of reproducible against non-reproducible models of the periods 1985-2020 and 2013-2020. The Bayesian Estimation Supersedes the t-Test method of J. Kruschke uses the Non-Central T-distribution to handle outliers in the data and estimates the distribution parameters via Markow-Chain-Monte-Carlo sampling (Kruschke 2013). The parameters are mean and sigma parameters for each dataset and a shape parameter that is jointly sampled for both datasets. Posterior predictive distributions for the difference of means and standard deviations and the effect size can be calculated from the posterior distributions of the parameters. From these, decisions are made via the 95% Highest Density Interval (HDI) of the difference of means posterior predictive distribution. Specifically, a decision can be made if the 95% values with the highest credibility (95% HDI) indicate a difference above or below zero.
+From 1985 to 2020, there was no credible difference between reproducible and non-reproducible models. However, reproducible models got more citations, starting in 2013, ten years after the introduction of Systems Biology Markup Language (SBML) (Höpfl et al. 2023). There seems to be a tilting point between 2010 and 2013, from a tendency of more citations for reproducible papers to more than 95% credibility for higher citation rates for reproducible papers. 2013 seems to be a reasonable time when the efforts of the Systems Biology community towards reproducibility pay off, i.e. it needed about ten years from the introduction of the de facto model standards SBML and CellML until the difference in citations became significant.
+On the one hand, this shows an immediate benefit for the individual researcher. On the other hand, this only pays off over the years and is, for example, for Ph.D. researchers who want to go into industry after their doctorate not relevant. However, journals could benefit directly and in the long run from an increased citation rate. At the same time, stricter reproducibility guidelines of journals would promote reproducibility and could thus strengthen trust in science. Our analysis shows that the higher citation numbers of reproducible models cannot be explained by the fact that they were published in journals with a higher Journal Impact Factor (JIF). For this purpose, the citation counts were normalized to the respective JIF, and
+the normalized groups were compared. It was found that reproducibility leads to an increase
+in the number of citations independent of the respective JIF. The data indicate that, on
+average, journals in the field of Systems Biology could potentially increase their impact factor
+by about 30% by only forcing reproducibility.
+Reproducibility can be substantially improved with little effort. The authors of Tiwari et al.
+have assembled eight points to improve model reproducibility in a scorecard, whereby
+reproducibility is already significantly increased if only four of them are fulfilled. It is our
+appeal that everyone can do something for better scientific work through reproducible work.
+On the one hand, the individual researchers. On the other hand, the journals and funding
+organizations. In the end, the joint effort could pay off for the entire scientific community.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Workshop on Computational Models in Biology and Medicine 2023, http://www.biometrische-gesellschaft.de/arbeitsgruppen/statistische-methoden-i-d-bioinformatik/workshop2023.html</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Outlier Detection in Steatosis Data using Bayesian Uncertainty Quantification via FAIR Modelling Tools</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Höpfl Sebastian, Albadry Mohamed, Dahmen Uta, Böttcher Michael and Radde Nicole</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Finding outliers in experimental data is important because they can mask differences between different experimental conditions. Often this is done by applying a rigid Z-score, independently for each sample time. The Z-score (𝑍=𝑥𝑖−𝑥𝑠) calculates for each data point 𝑥𝑖 the distance between the data point and the population mean 𝑥 and normalizes this distance to the standard deviation of the dataset 𝑠. A data point with a Z-score of two is often considered an outlier, as this is outside the 95.45% highest density interval of a normal distribution. The disadvantages of this method are a rigid decision threshold and that a possible inherent dynamic of time series data cannot be included. Here, we applied a Findable, Accessible, Interoperable and Reusable (FAIR) Bayesian uncertainty quantification to include the inherent dynamics of the system and thus use the complete time course information. Bayesian uncertainty quantification allows making probability statements about outlier classification and differences in the dynamics across various experimental conditions.
+Here, we use experimental data derived from a pharmacokinetic experiment in steatotic mice (Albadry et al. 2022). Animals received a drug cocktail consisting of Caffeine, Codeine and Midazolam. Drug levels were determined throughout 6h. Since the data were obtained from living animals, they are naturally subject to considerable uncertainties and are therefore well suited for the analysis. Here, the Bayesian analysis takes the differences in the dynamics between poor and rapid metabolizers into account. The pharmacokinetics of these drugs can be described by a peaked concentration upon injection, followed by an exponential decay. This knowledge was used to set up an ordinary differential equation 𝑥̇=(1−𝐴⋅𝑡)⋅𝑒𝐵−𝐴⋅𝑡, which was implemented in the SBML format. PEtab, a standard format for the integration of biological data into models was used to make state-of-the-art sampling algorithms applicable.
+Bayesian uncertainty quantification classifies outliers according to the 95% credibility interval of the posterior predictive distribution. Experimental data points outside of this interval were considered outliers. Furthermore, the consideration of the 95% credibility intervals for the different fat diets (experimental conditions) allowed us to credibly detect differences in the metabolization dynamics of the drugs. This revealed in our dataset, that the severity and pattern of periportal steatosis were associated with changes in the pharmacokinetics of Caffeine, but not of Codeine.
+In summary, we applied FAIR modeling tools for experimental data analysis in systems medicine. This gives access to efficient, state-of-the-art algorithms that are developed and maintained by the active modeling community. Furthermore, the use of standard formats ensures a reproducible and reusable data analysis. Therefore, data, code and the SBML and PEtab files were uploaded to Fairdomhub.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>International Conference on Systems Biology of Human Disease, https://www.sbhdberlin.org/index.html</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Mohamed Albadry, Uta Dahmen, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Reproducible models in Systems Biology are higher cited</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Höpfl Sebastian, Radde Nicole</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>The Systems Biology community was among the first scientific communities to recognize the need for reproducible models. Still, many published models are not reproducible. Tiwari et al. currently classified 328 published models by their reproducibility. They found out that only every second model was directly reproducible. We use this classification to analyze if reproducible models in Systems Biology have a higher impact in terms of citation numbers. For the analysis, we use Bayesian Estimation, which provides complete distributional information for group means and standard deviations. Outliers are handled via a non-central t-distribution. Beginning about ten years after the introduction of SBML (2013), reproducibility gained broad awareness in the Systems Biology community. Since then, reproducible models have gotten significantly more citations than non-reproducible ones. Our analysis shows 95% credibility for higher citation rates of reproducible models for 2013-2020, and all investigated sub-periods after 2013 to 2020.
+Further, normalization to the journal impact factor showed that journals of all ranks could profit by forcing reproducibility. In conclusion, reproducible models offer long-term benefits for journals and individual researchers in terms of more citations. The higher citation count provides evidence for increased reuse of these models and could promote progress in Systems Biology.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>31st Conference on Intelligent Systems for Molecular Biology (ISMB), https://www.iscb.org/ismbeccb2023</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45130</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FAIR Bayesian Optimal Experimental Design in Systems Biology</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Höpfl Sebastian, Pleiss Jürgen, Range Jan, Radde Nicole</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>two page abstract</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>International Conference on Data-Integrated Simulation Science (SimTech2023), https://www.simtech2023.uni-stuttgart.de/</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hybrid Data- and Knowledge-Driven Multiscale and Multiphase Simulation of the Human Liver</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl, André Mielke</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SIAM CSE, Amsterdam, 26.02.2023 - 03.03.2023</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>P7 - Ricken, Coordination</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Multiscale and Multiphase Modeling of Function-Perfusion Processes in the Liver
+on Organ, Lobule and Cell Scale</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GAMM Fachausschuss Computational Biomechanics, 13.-14.02.2023 in Saarbrücken</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>P7 - Ricken, Coordination</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Digital twins for liver function and metabolic phenotyping</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Physiologically-based pharmacokinetic (PBPK) models are powerful tools for studying drug metabolism and its effect on the human body. Here, we present our work on applying PBPK models as digital twins for metabolic phenotyping and liver function evaluation [1-6]. To develop and validate our models, we established the first open pharmacokinetics database, PK-DB, which contains curated data from over 600 clinical studies. Our models can be individualized and stratified, allowing us to simulate the effect of lifestyle factors and co-administration on drug metabolism.
+We have applied our models to various clinical questions, such as simulating individual outcomes after hepatectomy using an indocyanine green model and studying the effect of CYP2D6 gene variants using a model of dextromethorphan coupled with drug-gene interactions. These models are constructed hierarchically, describing metabolism and other biological processes of organs such as liver and kidney coupled to whole-body physiology. All models and data are available for reuse in a reproducible manner encoded in the Systems Biology Markup Language (SBML).
+Here we will give an overview of PBPK models and how SBML can facilitate model development, coupling and reuse.
+- PK-DB: pharmacokinetics database for individualized and stratified computational modeling. Grzegorzewski J, Brandhorst J, Green K, Eleftheriadou D, Duport Y, Barthorscht F, Köller A, Ke DYJ, De Angelis S, König M. Nucleic Acids Res. 2021 Jan 8;49(D1):D1358-D1364. doi:10.1093/nar/gkaa990. pmid:33151297
+- Pharmacokinetics of caffeine: A systematic analysis of reported data for application in metabolic phenotyping and liver function testing. Jan Grzegorzewski, Florian Bartsch, Adrian Köller, and Matthias König. Frontiers in Pharmacology 2022, Vol12. doi:10.3389/fphar.2021.752826. pmid:35280254
+- Prediction of survival after hepatectomy using a physiologically based pharmacokinetic model of indocyanine green liver function tests. Adrian Köller, Jan Grzegorzewski, Michael Tautenhahn, Matthias König. Front. Physiol., 22 November 2021. doi:10.3389/fphys.2021.730418. pmid:34880771
+- Physiologically based modeling of the effect of physiological and anthropometric variability on indocyanine green based liver function tests. Adrian Köller, Jan Grzegorzewski and Matthias König. Front Physiol. 2021 Nov 22;12:757293. doi:10.3389/fphys.2021.757293. pmid:34880776
+- Physiologically based pharmacokinetic (PBPK) modeling of the role of CYP2D6 polymorphism for metabolic phenotyping with dextromethorphan. Grzegorzewski, J., Brandhorst, J., König, M. Front Pharmacol. 2022 Oct 24;13:1029073. doi:10.3389/fphar.2022.1029073. pmid:36353484
+- A physiologically based pharmacokinetic model for CYP2E1 phenotyping via chlorzoxazone. J. Küttner, J. Grzegorzewski, HM. Tautenhahn, M. König. bioRxiv 2023.04.12.536571 (preprint). doi:10.1101/2023.04.12.536571</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MBM2023 - Workshop on Modelling in Biology and Medicine - https://mbm.systemsbiology.se</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5/17/2023</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>P3 - König</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Reproducible models in Systems Biology are higher cited</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Höpfl Sebastian, Radde Nicole</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Reproducibility is one of the critical requirements for sound scientific research. Only reproducible work can be validated or falsified. Further, reproducibility is necessary for reuse and therefore promotes scientific progress. The Systems Biology community is at the forefront of developing and using standards for improved reusability, especially in modeling. Starting in the early 2000s with the introduction of the Systems Biology Markup Language (SBML) and CellML, the movement emerged in 2016 in the Findability, Accessibility, Interoperability, and Reusability (FAIR) data principles (Wilkinson et al. 2016). These FAIR data principles have, in the meantime, also been adapted to mathematical models and modeling software. Here, we investigated whether reproducible models get more citations than non-reproducible ones (Höpfl et al. 2023). In particular, around 2013, when reproducibility received widespread attention in the Systems Biology community, we investigated if there was a measurable change (Figure 1 A.).</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ISMB/ECCB 2023 Conference on Intelligent Systems for Molecular Biology (ISMB) and European Conference on Computational Biology (ECCB)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7/24/2023</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Simulation Supported Liver Assessment for Donor Organs (SimLivA) - Continuum-Biomechanical Modeling for Staging of Ischemia Reperfusion Injury During Liver Transplantation</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mandl L., Gerhäusser S., Lambers L., König M., Tautenhahn H.-M., Dahmen U., Ricken, T.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Liver transplantation is the only curative treatment option for acute and chronic end-stage
+liver disease. Demographic change and western lifestyle result in an increasing number of elderly multi-morbid potential recipients and donors. Liver grafts from such donors, so-called marginal liver grafts, are often affected by hepatic steatosis compromising the quality of the donor organ substantially. One reason for this is the alteration of the tissue structure, resulting in an impaired perfusion, which in turn affects hepatic metabolism and organ function. In the case of a marginal graft, the surgeon is faced with the clinical decision to either accept or reject the organ, significantly increasing the postoperative risk for the recipient or increasing the risk of death on the waiting list, respectively. Two major challenges for marginal grafts are the storage between procurement of the organ and transplantation (cold ischemia time) and damage after reperfusion, the so-called ischemia reperfusion injury (IRI). 
+For this purpose, we describe the functional liver units, the liver lobules, as a homogenized
+porous medium and model this with the theory of porous media (TPM, cf. [1]). Considering an anisotropic blood flow and by coupling the metabolic processes at the cellular level, a poroelastic multiphase and multiscale function-perfusion model is thereby obtained (cf. [2]).
+This approach combines partial differential equations (PDE) on the lobular scale with ordinary differential equations (ODE) on the cellular scale resulting in a PDE-ODE coupling. At the lobular scale, we consider healthy liver tissue, necrotic tissue, and fat as solid phases, while blood is represented as a fluid phase. In addition, all phases may also contain solutes that are involved in cellular processes such as metabolism. Based on this, the energy balance and cell death or functionality of each cell can be modeled on the cellular scale using systems biology models. Thus, the ischemic damage under nutrient depletion can be described, which in turn affects the perfusion at the lobular scale. Animal and human data will be used to parameterize and validate the model. In addition, a proof-of-concept study for clinical applicability will be performed. Such a model, which takes into account the interplay between the mechanical properties of the graft, the hepatic perfusion, and the affected metabolism, could facilitate clinical decision making and is urgently needed cf. 3.
+[1] Ehlers,W. Foundations of multiphasic and porous materials(2002)
+[2] Ricken,T., et al. BMMB(2015) 14:515-536
+[3] Christ,B.,[...],Lambers,L.,[...]Ricken,T.,et al. Frontiers in Physiology(2021)12</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>93. Jahrestagung der Gesellschaft für angewandte Mathematik und Mechanik; https://jahrestagung.gamm-ev.de/</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Luis Mandl, Steffen Gerhäusser, Lena Lambers, Matthias König, Hans-Michael Tautenhahn, Uta Dahmen, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Multiscale and Multiphase Simulation of Function- Perfusion Processes in the Liver on Whole Body, Organ, Lobule, and Cell Scale</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>L. Lambers, S. Gerhäusser, L. Mandl, T. Ricken</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>93. Jahrestagung der Gesellschaft für angewandte Mathematik und Mechanik (GAMM), Dresden</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>5/30/2023</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Lena Lambers, Steffen Gerhäusser, Luis Mandl, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>P7 - Ricken, SimLivA, ATLAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Advancing Liver Function Assessment: Personalized and Stratified Approaches with Standardized Computational Models and Data</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Essential prerequisites for the practical application and translation of computational models include: i) reproducibility of results; ii) reusability and extensibility of models; iii) data availability; and iv) strategies for model stratification and individualization. In this study, we present a modeling workflow tailored to these critical aspects, with a focus on liver function tests.
+Evaluating liver function is a crucial task in hepatology, yet accurately quantifying hepatic function has persisted as a clinical challenge. Dynamic liver function tests offer a promising method for non-invasive in vivo assessment of liver function and metabolic phenotyping. These clinical tests determine liver function through the elimination of a specific test substance, thus revealing information about the liver's metabolic capacity.
+We employed whole-body physiologically-based pharmacokinetic (PBPK) models to simulate these tests, which encompass absorption, distribution, metabolism, and elimination processes. PBPK models serve as powerful instruments for investigating drug metabolism and its impact on the human body. In this research, we showcase our efforts in utilizing PBPK models as digital twins for metabolic phenotyping and liver function evaluation [1-6]. To develop and validate our models, we created the first open pharmacokinetics database, PK-DB, containing curated data from over 600 clinical studies. Our models are individualizable and stratifiable, enabling simulation of lifestyle factors and co-administration effects on drug metabolism.
+We have applied our models to various clinical inquiries, such as simulating individual outcomes post-hepatectomy using an indocyanine green model and examining the influence of CYP2D6 gene variants through a dextromethorphan model integrated with drug-gene interactions. These models are constructed hierarchically, describing metabolic and other biological processes in organs like the liver and kidneys, connected to whole-body physiology. All models and data are accessible for reuse in a reproducible manner, encoded in the Systems Biology Markup Language (SBML).
+In this study, we provide an overview of PBPK models and demonstrate how SBML [7-8], COMBINE standards [9], and FAIR principles [10] can facilitate model development, coupling, and reuse.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Workshop on Computational Models in Biology and Medicine 2023</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>6/16/2023</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>P3 - König, SimLivA, ATLAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Simulation Supported Liver Assessment for Donor Organs (SimLivA) - Con-
+tinuum-Biomechanical Modeling for Staging of Ischemia Reperfusion Injury
+During Liver Transplantation</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Mandl L., Gerhäusser S., Lambers L., König M., Tautenhahn H.-M., Dahmen U., Ricken, T.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Liver transplantation is the only curative treatment option for acute and chronic end-stage
+liver disease. Demographic change and western lifestyle result in an increasing number of elderly multi-morbid potential recipients and donors. Liver grafts from such donors, so-called marginal liver grafts, are often affected by hepatic steatosis compromising the quality of the donor organ substantially. One reason for this is the alteration of the tissue structure, resulting in an impaired perfusion, which in turn affects hepatic metabolism and organ function. In the case of a marginal graft, the surgeon is faced with the clinical decision to either accept or reject the organ, significantly increasing the postoperative risk for the recipient or increasing the risk of death on the waiting list, respectively. Two major challenges for marginal grafts are the storage between procurement of the organ and transplantation (cold ischemia time) and damage after reperfusion, the so-called ischemia reperfusion injury (IRI). For this purpose, we describe the functional liver units, the liver lobules, as a homogenized porous medium and model this with the theory of porous media (TPM, cf. [1]). Considering an anisotropic blood flow and by coupling the metabolic processes at the cellular level, a poroelastic multiphase and multiscale function-perfusion model is thereby obtained (cf. [2]). This approach combines partial differential equations (PDE) on the lobular scale with ordinary differential equations (ODE) on the cellular scale resulting in a PDE-ODE coupling. At the lobular scale, we consider healthy liver tissue, necrotic tissue, and fat as solid phases, while blood is represented as a fluid phase. In addition, all phases may also contain solutes that are involved in cellular processes such as metabolism. Based on this, the energy balance and cell death or functionality of each cell can be modeled on the cellular scale using systems biology models. Thus, the ischemic damage under nutrient depletion can be described, which in turn affects the perfusion at the lobular scale. Animal and human data will be used to parameterize and validate the model. In addition, a proof-of-concept study for clinical applicability will be performed. Such a model, which takes into account the interplay between the mechanical properties of the graft, the hepatic perfusion, and the affected metabolism, could facilitate clinical decision making and is urgently needed cf. 3.
+[1] Ehlers,W. Foundations of multiphasic and porous materials(2002)
+[2] Ricken,T., et al. BMMB(2015) 14:515-536
+[3] Christ,B.,[...],Lambers,L.,[...]Ricken,T.,et al. Frontiers in Physiology(2021)12</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>93rd Annual Meeting of the International Association of Applied Mathematics and Mechanics, https://jahrestagung.gamm.org/annual-meeting-2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Luis Mandl, Steffen Gerhäusser, Lena Lambers, Matthias König, Hans-Michael Tautenhahn, Uta Dahmen, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn, SimLivA</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SIMulation Supported LIVer Assessment for Donor Organs (SimLivA) - Continuum-Biomechanical Modeling for Staging of Ischemia Reperfusion Injury during Liver Transplantation</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mandl L., Bütow L., König M., Dahmen U., Chen X., Tautenhahn H.-M., Ricken T.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SPP2311 - Annual Workshop Magdeburg</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Luis Mandl, Laura Bütow, Matthias König, Uta Dahmen, Hans-Michael Tautenhahn, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn, SimLivA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Staging of ischemia reperfusion injury during liver transplantation using continuum-biomechanical modeling</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Mandl L., Gerhäusser S., Lambers L., König M., Tautenhahn H.-M., Dahmen U., Ricken T.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liver transplantation is the only curative treatment option for acute and chronic end-stage liver disease. As a result of demographic change and a more western way of life, the number of elderly multi-morbid prospective recipients and donors grows. Liver grafts from such donors, so-called marginal liver grafts, are often affected by hepatic steatosis compromising the quality of the donor organ. One reason for this is the alteration of the tissue structure, resulting in an impaired perfusion, in turn affecting hepatic metabolism and organ function. In case of a marginal graft, the surgeon is faced with the clinical decision to accept or reject the organ, increasing either the recipient’s postoperative risk or the risk of death on the waiting list significantly. Two major challenges for marginal grafts are the storage between procurement of the organ and transplantation (cold ischemia time) alongside damage after reperfusion, the so-called ischemia reperfusion injury (IRI).
+For this purpose, we use computational multiphase and multiscale continuum-biomechanical modeling of biological tissue to simulate the hepatic deformation-perfusion-function relationship (cf. [1, 2]). Based on the theory of porous media (TPM, cf. [3]), we describe the functional liver units, the liver lobules, as a homogenized porous medium. A poroelastic multiphase and multiscale function-perfusion model is obtained by considering the porous liver tissue saturated with an anisotropic blood flow and coupling the metabolic processes at the cellular level within a bi-scale approach (cf. [4]). This approach combines partial differential equations (PDE) on the lobular scale with ordinary differential equations (ODE) on the cellular scale resulting in a PDE-ODE coupling. At the lobular scale, we consider healthy liver, necrotic, and fat tissue as solid phases, while blood is given as a fluid phase. Based on this, systems biology models can be used to model the energy balance, cell death, and functionality of each hepatocyte at the cellular level. Thus, it is possible to describe the ischemic damage caused by nutrient depletion, in turn influencing the perfusion at the lobular scale.
+To make patient-specific predictions, we enhance the model through the integration of experimental and clinical data for validation and parameterization. This involves using machine-learning-based image analysis to read the geometry of liver lobules and zonation patterns of steatosis from histopathological images, in addition to laboratory data to provide initial and boundary values for solutes and the ODE models as well as information on the transplantation process, e.g., cold ischemia time. The simulation yields spatial evolutions of the considered phases and solutes within the liver lobules over time based on the given data. Such an in-silico model, which connects structure, perfusion, and function of the liver via the interaction between mechanical properties of the graft, hepatic perfusion, and the affected metabolism could facilitate clinical decision-making cf. [2].
+[1] B. Christ et al. Frontiers in Physiology 8:00906 (2017)
+[2] B. Christ et al. Frontiers in Physiology 12:733868 (2021)
+[3] W. Ehlers. „Foundations of multiphasic and porous materials” in Porous Media: Theory, Experiments and Numerical Applications (2002).
+[4] T. Ricken et al. BMMB 14:515-536 (2015)
+</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>X International Conference on Computational Bioengineering, Wien, 20.-22.09.2023, https://iccb2023.conf.tuwien.ac.at/</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>9/22/2023</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Luis Mandl, Steffen Gerhäusser, Lena Lambers, Matthias König, Hans-Michael Tautenhahn, Uta Dahmen, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn, SimLivA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Digital twins for liver function &amp; metabolic phenotyping</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Physiologically-based pharmacokinetic (PBPK) models are powerful tools for studying drug metabolism and its effect on the human body. Here, we present our work on applying PBPK models as digital twins for metabolic phenotyping and liver function evaluation [1-6]. To develop and validate our models, we established the first open pharmacokinetics database, PK-DB, which contains curated data from over 600 clinical studies. Our models can be individualized and stratified, allowing us to simulate the effect of lifestyle factors and co-administration on drug metabolism.
+We have applied our models to various clinical questions, such as simulating individual outcomes after hepatectomy using an indocyanine green model and studying the effect of CYP2D6 gene variants using a model of dextromethorphan coupled with drug-gene interactions. These models are constructed hierarchically, describing metabolism and other biological processes of organs such as liver and kidney coupled to whole-body physiology. All models and data are available for reuse in a reproducible manner encoded in the Systems Biology Markup Language (SBML).
+Here we will give an overview of our PBPK models and how SBML can facilitate model development, coupling and reuse.
+PK-DB: pharmacokinetics database for individualized and stratified computational modeling. Grzegorzewski J, Brandhorst J, Green K, Eleftheriadou D, Duport Y, Barthorscht F, Köller A, Ke DYJ, De Angelis S, König M. Nucleic Acids Res. 2021 Jan 8;49(D1):D1358-D1364. doi:10.1093/nar/gkaa990. pmid:33151297
+Pharmacokinetics of caffeine: A systematic analysis of reported data for application in metabolic phenotyping and liver function testing. Jan Grzegorzewski, Florian Bartsch, Adrian Köller, and Matthias König. Frontiers in Pharmacology 2022, Vol12. doi:10.3389/fphar.2021.752826. pmid:35280254
+Prediction of survival after hepatectomy using a physiologically based pharmacokinetic model of indocyanine green liver function tests. Adrian Köller, Jan Grzegorzewski, Michael Tautenhahn, Matthias König. Front. Physiol., 22 November 2021. doi:10.3389/fphys.2021.730418. pmid:34880771
+Physiologically based modeling of the effect of physiological and anthropometric variability on indocyanine green based liver function tests. Adrian Köller, Jan Grzegorzewski and Matthias König. Front Physiol. 2021 Nov 22;12:757293. doi:10.3389/fphys.2021.757293. pmid:34880776
+Physiologically based pharmacokinetic (PBPK) modeling of the role of CYP2D6 polymorphism for metabolic phenotyping with dextromethorphan. Grzegorzewski, J., Brandhorst, J., König, M. Front Pharmacol. 2022 Oct 24;13:1029073. doi:10.3389/fphar.2022.1029073. pmid:36353484
+A physiologically based pharmacokinetic model for CYP2E1 phenotyping via chlorzoxazone. J. Küttner, J. Grzegorzewski, HM. Tautenhahn, M. König. bioRxiv 2023.04.12.536571 (preprint). doi:10.1101/2023.04.12.536571</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>AstraZeneca Seminar</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>P3 - König, SimLivA, ATLAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Studying the impact of drug metabolism on the liver tissue: An integrated biomechanical modeling approach</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Matthias König, Steffen Gerhäusser, Luis Mandl, Lena Lambers, Uta Dahmen, Hans-Michael Tautenhahn, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Physiologically-based pharmacokinetic (PBPK) models are powerful tools for studying drug metabolism and its effect on the human body. Here, we present our work on PBPK models for metabolic phenotyping and liver function evaluation [1-5]. To develop and validate our models, we established the first open pharmacokinetics database, PK-DB, which contains curated data from over 600 clinical studies. Our models can be individualized and stratified, allowing us to simulate the effect of lifestyle factors and co-administration on drug metabolism.
+We have applied our models to various clinical questions, such as simulating individual outcomes after hepatectomy using an indocyanine green model and studying the effect of CYP2D6 gene variants using a model of dextromethorphan coupled with drug-gene interactions. These models are constructed hierarchically, describing metabolism and other biological processes of organs such as liver and kidney coupled to whole-body physiology. All models and data are available for reuse in a reproducible manner encoded in the Systems Biology Markup Language (SBML).
+One of the major challenges in PBPK modeling is the integration of these models with cellular and continuum-biomechanical models. By coupling PBPK models with these models, it becomes possible to provide drug concentrations at the site of action as boundary conditions and time-varying inputs to continuum-biomechanical models. This approach enables us to study the impact of systemic chemotherapy on tumor growth or to investigate changes in perfusion and pressure at the whole-body level on transport and biomechanical properties at the tissue scale.
+To demonstrate the effectiveness of this approach, we present an example of PBPK modeling coupled with a multiscale and multiphase continuum-biomechanical model for the liver. Our model integrates partial differential equations (PDE) on the lobular scale with ordinary differential equations (ODE) on the cellular and whole-body scale, resulting in a PDE-ODE coupling. In our showcase, we investigate the drug metabolization process in the liver, considering the possible damage to the liver tissue due to necrosis caused by a toxic side product. The substrates and products of this process can be transported via the systemic circulation and be removed by the kidneys. By coupling PBPK models with continuum-biomechanical models, we can study the transport and biomechanical properties of these substances at both the tissue and whole-body levels. This coupling approach provides a promising method for studying drug metabolism and its effect on the human body at multiple scales, ranging from cellular to whole-body.
+Our approach allows us to investigate the impact of this drug metabolization process on the liver tissue and how it affects the overall functioning of the body. Additionally, we can study the impact of various factors, such as different drug dosages, on this process and determine the optimal drug dosage for a given patient. This integrated approach provides a comprehensive understanding of the drug metabolization process and its impact on the human body, paving the way for more effective drug development and personalized medicine.
+[1] https://doi.org/10.1093/nar/gkaa990
+[2] https://doi.org/10.3389/fphar.2021.752826
+[3] https://doi.org/10.3389/fphys.2021.730418
+[4] https://doi.org/10.3389/fphys.2021.757293
+[5] https://doi.org/10.1101/2022.08.23.504981</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ICCB2023 - X International Conference on Computational Bioengineering</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>9/22/2023</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Matthias König, Steffen Gerhäusser, Luis Mandl, Lena Lambers, Uta Dahmen, Hans-Michael Tautenhahn, Tim Ricken</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn, SimLivA, ATLAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Reproducible digital twins for personalized liver function assessment</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Essential prerequisites for the practical application and translation of computational models include: i) reproducibility of results; ii) model reusability and extensibility; iii) data availability; and iv) strategies for model stratification and individualization. Here, we present a modeling workflow built around these foundational prerequisites, with a focus on liver function tests.
+Despite the paramount significance of liver function assessment in hepatology, reliable quantification remains a clinical challenge. Dynamic liver function tests offer a promising method for non-invasive in vivo assessment of liver function and metabolic phenotyping. 
+By leveraging whole-body physiologically-based pharmacokinetic (PBPK) models, we're simulating these tests and positioning PBPK models as digital twins for metabolic phenotyping and liver function assessment. To develop and validate our models, we established the open pharmacokinetics database, PK-DB, containing curated data from 600+ clinical studies. Our models are individualizable and stratifiable, enabling simulation of lifestyle factors and co-administration effects on drug metabolism. Our models have been instrumental in clinical scenarios: from predicting individual outcomes post-hepatectomy to discerning the impact of CYP2D6 gene variants on liver function tests. These models are constructed hierarchically, describing metabolic and other biological processes in organs like the liver and kidneys, seamlessly integrated with whole-body physiology. 
+Notably, all models and data are readily available and reproducible for reuse, encoded in the Systems Biology Markup Language (SBML). We will provide an overview of these PBPK models and demonstrate how SBML and FAIR principles can facilitate model development, coupling, and reuse.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ITB - Institute for Theoretical Biology, Humboldt-University Berlin</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>P3 - König, SimLivA, ATLAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Reproducible digital twins for personalized liver function assessment</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Essential prerequisites for the practical application and translation of computational models include: i) reproducibility of results; ii) model reusability and extensibility; iii) data availability; and iv) strategies for model stratification and individualization. Here, we present a modeling workflow built around these foundational prerequisites, with a focus on liver function tests.
+Despite the paramount significance of liver function assessment in hepatology, reliable quantification remains a clinical challenge. Dynamic liver function tests offer a promising method for non-invasive in vivo assessment of liver function and metabolic phenotyping. 
+By leveraging whole-body physiologically-based pharmacokinetic (PBPK) models, we're simulating these tests and positioning PBPK models as digital twins for metabolic phenotyping and liver function assessment. To develop and validate our models, we established the open pharmacokinetics database, PK-DB, containing curated data from 600+ clinical studies. Our models are individualizable and stratifiable, enabling simulation of lifestyle factors and co-administration effects on drug metabolism. Our models have been instrumental in clinical scenarios: from predicting individual outcomes post-hepatectomy to discerning the impact of CYP2D6 gene variants on liver function tests. These models are constructed hierarchically, describing metabolic and other biological processes in organs like the liver and kidneys, seamlessly integrated with whole-body physiology. 
+Notably, all models and data are readily available and reproducible for reuse, encoded in the Systems Biology Markup Language (SBML). We will provide an overview of these PBPK models and demonstrate how SBML and FAIR principles can facilitate model development, coupling, and reuse.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>e:Med Meeting 2023 on Systems Medicine</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Matthias König</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>P3 - König, SimLivA, ATLAS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Authors</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Qualiperf</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Computational Modeling for Liver Surgery and Interventions</t>
         </is>
       </c>
@@ -2992,7 +6129,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>P1, P2, P5, P7</t>
+          <t>P1 - Christ, P2 - Dahmen, P5 - Radde, P7 - Ricken</t>
         </is>
       </c>
     </row>
@@ -3131,7 +6268,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P1 - Christ</t>
         </is>
       </c>
     </row>
@@ -3657,6 +6794,34 @@
       <c r="F26" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mathematische Modellbildung des Ischämie-Reperfusionsschadens zur Entscheidungsunterstützung bei Lebertransplantationen</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mandl L., Gerhäusser S., Lambers L., König M., Tautenhahn H.-M., Dahmen U., Ricken T.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10/28/2023</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn, SimLivA</t>
         </is>
       </c>
     </row>

--- a/assets/news/results/qualiperf_statistics.xlsx
+++ b/assets/news/results/qualiperf_statistics.xlsx
@@ -479,7 +479,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -543,7 +543,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -575,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,50 +610,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Journal</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Journal</t>
+          <t>IF</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>IF</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Qualiperf</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Qualiperf</t>
+          <t>Authors Qualiperf</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Authors Qualiperf</t>
+          <t>Projects</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Projects</t>
+          <t>Pubmed</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Pubmed</t>
+          <t>DOI</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>DOI</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Journal_ID</t>
         </is>
@@ -672,44 +667,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A standardized approach to annotating computational biomedical models and their associated files can facilitate model reuse and reproducibility among research groups, enhance search and retrieval of models and data, and enable semantic comparisons between models. Motivated by these potential benefits and guided by consensus across the COmputational Modeling in BIology NEtwork (COMBINE) community, we have developed a specification for encoding annotations in Open Modeling and EXchange (OMEX)-formatted archives. This document details version 1.2 of the specification, which builds on version 1.0 published last year in this journal. In particular, this version includes a set of initial model-level annotations (whereas v 1.0 described exclusively annotations at a smaller scale). Additionally, this version uses best practices for namespaces, and introduces omex-library.org as a common root for all annotations. Distributing modeling projects within an OMEX archive is a best practice established by COMBINE, and the OMEX metadata specification presented here provides a harmonized, community-driven approach for annotating a variety of standardized model representations. This specification acts as a technical guideline for developing software tools that can support this standard, and thereby encourages broad advances in model reuse, discovery, and semantic analyses. </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>J Integr Bioinform. 2021 Oct 20;18(3):20210020. doi: 10.1515/jib-2021-0020. PMID: 34668356; PMCID: PMC8560343.</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
         <v>1.9</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="E2" s="2" t="n">
         <v>44416</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="I2" t="n">
         <v>34668356</v>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.1515/jib-2021-0020</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.1515/jib-2021-0020</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
         <is>
           <t>J Integr Bioinform</t>
         </is>
@@ -728,44 +718,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Computational simulation experiments increasingly inform modern biological research, and bring with them the need to provide ways to annotate, archive, share and reproduce the experiments performed. These simulations increasingly require extensive collaboration among modelers, experimentalists, and engineers. The Minimum Information About a Simulation Experiment (MIASE) guidelines outline the information needed to share simulation experiments. SED-ML is a computer-readable format for the information outlined by MIASE, created as a community project and supported by many investigators and software tools. The first versions of SED-ML focused on deterministic and stochastic simulations of models. Level 1 Version 4 of SED-ML substantially expands these capabilities to cover additional types of models, model languages, parameter estimations, simulations and analyses of models, and analyses and visualizations of simulation results. To facilitate consistent practices across the community, Level 1 Version 4 also more clearly describes the use of SED-ML constructs, and includes numerous concrete validation rules. SED-ML is supported by a growing ecosystem of investigators, model languages, and software tools, including eight languages for constraint-based, kinetic, qualitative, rule-based, and spatial models, over 20 simulation tools, visual editors, model repositories, and validators. Additional information about SED-ML is available at https://sed-ml.org/. </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>J Integr Bioinform. 2021 Oct 5;18(3):20210021. doi: 10.1515/jib-2021-0021. PMID: 35330701; PMCID: PMC8560344</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="D3" t="n">
         <v>1.9</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="E3" s="2" t="n">
         <v>44416</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="J3" t="n">
+      <c r="I3" t="n">
         <v>35330701</v>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10.1515/jib-2021-0021</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
-        <is>
-          <t>10.1515/jib-2021-0021</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
         <is>
           <t>J Integr Bioinform</t>
         </is>
@@ -784,44 +769,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MRI-based biomechanical studies can provide a deep understanding of the mechanisms governing liver function, its mechanical performance but also liver diseases. In addition, comprehensive modeling of the liver can help improve liver disease treatment. Furthermore, such studies demonstrate the beginning of an engineering-level approach to how the liver disease affects material properties and liver function. Aimed at researchers in the field of MRI-based liver simulation, research articles pertinent to MRI-based liver modeling were identified, reviewed, and summarized systematically. Various MRI applications for liver biomechanics are highlighted, and the limitations of different viscoelastic models used in magnetic resonance elastography are addressed. The clinical application of the simulations and the diseases studied are also discussed. Based on the developed questionnaire, the papers' quality was assessed, and of the 46 reviewed papers, 32 papers were determined to be of high-quality. Due to the lack of the suitable material models for different liver diseases studied by magnetic resonance elastography, researchers may consider the effect of liver diseases on constitutive models. In the future, research groups may incorporate various aspects of machine learning (ML) into constitutive models and MRI data extraction to further refine the study methodology. Moreover, researchers should strive for further reproducibility and rigorous model validation and verification.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>Front Physiol. 2021 Sep 22;12:733393. doi: 10.3389/fphys.2021.733393. PMID: 34630152; PMCID: PMC8493836</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="E4" s="2" t="n">
         <v>44461</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t xml:space="preserve">Hans-Michael Tautenhahn, Jürgen R. Reichenbach, Tim Ricken </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hans-Michael Tautenhahn, Jürgen R. Reichenbach, Tim Ricken </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
           <t>P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="I4" t="n">
         <v>34630152</v>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>10.3389/fphys.2021.733393</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
-        <is>
-          <t>10.3389/fphys.2021.733393</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
         <is>
           <t>Front Physiol</t>
         </is>
@@ -840,42 +820,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>We study fluid-saturated porous materials that undergo poro-elastic deformations in thin domains. The mechanics in such materials are described using a biphasic model based on the theory of porous media (TPM) and consisting of a system of differential equations for material’s displacement and fluid’s pressure. These equations are in general strongly coupled and nonlinear, such that exact solutions are hard to obtain and numerical solutions are computationally expensive. This paper reduces the complexity of the biphasic model in thin domains with a scale separation between domain’s width and length. Based on standard asymptotic analysis, we derive a reduced model that combines two sub-models. Firstly, a limit model consists of averaged equations that describe the fluid pore pressure and displacement in the longitudinal direction of the domain. Secondly, a corrector model re-captures the mechanics in the transverse direction. The validity of the reduced model is finally tested using a set of numerical examples. These demonstrate the computational efficiency of the reduced model, while maintaining reliable solutions in comparison with original biphasic TPM model in thin domain.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t xml:space="preserve">Arch Appl Mech (2021). https://doi.org/10.1007/s00419-021-01907-3 </t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="D5" t="n">
         <v>2.8</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="E5" s="2" t="n">
         <v>44150</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Tim Ricken</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tim Ricken</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
           <t>P6 - Reichenbach, P7 - Ricken, P9 - Tautenhahn, Coordination</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.1007/s00419-021-01907-3 </t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10.1007/s00419-021-01907-3 </t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
         <is>
           <t>Arch Appl Mech</t>
         </is>
@@ -894,44 +869,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Liver resection causes marked perfusion alterations in the liver remnant both on the organ scale (vascular anatomy) and on the microscale (sinusoidal blood flow on tissue level). These changes in perfusion affect hepatic functions via direct alterations in blood supply and drainage, followed by indirect changes of biomechanical tissue properties and cellular function. Changes in blood flow impose compression, tension and shear forces on the liver tissue. These forces are perceived by mechanosensors on parenchymal and non-parenchymal cells of the liver and regulate cell-cell and cell-matrix interactions as well as cellular signaling and metabolism. These interactions are key players in tissue growth and remodeling, a prerequisite to restore tissue function after PHx. Their dysregulation is associated with metabolic impairment of the liver eventually leading to liver failure, a serious post-hepatectomy complication with high morbidity and mortality. Though certain links are known, the overall functional change after liver surgery is not understood due to complex feedback loops, non-linearities, spatial heterogeneities and different time-scales of events. Computational modeling is a unique approach to gain a better understanding of complex biomedical systems. This approach allows (i) integration of heterogeneous data and knowledge on multiple scales into a consistent view of how perfusion is related to hepatic function; (ii) testing and generating hypotheses based on predictive models, which must be validated experimentally and clinically. In the long term, computational modeling will (iii) support surgical planning by predicting surgery-induced perfusion perturbations and their functional (metabolic) consequences; and thereby (iv) allow minimizing surgical risks for the individual patient. Here, we review the alterations of hepatic perfusion, biomechanical properties and function associated with hepatectomy. Specifically, we provide an overview over the clinical problem, preoperative diagnostics, functional imaging approaches, experimental approaches in animal models, mechanoperception in the liver and impact on cellular metabolism, omics approaches with a focus on transcriptomics, data integration and uncertainty analysis, and computational modeling on multiple scales. Finally, we provide a perspective on how multi-scale computational models, which couple perfusion changes to hepatic function, could become part of clinical workflows to predict and optimize patient outcome after complex liver surgery.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>Front Physiol. 2021 Nov 18;12:733868. doi: 10.3389/fphys.2021.733868. PMID: 34867441; PMCID: PMC8637208</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="E6" s="2" t="n">
         <v>44518</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Bruno Christ, Uta Dahmen, Karl-Heinz Herrmann, Sebastian Höpfl, Matthias König, Lena Lambers, Manja Marz, Daria Meyer, Nicole Erika Radde, Jürgen R. Reichenbach, Tim Ricken, Hans-Michael Tautenhahn</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bruno Christ, Uta Dahmen, Karl-Heinz Herrmann, Sebastian Höpfl, Matthias König, Lena Lambers, Manja Marz, Daria Meyer, Nicole Erika Radde, Jürgen R. Reichenbach, Tim Ricken, Hans-Michael Tautenhahn</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
           <t>P1 - Christ, P2 - Dahmen, P3 - König, P4 - Marz, P5 - Radde, P6 - Reichenbach, P7 - Ricken, P8 - Schwen, P9 - Tautenhahn, Coordination</t>
         </is>
       </c>
-      <c r="J6" t="n">
+      <c r="I6" t="n">
         <v>34867441</v>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.3389/fphys.2021.733868</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.3389/fphys.2021.733868</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
         <is>
           <t>Front Physiol</t>
         </is>
@@ -950,44 +920,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Post-surgery liver failure is a serious complication for patients after extended partial hepatectomies (ePHx). Previously, we demonstrated in the pig model that transplantation of mesenchymal stromal cells (MSC) improved circulatory maintenance and supported multi-organ functions after 70% liver resection. Mechanisms behind the beneficial MSC effects remained unknown. Here we performed 70% liver resection in pigs with and without MSC treatment, and animals were monitored for 24 h post surgery. Gene expression profiles were determined in the lung and liver. Bioinformatics analysis predicted organ-independent MSC targets, importantly a role for thrombospondin-1 linked to transforming growth factor-β (TGF-β) and downstream signaling towards providing epithelial plasticity and epithelial-mesenchymal transition (EMT). This prediction was supported histologically and mechanistically, the latter with primary hepatocyte cell cultures. MSC attenuated the surgery-induced increase of tissue damage, of thrombospondin-1 and TGF-β, as well as of epithelial plasticity in both the liver and lung. This suggests that MSC ameliorated surgery-induced hepatocellular stress and EMT, thus supporting epithelial integrity and facilitating regeneration. MSC-derived soluble factor(s) did not directly interfere with intracellular TGF-β signaling, but inhibited thrombospondin-1 secretion from thrombocytes and non-parenchymal liver cells, therewith obviously reducing the availability of active TGF-β.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>NPJ Regen Med. 2021 Dec 3;6(1):84. doi: 10.1038/s41536-021-00194-4. PMID: 34862411; PMCID: PMC8642541</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="D7" t="n">
         <v>14.4</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="2" t="n">
         <v>44533</v>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Hans-Michael Tautenhahn*, Bruno Christ*</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hans-Michael Tautenhahn*, Bruno Christ*</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
           <t>P1 - Christ, P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="J7" t="n">
+      <c r="I7" t="n">
         <v>34862411</v>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.1038/s41536-021-00194-4</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.1038/s41536-021-00194-4</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
         <is>
           <t>NPJ Regen Med</t>
         </is>
@@ -1006,42 +971,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Biomechanical modeling enables a better understanding and prediction of various processes in the human body. To make thissimulation more patient-specific, realistic geometries of liver lobules are included in an existing knowledge-based model forthe simulation of hepatic function-perfusion processes in the human liver. This model allows the simulation of liver diseasessuch as the non-alcoholic fatty liver disease (NAFLD) or tumor development.  The basis of this calculation is a continuum-biomechanical multiscale and multiphase model based on the Theory of Porous Media.  To capture the function-perfusionand growth processes in the liver, partial differential equations (PDEs) on the lobule scale are coupled to ordinary differentialequations (ODEs) describing metabolic processes on the cellular scale.  Additionally, we used manifold learning techniqueson in silico data for the identification of inverted fat zonation during NAFLD.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t xml:space="preserve"> PAMM·Proc. Appl. Math. Mech.2021;21:1 e202100190. doi: 10.1002/pamm.202100190</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="D8" t="n">
         <v>1.7</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="E8" s="2" t="n">
         <v>44462</v>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Lena Lambers, Tim Ricken</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Lena Lambers, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
           <t>P7 - Ricken, Coordination</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>10.1002/pamm.202100190</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
-        <is>
-          <t>10.1002/pamm.202100190</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
         <is>
           <t>PAMM Proc Appl Math Mech</t>
         </is>
@@ -1060,44 +1020,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>In their article, Choa et al. open the perspective to loose fat by increasing sebogenesis. Envisioning a T cell-dependent mechanism, they suggest that stimulation of sebum production by thymic stromal lymphopeietin (TSLP) “pulls” lipids out of the adipose tissue.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Signal Transduction and Targeted Therapy (2021)6:429; https://doi.org/10.1038/s41392-021-00850-7</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="D9" t="n">
         <v>39.3</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="2" t="n">
         <v>44547</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Bruno Christ</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Bruno Christ</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
           <t>P1 - Christ</t>
         </is>
       </c>
-      <c r="J9" t="n">
+      <c r="I9" t="n">
         <v>34921132</v>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>10.1038/s41392-021-00850-7</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
-        <is>
-          <t>10.1038/s41392-021-00850-7</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
         <is>
           <t>Signal Transduction and Targeted Therapy</t>
         </is>
@@ -1116,42 +1071,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The focus of this investigation lies on the development of a two-scale homogenization scheme for poro-elastic fluid-saturated porous media. For this purpose, the general concepts of the Theory of Porous Media (TPM) are combined with the FE method. After an introduction of the basics of TPM, the weak forms for the macroscopic and the microscopic scale will be formulated and the averaged macroscopic tangent moduli considering the microscale will be derived. Additionally, the formulation of lower level boundary conditions, which refer to the quantities that will be transmitted from the macro- to the microscale, in strict compliance with the Hill–Mandel homogeneity condition, is derived. Finally, a numerical example will be presented, pointing out the gained features of the methodology.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>International Journal of Solid and Structures</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="D10" t="n">
         <v>3.6</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="E10" s="2" t="n">
         <v>44206</v>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Tim Ricken</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tim Ricken</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>10.1016/j.ijsolstr.2021.111412</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
-        <is>
-          <t>10.1016/j.ijsolstr.2021.111412</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
         <is>
           <t>International Journal of Solid and Structures</t>
         </is>
@@ -1170,44 +1120,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The angiotensin-converting enzyme 2 (ACE2) receptor has been identified as the entry receptor for the severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) that is abundantly expressed in many organs. With respect to the role of circulating ACE2 and its receptor expression in the pathogenesis of the SARS-CoV-2 infection, it is still debated whether diseases such as hypertension or pharmacotherapies, including ACE inhibitors and angiotensin receptor blockers that affect ACE2 receptor expression, may modulate the severity and outcome of the coronavirus disease 2019 (COVID-19). We therefore tested the hypothesis that treatment with the ACE inhibitor Ramipril affects organ-specific ACE2 receptor mRNA and protein expression as well as the serum metabolome in BioBreeding (BB) rats. Twelve male BioBreeding rats were randomly divided into a Ramipril (10 mg/kg body weight) treatment group or a control group (N = 12; n = 6 per group) over a period of seven days. Ramipril treatment resulted in the reduction of acylcarnitines (C3–C6) out of 64 metabolites. Among the different organs studied, only in the lungs did Ramipril treatment significantly increase both Ace2 mRNA and ACE2 receptor membrane protein levels. Increased ACE2 receptor lung expression after Ramipril treatment was not associated with differences in ACE2 serum concentrations between experimental groups. Our data provide experimental in vivo evidence that the ACE inhibitor Ramipril selectively increases pulmonary ACE2 receptor mRNA and protein levels and reduces acylcarnitines.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>Metabolites. 2022 Mar 26;12(4):293. doi: 10.3390/metabo12040293. PMID: 35448480; PMCID: PMC9028516.</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="D11" t="n">
         <v>4.1</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="E11" s="2" t="n">
         <v>44646</v>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Joanna Kosacka</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Joanna Kosacka</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
           <t>P1 - Christ</t>
         </is>
       </c>
-      <c r="J11" t="n">
+      <c r="I11" t="n">
         <v>35448480</v>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>10.3390/metabo12040293</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
-        <is>
-          <t>10.3390/metabo12040293</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
         <is>
           <t>Metabolites</t>
         </is>
@@ -1226,45 +1171,40 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>This special issue of the Journal of Integrative Bioinformatics contains updated specifications of COMBINE standards in systems and synthetic biology. The 2021 special issue presents four updates of standards: Synthetic Biology Open Language Visual Version 2.3, Synthetic Biology Open Language Visual Version 3.0, Simulation Experiment Description Markup Language Level 1 Version 4, and OMEX Metadata specification Version 1.2. This document can also be consulted to identify the latest specifications of all COMBINE standards.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>J Integr Bioinform. 2021 Oct 22;18(3):20210026. doi: 10.1515/jib-2021-0026. PMID: 34674411; PMCID: PMC8573232.
 https://doi.org/10.1515/jib-2021-0026</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="D12" t="n">
         <v>1.9</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="E12" s="2" t="n">
         <v>44491</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t xml:space="preserve">Matthias König </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Matthias König </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="J12" t="n">
+      <c r="I12" t="n">
         <v>34674411</v>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>10.1515/jib-2021-0026</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
-        <is>
-          <t>10.1515/jib-2021-0026</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
         <is>
           <t>J Integr Bioinform</t>
         </is>
@@ -1283,44 +1223,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">not available </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>Front Physiol. 2022 Feb 15;13:859522. doi: 10.3389/fphys.2022.859522. PMID: 35242057; PMCID: PMC8886156</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="E13" s="2" t="n">
         <v>44664</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Bruno Christ, Uta Dahmen, Nicole Erika Radde, Tim Ricken</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bruno Christ, Uta Dahmen, Nicole Erika Radde, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
           <t>P1 - Christ, P2 - Dahmen, P5 - Radde, P7 - Ricken</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="I13" t="n">
         <v>35242057</v>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>10.3389/fphys.2022.859522</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
-        <is>
-          <t>10.3389/fphys.2022.859522</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
         <is>
           <t>Front Physiol</t>
         </is>
@@ -1341,88 +1276,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>In this paper we present the objectives regarding
-multi-X liver modelling of the recently DFG-funded research
-unit QuaLiPerF (Quantifying Liver Perfusion-
-Function Relationship in Complex Resection { A Systems
-Medicine Approach). The aim of the research
-unit (RU) is to elucidate the interactions between the
-changes in blood 
-ow in the liver, also called perfusion,
-when normalized on liver volume, and the metabolic
-function of the liver. It will be investigated how this
-function-perfusion interaction will be in
-uenced by a
-liver resection operation and how this knowledge can
-be used in the clinical practise. On this basis, a model
-of the perfusion of the liver and its function is to be
-developed, which in the long term will make it possible
-to better predict liver function and regeneration after
-surgery and thus minimize the risk of liver failure, see
-Figure 1. The challenge of modelling biological systems
-is that they are by nature highly complex and often
-dicult to understand. Two main reasons are that
-biological systems
-i) are developed in an evolutionary process in contrast
-to deliberate design on a white-board, and that
-ii) they are inherently multiscale and consist of specialized
-cells that form tissues capable of performing
-multiple functions.
-Thus, multiscale modelling including evolutionary
-optimisation can contribute to a better understanding
-of the biology underlying these complex systems.
-The simulation can potentially support clinical
-decision-making based on predictions obtained as
-simulation output.
-Two scenarios are clinically important: to predict
-the progression of liver disease with and without a
-given treatment, and to predict the outcome after major
-removal of liver mass as needed in case of hepatic
-malignancies. The outcome is dependent on the individual
-risk of liver failure and the putative course of
-liver regeneration which is related to the planned type
-and extent of liver resection and the severity of an eventually
-underlying disease of the liver, such as steatosis,
-brosis or even cirrhosis and the overall condition of
-the patient. Thus, the liver is an ideal showcase for
-complex biological systems.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>GACM-Report</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="E14" s="2" t="n">
         <v>44175</v>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>Tim Ricken, Lena Lambers, Bruno Christ, Uta Dahmen, Karl-Heinz Herrmann, Matthias König
 König, Manja Marz, Nicole Radde, Jürgen R. Reichenbach, Lars Ole Schwen, and
 Hans-Michael Tautenhahn</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>P1 - Christ, P2 - Dahmen, P3 - König, P4 - Marz, P5 - Radde, P6 - Reichenbach, P7 - Ricken, P8 - Schwen, P9 - Tautenhahn, Coordination</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
         <is>
           <t>GACM-Report</t>
         </is>
@@ -1442,59 +1328,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Serotonin (5-hydroxytryptamine or 5-HT) is an important neurotransmitter of the central
-and peripheral nervous systems, predominantly secreted in the gastrointestinal tract, especially in
-the gut. 5-HT is a crucial enteric signaling molecule and is well known for playing a key role in
-sensory-motor and secretory functions in the gut. Gastroenteropathy is one of the most clinical
-problems in diabetic patients with frequent episodes of hyperglycemia. Changes in 5-HT expression
-may mediate gastrointestinal tract disturbances seen in diabetes, such as nausea and diarrhea. Based
-on the double immunohistochemical staining, this study determined the variability in the population
-of 5-HT-positive neurons in the porcine small intestinal enteric neurons in the course of streptozotocininduced diabetes. The results show changes in the number of 5-HT-positive neurons in the examined
-intestinal sections. The greatest changes were observed in the jejunum, particularly within the
-myenteric plexus. In the ileum, both de novo 5-HT synthesis in the inner submucosal plexus neurons
-and an increase in the number of neurons in the outer submucosal plexus were noted. The changes
-observed in the duodenum were also increasing in nature. The results of the current study confirm
-the previous observations concerning the involvement of 5-HT in inflammatory processes, and an
-increase in the number of 5-HT -positive neurons may also be a result of increased concentration of
-the 5-HT in the gastrointestinal tract wall and affects the motor and secretory processes, which are
-particularly intense in the small intestines.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>Int J Mol Sci. 2022 Apr 20;23(9):4564. doi: 10.3390/ijms23094564. PMID: 35562954; PMCID: PMC9099899</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="D15" t="n">
         <v>5.6</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="E15" s="2" t="n">
         <v>44671</v>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Joanna Kosacka</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Joanna Kosacka</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
           <t>P1 - Christ</t>
         </is>
       </c>
-      <c r="J15" t="n">
+      <c r="I15" t="n">
         <v>35562954</v>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>10.3390/ijms23094564</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
-        <is>
-          <t>10.3390/ijms23094564</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
         <is>
           <t>Int J Mol Sci</t>
         </is>
@@ -1513,44 +1379,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Computational models have great potential to accelerate bioscience, bioengineering, and medicine. However, it remains challenging to reproduce and reuse simulations, in part, because the numerous formats and methods for simulating various subsystems and scales remain siloed by different software tools. For example, each tool must be executed through a distinct interface. To help investigators find and use simulation tools, we developed BioSimulators (https://biosimulators.org), a central registry of the capabilities of simulation tools and consistent Python, command-line and containerized interfaces to each version of each tool. The foundation of BioSimulators is standards, such as CellML, SBML, SED-ML and the COMBINE archive format, and validation tools for simulation projects and simulation tools that ensure these standards are used consistently. To help modelers find tools for particular projects, we have also used the registry to develop recommendation services. We anticipate that BioSimulators will help modelers exchange, reproduce, and combine simulations.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>Nucleic Acids Res. 2022 Jul 5;50(W1):W108-W114. doi: 10.1093/nar/gkac331. PMID: 35524558; PMCID: PMC9252793</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="D16" t="n">
         <v>14.9</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="E16" s="2" t="n">
         <v>44688</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="J16" t="n">
+      <c r="I16" t="n">
         <v>35524558</v>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>10.1093/nar/gkac331</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
-        <is>
-          <t>10.1093/nar/gkac331</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
         <is>
           <t>Nucleic Acids Res</t>
         </is>
@@ -1570,44 +1431,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mesenchymal stromal cells (MSC) increasingly emerge as an option to ameliorate non-alcoholic steatohepatitis (NASH), a serious disease, which untreated may progress to liver cirrhosis and cancer. Before clinical translation, the mode of action of MSC needs to be established. Here, we established NASH in an immune-deficient mouse model by feeding a high fat diet. Human bone-marrow-derived MSC were delivered to the liver via intrasplenic transplantation. As verified by biochemical and image analyses, human mesenchymal stromal cells improved high-fat-diet-induced NASH in the mouse liver by decreasing hepatic lipid content and inflammation, as well as by restoring tissue homeostasis. MSC-mediated changes in gene expression indicated the switch from lipid storage to lipid utilization. It was obvious that host mouse hepatocytes harbored human mitochondria. Thus, it is feasible that resolution of NASH in mouse livers involved the donation of human mitochondria to the mouse hepatocytes. Therefore, human MSC might provide oxidative capacity for lipid breakdown followed by restoration of metabolic and tissue homeostasis.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>Cells. 2022 Jun 2;11(11):1829. doi: 10.3390/cells11111829. PMID: 35681524; PMCID: PMC9180625</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="D17" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="E17" s="2" t="n">
         <v>44714</v>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t xml:space="preserve">Joanna Kosacka, Lysann Tietze, Bruno Christ </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joanna Kosacka, Lysann Tietze, Bruno Christ </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
           <t>P1 - Christ</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="I17" t="n">
         <v>35681524</v>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>10.3390/cells11111829</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
-        <is>
-          <t>10.3390/cells11111829</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
         <is>
           <t>Cells</t>
         </is>
@@ -1626,44 +1482,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oscillations are an important component in biological systems; grasping their mechanisms and regulation, however, is difficult. Here, we use the theory of dynamical systems to support the design of oscillatory systems based on epigenetic control elements. Specifically, we use results that extend the Poincaré-Bendixson theorem for monotone control systems that are coupled to a negative feedback circuit. The methodology is applied to a synthetic epigenetic memory system based on DNA methylation that serves as a monotone control system, which is coupled to a negative feedback. This system is generally able to show sustained oscillations according to its structure; however, a first experimental implementation showed that fine-tuning of several parameters is required. We provide design support by exploring the experimental design space using systems-theoretic analysis of a computational model. </t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>ACS Synth Biol. 2022 Jul 15;11(7):2445-2455. doi: 10.1021/acssynbio.2c00118. Epub 2022 Jun 24. PMID: 35749318; PMCID: PMC9295699</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="D18" t="n">
         <v>4.7</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="E18" s="2" t="n">
         <v>44714</v>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t xml:space="preserve">Nicole Erika Radde </t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nicole Erika Radde </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
           <t>P5 - Radde</t>
         </is>
       </c>
-      <c r="J18" t="n">
+      <c r="I18" t="n">
         <v>35749318</v>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.1021/acssynbio.2c00118</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.1021/acssynbio.2c00118</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
         <is>
           <t>ACS Synth Biol</t>
         </is>
@@ -1682,42 +1533,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Population snapshot data can be used to study heterogeneity in cell populations. Various approaches to integrating such data into computational models have been published, which enable new treatment strategies for cancer therapy, by exploiting the intra-tumor heterogeneity. A precision medicine approach for the cure of cancer could benefit from the combination of single-cell data and respective analytical methods. Here, we introduce the inverse transformation algorithm, which transforms population snapshot data to parameter distributions that are consistent with the underlying data given a dynamic model with distributed parameters. Therefore, it enables the assessment of the heterogeneity in and behavior of the whole underlying cell population. In contrast to the frequently used Approximate Bayesian Computation methods for population matching, our algorithm is a non-parametric likelihood-free approach. It directly computes a density function value for a single parameter based on density transformation methods. If the model can be described as a one-to-one map that invertibly maps parameters to measurable outputs, the inverse transformation algorithm asymptotically returns the true underlying parameter distribution.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>IFAC-PapersOnLine, 9th IFAC Conference on Foundations of Systems Biology in Engineering FOSBE 2022, https://doi.org/10.1016/j.ifacol.2023.01.020</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="E19" s="2" t="n">
         <v>44714</v>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sebastian Höpfl, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
           <t>P5 - Radde</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>10.1016/j.ifacol.2023.01.020</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
-        <is>
-          <t>10.1016/j.ifacol.2023.01.020</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
         <is>
           <t>IFAC-PapersOnLine</t>
         </is>
@@ -1736,44 +1582,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Depending on the patient's constitution, the biological conditions of the primary tumor, the metastases and the liver function and perfusion, a variety of therapeutic options are available. The basis of metastatic surgery of the liver is partial liver resection. Multimodal therapies with local and systemic approaches are used in functionally or oncologically borderline situations. They are intended to improve long-term success and allow curative treatment in more patients. In recent years, for isolated lesions that cannot be removed by partial liver resection, an R0 situation is achieved in selected patients by liver transplantation with good long-term success. The large number of treatment options and the increasing individualization of therapy require treatment planning in the interdisciplinary tumor board. Also, in view of promising studies, for example, in the field of liver transplantation as well as regional therapy methods, the range of treatment options has not yet been exhausted. </t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>Chirurgie (Heidelb). 2022 Jul;93(7):652-658. German. doi: 10.1007/s00104-022-01665-0. Epub 2022 Jun 8. PMID: 35771270</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="D20" t="n">
         <v>0.9</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="E20" s="2" t="n">
         <v>44720</v>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Hans-Michael Tautenhahn, Eva Maria Kindler</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hans-Michael Tautenhahn, Eva Maria Kindler</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
           <t>P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="J20" t="n">
+      <c r="I20" t="n">
         <v>35771270</v>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>10.1007/s00104-022-01665-0</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
-        <is>
-          <t>10.1007/s00104-022-01665-0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
         <is>
           <t>Chirurgie</t>
         </is>
@@ -1792,44 +1633,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Motivation The Chemical Master Equation is the most comprehensive stochastic approach to describe the evolution of a (bio-)chemical reaction system. Its solution is a time-dependent probability distribution on all possible configurations of the system. As the number of possible configurations is typically very large, the Master Equation is often practically unsolvable. The Method of Moments reduces the system to the evolution of a few moments of this distribution, which are described by a system of ordinary differential equations. Those equations are not closed, since lower order moments generally depend on higher order moments. Various closure schemes have been suggested to solve this problem, with different advantages and limitations. Two major problems with these approaches are first that they are open loop systems, which can diverge from the true solution, and second, some of them are computationally expensive.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>Bioinformatics. 2022 Sep 15;38(18):4352-4359. doi: 10.1093/bioinformatics/btac501. PMID: 35916726</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="D21" t="n">
         <v>5.8</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="E21" s="2" t="n">
         <v>44760</v>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t xml:space="preserve">Nicole Erika Radde </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nicole Erika Radde </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
           <t>P5 - Radde</t>
         </is>
       </c>
-      <c r="J21" t="n">
+      <c r="I21" t="n">
         <v>35916726</v>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.1093/bioinformatics/btac501</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.1093/bioinformatics/btac501</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
         <is>
           <t>Bioinformatics</t>
         </is>
@@ -1848,43 +1684,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Finite element approximations of poroelastic materials are nowadays used within multiple applications. Due to wide variation of possible material parameters, robustness of the considered discretization is important. Within this contribution robust of discretization schemes, initially developed for Biot’s theory, will be applied within the Theory of Porous Media. Selected numerical test-cases, special attention will be paid to incompressible and impermeable regimes, are conducted.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>Examples and Counterexamples, 
 https://doi.org/10.1016/j.exco.2022.100087</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="D22" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="E22" s="2" t="n">
         <v>44832</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t xml:space="preserve">Tim Ricken </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tim Ricken </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>10.1016/j.exco.2022.100087</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
-        <is>
-          <t>10.1016/j.exco.2022.100087</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
         <is>
           <t>Examples and Counterexamples</t>
         </is>
@@ -1903,44 +1734,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Motivation: This paper presents libRoadRunner 2.0, an extensible, high-performance, cross-platform, open-source software library for the simulation and analysis of models expressed using the Systems Biology Markup Language (SBML). Results: libRoadRunner is a self-contained library, able to run either as a component inside other tools via its C ++, C and Python APIs, or interactively through its Python or Julia interface. libRoadRunner uses a custom Just-In-Time (JIT) compiler built on the widely-used LLVM JIT compiler framework. It compiles SBML-specified models directly into native machine code for a large variety of processors, making it fast enough to simulate extremely large models or repeated runs in reasonable timeframes. libRoadRunner is flexible, supporting the bulk of the SBML specification (except for delay and nonlinear algebraic equations) as well as several SBML extensions such as hierarchical composition and probability distributions. It offers multiple deterministic and stochastic integrators, as well as tools for steady-state, sensitivity, stability and structural analyses. Availability: libRoadRunner binary distributions for Windows, Mac OS, and Linux, Julia and Python bindings, source code, and documentation are all available at https://github.com/sys-bio/roadrunner, and Python bindings are also available via pip. The source code can be compiled for the supported systems as well as in principle any system supported by LLVM-13, such as ARM-based computers like the Raspberry Pi. The library is licensed under the Apache License Version 2.0.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
           <t>Bioinformatics. 2022 Dec 8:btac770. doi: 10.1093/bioinformatics/btac770. Epub ahead of print. PMID: 36478036.</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="D23" t="n">
         <v>5.8</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="E23" s="2" t="n">
         <v>44903</v>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="I23" t="n">
         <v>36478036</v>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>10.1093/bioinformatics/btac770</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
-        <is>
-          <t>10.1093/bioinformatics/btac770</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
         <is>
           <t>Bioinformatics</t>
         </is>
@@ -1960,44 +1786,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Little is known about the impact of morphological disorders in distinct zones on metabolic zonation. It was described recently that periportal fibrosis did affect the expression of CYP proteins, a set of pericentrally located drug-metabolizing enzymes. Here, we investigated whether periportal steatosis might have a similar effect. Periportal steatosis was induced in C57BL6/J mice by feeding a high-fat diet with low methionine/choline content for either two or four weeks. Steatosis severity was quantified using image analysis. Triglycerides and CYP activity were quantified in photometric or fluorometric assay. The distribution of CYP3A4, CYP1A2, CYP2D6, and CYP2E1 was visualized by immunohistochemistry. Pharmacokinetic parameters of test drugs were determined after injecting a drug cocktail (caffeine, codeine, and midazolam). The dietary model resulted in moderate to severe mixed steatosis confined to periportal and midzonal areas. Periportal steatosis did not affect the zonal distribution of CYP expression but the activity of selected CYPs was associated with steatosis severity. Caffeine elimination was accelerated by microvesicular steatosis, whereas midazolam elimination was delayed in macrovesicular steatosis. In summary, periportal steatosis affected parameters of pericentrally located drug metabolism. This observation calls for further investigations of the highly complex interrelationship between steatosis and drug metabolism and underlying signaling mechanisms.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
           <t>Sci Rep. 2022 Dec 17;12(1):21825. doi: 10.1038/s41598-022-26483-6. PMID: 36528753; PMCID: PMC9759570</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="D24" t="n">
         <v>4.6</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="E24" s="2" t="n">
         <v>44912</v>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Mohamed Albadry, Sebastian Höpfl, Matthias König, Nicole Erika Radde, Bruno Christ, Lars Ole Schwen, Uta Dahmen</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Mohamed Albadry, Sebastian Höpfl, Matthias König, Nicole Erika Radde, Bruno Christ, Lars Ole Schwen, Uta Dahmen</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
           <t>P1 - Christ, P2 - Dahmen, P3 - König, P5 - Radde, P8 - Schwen</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="I24" t="n">
         <v>36528753</v>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>10.1038/s41598-022-26483-6</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
-        <is>
-          <t>10.1038/s41598-022-26483-6</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
         <is>
           <t>Sci Rep</t>
         </is>
@@ -2019,44 +1840,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>To maximize the usefulness of groundwater flow models for the protection of aquifers and
-abstraction wells, it is necessary to identify and decrease the uncertainty associated with the major parameters such as permeability. To do this, there is a need to develop set of estimates representing subsurface heterogeneity or representative soil permeability estimates. Here, we use a coupled Random Field and extended Theory of Porous Media (eTPM) simulation to develop a robust model with a good predictive ability that reduces uncertainty. The coupled model is then validated with a physical sandbox experiment. Uncertainty is reduced by using 500 realisations of the permeability parameter using the eTPM approach. A multi-layer contaminant transport scenario with varying permeabilities, similar to what could be expected with shallow alluvial sediments, is simulated. The
-results show that the contaminant arrival time could be strongly affected by random field realizations of permeability compared with a modelled homogenous permeability parameter. The breakthrough time for heterogeneous permeabilities is shorter than the homogeneous condition. Using the 75% confidence interval (CI), the average contaminant concentration shows 4.4% variation from the average values of the considered area and 8.9% variation in the case of a 95% confidence interval.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
           <t>Water 2023, 15, 159. https://doi.org/10.3390/w15010159</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="D25" t="n">
         <v>3.4</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="E25" s="2" t="n">
         <v>44926</v>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Tim Ricken</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tim Ricken</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>10.3390/w15010159</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
-        <is>
-          <t>10.3390/w15010159</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
         <is>
           <t>Water</t>
         </is>
@@ -2077,43 +1891,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>The simulation of contaminant transport through the vadose zone enjoys high significance
-for decision makers and contaminated site planners since the vadose zone can serve as a filter, but many contaminants can be transported from this region to aquifers. The intention of this paper is to utilize the extended Theory of Porous Media (eTPM) to develop a ternary model for the simulation of contaminant transport in the vadose zone whose application is subsequently shown via a numerical example. The simulation was conducted for 140 days, during which the contamination source was removed after 25 days. The results indicate that the contaminant reached the water table after 76 days. The concentration of the contaminant reaching the groundwater was 17% less than that of the contaminant source.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
           <t>Water 2023, 15, 343. https://doi.org/10.3390/w15020343</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="D26" t="n">
         <v>3.4</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="E26" s="2" t="n">
         <v>44939</v>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Tim Ricken</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tim Ricken</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>10.3390/w15020343</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
-        <is>
-          <t>10.3390/w15020343</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
         <is>
           <t>Water</t>
         </is>
@@ -2132,44 +1940,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The Systems Biology community has taken numerous actions to develop data and modeling standards towards FAIR data and model handling. Nevertheless, the debate about incentives and rewards for individual researchers to make their results reproducible is ongoing. Here, we pose the specific question of whether reproducible models have a higher impact in terms of citations. Therefore, we statistically analyze 328 published models recently classified by Tiwari et al. based on their reproducibility. For hypothesis testing, we use a flexible Bayesian approach that provides complete distributional information for all quantities of interest and can handle outliers. The results show that in the period from 2013, i.e., 10 years after the introduction of SBML, to 2020, the group of reproducible models is significantly more cited than the non-reproducible group. We show that differences in journal impact factors do not explain this effect and that this effect increases with additional standardization of data and error model integration via PEtab. Overall, our statistical analysis demonstrates the long-term merits of reproducible modeling for the individual researcher in terms of citations. Moreover, it provides evidence for the increased use of reproducible models in the scientific community.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
           <t>Sci Rep 13, 2695 (2023). https://doi.org/10.1038/s41598-023-29340-2</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="D27" t="n">
         <v>4.6</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="E27" s="2" t="n">
         <v>44972</v>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sebastian Höpfl, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
           <t>P5 - Radde</t>
         </is>
       </c>
-      <c r="J27" t="n">
+      <c r="I27" t="n">
         <v>36792648</v>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>10.1038/s41598-023-29340-2</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
-        <is>
-          <t>10.1038/s41598-023-29340-2</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
         <is>
           <t>Sci Rep</t>
         </is>
@@ -2190,57 +1993,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>There are still many offered donor livers that are declined during the allocation process. Machine perfusion offers the option to evaluate (especially marginal) donor organs and to better decide whether a graft has the potential of being transplanted or not. There is a lack of clear detailed data on why organs are declined and how 
-many donor livers would have the potential of being evaluated in the machine.
-Material/Methods: We retrospectively reviewed 1356 donor livers between 2016 and 2018, which were offered by Eurotransplant 
-and were declined during the allocation process; 284 grafts were from donor after cardiac death (DCD) and 
-1072 donations were from after brain death (DBD). The analysis was performed independently and blinded by 
-senior transplant surgeons.
-Results: There were 904 (66.6%) donor livers with potential to be evaluated as suitable grafts in machine perfusion, 
-whereas 417 (30.8%) organs were definitely not-transplantable, mainly due to liver cirrhosis, (untreated) donor malignancy, cardiac diseases of the donor leading to a hepatic congestion, and/or systemic infections in 
-the donor. Donors in blood group “AB” were disproportionally often rejected. Due to missing data, 35 (2.6%) 
-organs could not be sufficiently evaluated.
-Conclusions: Our data suggest that many declined donor livers have potential of being evaluated by machine perfusion. 
-Comprehensive use of machine perfusion is necessary and useful to improve the current organ shortage.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
           <t>e-ISSN 2329-0358
 © Ann Transplant, 2023; 28: e938132
 DOI: 10.12659/AOT.938132</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="D28" t="n">
         <v>1.1</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="E28" s="2" t="n">
         <v>44990</v>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t xml:space="preserve">Hans-Michael Tautenhahn </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hans-Michael Tautenhahn </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
           <t>P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="J28" t="n">
+      <c r="I28" t="n">
         <v>36927714</v>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10.12659/AOT.938132</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10.12659/AOT.938132</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
         <is>
           <t>Ann Transplant</t>
         </is>
@@ -2259,44 +2046,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>This special issue of the Journal of Integrative Bioinformatics contains updated specifications of COMBINE standards in systems and synthetic biology. The 2022 special issue presents three updates to the standards: CellML 2.0.1, SBML Level 3 Package: Spatial Processes, Version 1, Release 1, and Synthetic Biology Open Language (SBOL) Version 3.1.0. This document can also be used to identify the latest specifications for all COMBINE standards. In addition, this editorial provides a brief overview of the COMBINE 2022 meeting in Berlin.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
           <t>J Integr Bioinform. 2023 Mar 29;20(1):20230004. doi: 10.1515/jib-2023-0004. PMID: 36989443; PMCID: PMC10063176</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="D29" t="n">
         <v>1.9</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="E29" s="2" t="n">
         <v>45014</v>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="J29" t="n">
+      <c r="I29" t="n">
         <v>36989443</v>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>10.1515/jib-2023-0004</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
-        <is>
-          <t>10.1515/jib-2023-0004</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
         <is>
           <t>J Integr Bioinform</t>
         </is>
@@ -2315,44 +2097,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Multiscale modeling for the liver</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
           <t>Front. Bioeng. Biotechnol. 2023 Apr 13;1179980. doi:10.3389/fbioe.2023.1179980</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="D30" t="n">
         <v>5.7</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="E30" s="2" t="n">
         <v>45029</v>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Lars Ole Schwen</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Lars Ole Schwen</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
           <t>P8 - Schwen</t>
         </is>
       </c>
-      <c r="J30" t="n">
+      <c r="I30" t="n">
         <v>37122862</v>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.3389/fbioe.2023.1179980 </t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10.3389/fbioe.2023.1179980 </t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
         <is>
           <t>Front Bioeng Biotechnol</t>
         </is>
@@ -2371,44 +2148,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Many physiological processes and pathological phenomena in the liver tissue are spatially heterogeneous. At a local scale, biomarkers can be quantified along the axis of the blood flow, from portal fields (PFs) to central veins (CVs), i.e., in zonated form. This requires detecting PFs and CVs. However, manually annotating these structures in multiple whole-slide images is a tedious task. We describe and evaluate a fully automated method, based on a convolutional neural network, for simultaneously detecting PFs and CVs in a single stained section. Trained on scans of hematoxylin and eosin-stained liver tissue, the detector performed well with an F1 score of 0.81 compared to annotation by a human expert. It does, however, not generalize well to previously unseen scans of steatotic liver tissue with an F1 score of 0.59. Automated PF and CV detection eliminates the bottleneck of manual annotation for subsequent automated analyses, as illustrated by two proof-of-concept applications: We computed lobulus sizes based on the detected PF and CV positions, where results agreed with published lobulus sizes. Moreover, we demonstrate the feasibility of zonated quantification of biomarkers detected in different stainings based on lobuli and zones obtained from the detected PF and CV positions. A negative control (hematoxylin and eosin) showed the expected homogeneity, a positive control (glutamine synthetase) was quantified to be strictly pericentral, and a plausible zonation for a heterogeneous F4/80 staining was obtained. Automated detection of PFs and CVs is one building block for automatically quantifying physiologically relevant heterogeneity of liver tissue biomarkers. Perspectively, a more robust and automated assessment of zonation from whole-slide images will be valuable for parameterizing spatially resolved models of liver metabolism and to provide diagnostic information.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
           <t>Journal of Pathology Informatics 2022 13:100001, doi: 10.1016/j.jpi.2022.100001</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="D31" t="n">
         <v>4.3</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="E31" s="2" t="n">
         <v>44606</v>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>(None received QuaLiPerF funding for this work)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(None received QuaLiPerF funding for this work)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
           <t>Stea-PK Mod</t>
         </is>
       </c>
-      <c r="J31" t="n">
+      <c r="I31" t="n">
         <v>35242441</v>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>10.1016/j.jpi.2022.100001</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
-        <is>
-          <t>10.1016/j.jpi.2022.100001</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
         <is>
           <t>Journal of Pathology Informatics</t>
         </is>
@@ -2427,54 +2199,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Background: Preventing sepsis-associated acute kidney injury (S-AKI) can be challenging because it develops rapidly and is often asymptomatic. Probability assessment of disease progression for therapeutic follow-up and outcome are important to intervene and prevent further damage.
-Purpose: To establish a noninvasive multiparametric MRI (mpMRI) tool, including T1 , T2 , and perfusion mapping, for probability assessment of the outcome of S-AKI.
-Study type: Preclinical randomized prospective study.
-Animal model: One hundred and forty adult female SD rats (65 control and 75 sepsis).
-Field strength/sequence: 9.4T; T1 and perfusion map (FAIR-EPI) and T2 map (multiecho RARE).
-Assessment: Experiment 1: To identify renal injury in relation to sepsis severity, serum creatinine levels were determined (31 control and 35 sepsis). Experiment 2: Animals underwent mpMRI (T1 , T2 , perfusion) 18 hours postsepsis. A subgroup of animals was immediately sacrificed for histology examination (nine control and seven sepsis). Result of mpMRI in follow-up subgroup (25 control and 33 sepsis) was used to predict survival outcomes at 96 hours.
-Statistical tests: Mann-Whitney U test, Spearman/Pearson correlation (r), P &lt; 0.05 was considered statistically significant.
-Results: Severely ill septic animals exhibited significantly increased serum creatinine levels compared to controls (70 ± 30 vs. 34 ± 9 μmol/L, P &lt; 0.0001). Cortical perfusion (480 ± 80 vs. 330 ± 140 mL/100 g tissue/min, P &lt; 0.005), and cortical and medullary T2 relaxation time constants were significantly reduced compared to controls (41 ± 4 vs. 37 ± 5 msec in cortex, P &lt; 0.05, 52 ± 7 vs. 45 ± 6 msec in medulla, P &lt; 0.05). The combination of cortical T2 relaxation time constants and perfusion results at 18 hours could predict survival outcomes at 96 hours with high sensitivity (80%) and specificity (73%) (area under curve of ROC = 0.8, Jmax = 0.52).
-Data conclusion: This preclinical study suggests combined T2 relaxation time and perfusion mapping as first line diagnostic tool for treatment planning.
-Level of evidence: 2 TECHNICAL EFFICACY STAGE: 2.
-Keywords: S-AKI; T1 and T2 relaxation time; multiparametric MRI; perfusion; sepsis.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
           <t>J Magn Reson Imaging 2023 Apr 7. doi: 10.1002/jmri.28698</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="D32" t="n">
         <v>4.4</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="E32" s="2" t="n">
         <v>45111</v>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Wan-Ting Zhao, Karl-Heinz Herrmann, Jürgen R. Reichenbach</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Wan-Ting Zhao, Karl-Heinz Herrmann, Jürgen R. Reichenbach</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
           <t>P6 - Reichenbach</t>
         </is>
       </c>
-      <c r="J32" t="n">
+      <c r="I32" t="n">
         <v>37026419</v>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>10.1002/jmri.28698</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
-        <is>
-          <t>10.1002/jmri.28698</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
         <is>
           <t>J Magn Reson Imaging</t>
         </is>
@@ -2493,44 +2250,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>The pancreas plays a critical role in maintaining glucose homeostasis through the secretion of hormones from the islets of Langerhans. Glucose-stimulated insulin secretion (GSIS) by the pancreatic β-cell is the main mechanism for reducing elevated plasma glucose. Here we present a systematic modeling workflow for the development of kinetic pathway models using the Systems Biology Markup Language (SBML). Steps include retrieval of information from databases, curation of experimental and clinical data for model calibration and validation, integration of heterogeneous data including absolute and relative measurements, unit normalization, data normalization, and model annotation. An important factor was the reproducibility and exchangeability of the model, which allowed the use of various existing tools. The workflow was applied to construct a novel data-driven kinetic model of GSIS in the pancreatic β-cell based on experimental and clinical data from 39 studies spanning 50 years of pancreatic, islet, and β-cell research in humans, rats, mice, and cell lines. The model consists of detailed glycolysis and phenomenological equations for insulin secretion coupled to cellular energy state, ATP dynamics and (ATP/ADP ratio). Key findings of our work are that in GSIS there is a glucose-dependent increase in almost all intermediates of glycolysis. This increase in glycolytic metabolites is accompanied by an increase in energy metabolites, especially ATP and NADH. One of the few decreasing metabolites is ADP, which, in combination with the increase in ATP, results in a large increase in ATP/ADP ratios in the β-cell with increasing glucose. Insulin secretion is dependent on ATP/ADP, resulting in glucose-stimulated insulin secretion. The observed glucose-dependent increase in glycolytic intermediates and the resulting change in ATP/ADP ratios and insulin secretion is a robust phenomenon observed across data sets, experimental systems and species. Model predictions of the glucose-dependent response of glycolytic intermediates and biphasic insulin secretion are in good agreement with experimental measurements. Our model predicts that factors affecting ATP consumption, ATP formation, hexokinase, phosphofructokinase, and ATP/ADP-dependent insulin secretion have a major effect on GSIS. In conclusion, we have developed and applied a systematic modeling workflow for pathway models that allowed us to gain insight into key mechanisms in GSIS in the pancreatic β-cell.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
           <t>Front. Endocrinol. 14:1185656, doi: 10.3389/fendo.2023.1185656</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="D33" t="n">
         <v>5.2</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="E33" s="2" t="n">
         <v>44965</v>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="J33" t="n">
+      <c r="I33" t="n">
         <v>37600713</v>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.3389/fendo.2023.1185656 </t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10.3389/fendo.2023.1185656 </t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
         <is>
           <t>Front Endocrinol</t>
         </is>
@@ -2549,44 +2301,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Physics-informed neural networks (PINNs) leverage data and knowledge about a problem. They provide a nonnumerical pathway to solving partial differential equations by expressing the field solution as an artificial neural network. This approach has been applied successfully to various types of differential equations. A major area of research on PINNs is the application to coupled partial differential equations in particular, and a general breakthrough is still lacking. In coupled equations, the optimization operates in a critical conflict between boundary conditions and the underlying equations, which often requires either many iterations or complex schemes to avoid trivial solutions and to achieve convergence. We provide empirical evidence for the mitigation of bad initial conditioning in PINNs for solving one-dimensional consolidation problems of porous media through the introduction of affine transformations after the classical output layer of artificial neural network architectures, effectively accelerating the training process. These affine physics-informed neural networks (AfPINNs) then produce nontrivial and accurate field solutions even in parameter spaces with diverging orders of magnitude. On average, AfPINNs show the ability to improve the L2 relative error by 64.84% after 25,000 epochs for a one-dimensional consolidation problem based on Biot’s theory, and an average improvement by 58.80% with a transfer approach to the theory of porous media.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
           <t>Mandl, L., Mielke, A., Seyedpour, S.M. et al. Affine transformations accelerate the training of physics-informed neural networks of a one-dimensional consolidation problem. Sci Rep 13, 15566 (2023). https://doi.org/10.1038/s41598-023-42141-x</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="D34" t="n">
         <v>4.6</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="E34" s="2" t="n">
         <v>45189</v>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Luis Mandl, Tim Ricken</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Luis Mandl, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
           <t>P7 - Ricken, SimLivA, ATLAS</t>
         </is>
       </c>
-      <c r="J34" t="n">
+      <c r="I34" t="n">
         <v>37730743</v>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10.1038/s41598-023-42141-x </t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10.1038/s41598-023-42141-x </t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
         <is>
           <t>Sci Rep</t>
         </is>
@@ -2603,7 +2350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2624,40 +2371,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Journal</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Journal</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Qualiperf</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Qualiperf</t>
+          <t>Authors Qualiperf</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Authors Qualiperf</t>
+          <t>Projects</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Projects</t>
+          <t>Pubmed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pubmed</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>DOI</t>
         </is>
@@ -2676,34 +2418,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Science continues to become more interdisciplinary and to involve increasingly complex data sets. Many projects in the biomedical and health related sciences adhere to the principles of FAIR data sharing, or aim to follow them. Data sharing has been proven to foster collaboration, to lead to better research outcomes, and to help ensure reproducibility of results. Data generated in biomedical and health research are specific in the sense that they are heterogeneous, often big, and highly sensitive in terms of data protection needs and contextuality. Data sharing has to respect these features, but at the same time advances in medical therapy and treatment are time-critical. Modeling and simulation of biomedical processes have become an established tool, and a global community has been developing algorithms, methodologies, and standards for applying biomedical simulation models in clinical research. However, it can be difficult for clinician scientists to follow the specific rules and recommendations for FAIR data sharing within the domain. With this paper, we aim to clarify the standard workflow for sharing experimental and clinical data with the simulation modeling community. By following these recommendations, data sharing will be improved, collaborations will become more effective, and the FAIR publication and subsequent reuse of data will become possible at the level of quality necessary in biomedical and health related sciences.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Preprints 2021, 2021080303, https://www.preprints.org/manuscript/202108.0303/v1</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="2" t="n">
         <v>44421</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König*</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Matthias König*</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>10.20944/preprints202108.0303.v1</t>
         </is>
@@ -2722,35 +2459,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Summary: More sophisticated models are needed to address problems in bioscience, synthetic biology, and precision medicine. To help facilitate the collaboration needed for such models, the community developed the Simulation Experiment Description Markup Language (SED-ML), a common format for describing simulations. However, the utility of SED-ML has been hampered by limited support for SED-ML among modeling software tools and by different interpretations of SED-ML among the tools that support the format. To help modelers debug their simulations and to push the community to use SED-ML consistently, we developed a tool for validating SED-ML files. We have used the validator to correct the official SED-ML example files. We plan to use the validator to correct the files in the BioModels database so that they can be simulated. We anticipate that the validator will be a valuable tool for developing more predictive simulations and that the validator will help increase the adoption and interoperability of SED-ML. 
-Availability: The validator is freely available as a webform, HTTP API, command-line program, and Python package at https://run.biosimulations.org/utils/validate and https://pypi.org/project/biosimulators-utils. The validator is also embedded into interfaces to 11 simulation tools. The source code is openly available as described in the Supplementary data.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t xml:space="preserve">arXiV, 2021, 2106.00844, [Submitted to Bioinformatics 2021-06-02] </t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="2" t="n">
         <v>43984</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>10.48550/arXiv.2106.00844</t>
         </is>
@@ -2770,35 +2501,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ABSTRACT2
-Computational models in systems biology and systems medicine are typically simulated using a single formalism such as ordinary differential equations (ODE). However, more complex models require the coupling of multiple formalisms since different biological phenomena are better described by different methods. For example, metabolism in steady state is often modeled using flux-balance analysis (FBA) whereas dynamic changes of model components are better described via ODEs. The coupling of FBA and ODE modeling formalisms results in dynamic FBA models. A major challenge is how to describe such hybrid models that couple multiple formalisms in a standardized way so that they can be exchanged between tools and simulated consistently in a reproducible manner. This paper presents a scheme for encoding and implementation of dynamic FBA models in the Systems Biology Markup Language (SBML), thereby enabling the exchange of multi-framework computational models between software tools. We demonstrate the feasibility of the approach using various example models and show that different tools are able to simulate the hybrid models and agree on the results. As part of this work, two independent implementations of a multi-framework simulation method for dynamic FBA have been developed supporting such models: iBioSim and sbmlutils.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>bioRxiv doi: https://doi.org/10.1101/245076</t>
         </is>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="D4" s="2" t="n">
         <v>44648</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König, Jan Grzegorzewski</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Matthias König, Jan Grzegorzewski</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>10.1101/245076</t>
         </is>
@@ -2817,34 +2542,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A major challenge for the dissemination, replication, and reuse of epidemiological forecasting studies during COVID-19 pandemics is the lack of clear guidelines and platforms to exchange models in a Findable, Accessible, Interoperable, and Reusable (FAIR) manner, facilitating reproducibility of research outcomes. During the beginning of pandemics, models were developed in diverse tools that were not interoperable, opaque without traceability and semantics, and scattered across various platforms - making them hard to locate, infer and reuse. In this work, we demonstrate that implementing the standards developed by the systems biology community to encode and share COVID-19 epidemiological models can serve as a roadmap to implement models as a tool in medical informatics, in general. As a proof-of-concept, we encoded and shared 24 epidemiological models using the standard format for model exchange in systems biology, annotated them with cross-references to data resources, packed up all associated files in COMBINE archives for easy sharing, and finally, disseminated the models through BioModels repository to significantly enhance their reproducibility and repurposing potential. We recommend the use of systems biology standards to encode and share models of epidemic and pandemic forecasts to improve their findability, accessibility, interoperability, reusability, and reproducibility.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Preprints 2022, 2022060137 (doi: 10.20944/preprints202206.0137.v1).</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="D5" s="2" t="n">
         <v>44721</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>10.20944/preprints202206.0137.v1</t>
         </is>
@@ -2863,34 +2583,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hypercholesterolemia is a multifaceted plasma lipid disorder with heterogeneous causes including lifestyle and genetic factors. A key feature of hypercholesterolemia is elevated plasma levels of low-density lipoprotein cholesterol (LDL-C). Several genetic variants have been reported to be associated with hypercholesterolemia, known as familial hypercholesterolemia (FH). Important variants affect the LDL receptor (LDLR), which mediates the uptake of LDL-C from the plasma, apoliporotein B (APOB), which is involved in the binding of LDL-C to the LDLR, and proprotein convertase subtilisin/kexin type 9 (PCSK9), which modulates the degradation of the LDLR. A typical treatment for hypercholesterolemia is statin medication, with simvastatin being one of the most commonly prescribed statins. In this work, the LDL-C lowering therapy with simvastatin in hypercholesterolemia was investigated using a computational modeling approach. A physiologically based pharmacokinetic model of simvastatin integrated with a pharmacodynamic model of plasma LDL-C (PBPK/PD) was developed based on extensive data curation. A key component of the model is LDL-C turnover by the liver, consisting of: hepatic cholesterol synthesis with the key enzymes HMG-CoA reductase and HMG-CoA synthase; cholesterol export from the liver as VLDL-C; de novo synthesis of LDLR; transport of LDLR to the membrane; binding of LDL-C by LDLR via APOB; endocytosis of the LDLR-LDL-C complex; recycling of LDLR from the complex. The model was applied to study the effects of simvastatin therapy in hypercholesterolemia due to different causes in the LDLR pathway corresponding to different subtypes of hypercholesterolemia. Model predictions of LDL-C lowering therapy were validated with independent clinical data sets. Key findings are: (i) hepatic LDLR turnover is highly heterogeneous among FH classes; (ii) despite this heterogeneity, simvastatin therapy results in a consistent reduction in plasma LDL-C regardless of class; and (iii) simvastatin therapy shows a dose-dependent reduction in LDL-C. Our model suggests that the underlying cause of hypercholesterolemia does not influence simvastatin therapy. Furthermore, our model supports the treatment strategy of stepwise dose adjustment to achieve target LDL-C levels. Both the model and the database are freely available for reuse.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>medRxiv 2023.02.01.23285358; doi: https://doi.org/10.1101/2023.02.01.23285358</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="2" t="n">
         <v>44960</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Jan Grzegorzewski, Hans-Michael Tautenhahn, Matthias König</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Jan Grzegorzewski, Hans-Michael Tautenhahn, Matthias König</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>P3 - König, P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>10.1101/2023.02.01.23285358</t>
         </is>
@@ -2909,34 +2624,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The field of metabolic modelling at the genome-scale continues to grow with more models being created and curated. This comes with an increasing demand for adopting common principles regarding transparency and versioning, in addition to standardisation efforts regarding file formats, annotation and testing. Here, we present a standardised template for git-based and GitHub-hosted genome-scale metabolic models (GEMs) supporting both new models and curated ones, following FAIR principles (findability, accessibility, interoperability, and reusability), and incorporating best-practices. standard-GEM facilitates the reuse of GEMs across web services and platforms in the metabolic modelling field and enables automatic validation of GEMs. The use of this template for new models, and its adoption for existing ones, paves the way for increasing model quality, openness, and accessibility with minimal effort.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>bioRxiv 2023.03.21.512712; doi: https://doi.org/10.1101/2023.03.21.512712</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="2" t="n">
         <v>45012</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>10.1101/2023.03.21.512712</t>
         </is>
@@ -2955,36 +2665,31 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The cytochrome P450 (CYP) superfamily of enzymes plays a critical role in the metabolism of drugs, toxins, and endogenous and exogenous compounds. The activity of CYP enzymes can be influenced by a variety of factors, including genetics, diet, age, environmental factors, and disease. Among the major isoforms, CYP2E1 is of particular interest due to its involvement in the metabolism of various low molecular weight chemicals, including alcohols, pharmaceuticals, industrial solvents, and halogenated anesthetics. Metabolic phenotyping of CYPs based on the elimination of test compounds is a useful method for assessing in vivo activity, with chlorzoxazone being the primary probe drug for phenotyping of CYP2E1. The aim of this work was to investigate the effect of changes in CYP2E1 level and activity, ethanol consumption, ethanol abstinence, and liver impairment on the results of metabolic phenotyping with chlorzoxazone. To accomplish this, an extensive pharmacokinetic dataset for chlorzoxazone was established and a physiologically based pharmacokinetic (PBPK) model of chlorzoxazone and its metabolites, 6-hydroxychlorzoxazone and chlorzoxazone-O-glucuronide, was developed and validated. The model incorporates the effect of ethanol consumption on CYP2E1 levels and activity by extending the model with a core ethanol pharmacokinetic model and a CYP2E1 turnover model. The model accurately predicts pharmacokinetic data from several clinical studies and is able to estimate the effect of changes in CYP2E1 levels and activity on chlorzoxazone pharmacokinetics. Regular ethanol consumption induces CYP2E1 over two to three weeks, resulting in increased conversion of chlorzoxazone to 6-hydroxychlorzoxazone and a higher 6-hydroxychlorzoxazone/chlorzoxazone metabolic ratio. After ethanol withdrawal, CYP2E1 levels return to baseline within one week. Importantly, liver impairment has an opposite effect, resulting in reduced liver function via CYP2E1. In alcoholics with liver impairment who also consume ethanol, these factors will have opposite confounding effects on metabolic phenotyping with chlorzoxazone.</t>
+          <t>bioRxiv 2023.04.12.536571; doi: https://doi.org/10.1101/2023.04.12.536571</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>bioRxiv 2023.04.12.536571; doi: https://doi.org/10.1101/2023.04.12.536571</t>
+          <t>4/14/2023</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4/14/2023</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Jan Grzegorzewski, Hans-Michael Tautenhahn, Matthias König</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Jan Grzegorzewski, Hans-Michael Tautenhahn, Matthias König</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
           <t>P3 - König, P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>10.1101/2023.04.12.536571</t>
         </is>
@@ -3003,36 +2708,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Across disciplines, researchers increasingly recognize that open science and reproducible research practices may accelerate scientific progress by allowing others to reuse research outputs and by promoting rigorous research that is more likely to yield trustworthy results. While initiatives, training programs, and funder policies encourage researchers to adopt reproducible research and open science practices, these practices are uncommon in many fields. Researchers need training to integrate these practices into their daily work. We organized a virtual brainstorming event, in collaboration with the German Reproducibility Network, to discuss strategies for making reproducible research and open science training the norm at research institutions. Here, we outline eleven strategies, concentrated in three areas: (1) offering training, (2) adapting research assessment criteria and program requirements, and (3) building communities. We provide a brief overview of each strategy, offer tips for implementation, and provide links to resources. Our goal is to encourage members of the research community to think creatively about the many ways they can contribute and collaborate to build communities, and make reproducible research and open science training the norm. Researchers may act in their roles as scientists, supervisors, mentors, instructors, and members of curriculum, hiring or evaluation committees. Institutional leadership and research administration and support staff can accelerate progress by implementing change across their institutions.</t>
+          <t>osfpreprints 2023.04.12.536571 doi: 10.31219/osf.io/kcvra</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>osfpreprints 2023.04.12.536571 doi: 10.31219/osf.io/kcvra</t>
+          <t>5/28/2023</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5/28/2023</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>10.31219/osf.io/kcvra</t>
         </is>
@@ -3051,34 +2751,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>see preprint</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>Research Square</t>
         </is>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="D10" s="2" t="n">
         <v>45269</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Lena Lambers, Matthias König, Hans-Michael Tautenhahn, Mohamed Albadry, Uta Dahmen, Tim Ricken</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lena Lambers, Matthias König, Hans-Michael Tautenhahn, Mohamed Albadry, Uta Dahmen, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
           <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>10.21203/rs.3.rs-3348101/v1</t>
         </is>
@@ -3095,7 +2790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3116,30 +2811,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Journal</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Journal</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Qualiperf</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Qualiperf</t>
+          <t>Authors Qualiperf</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Authors Qualiperf</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Projects</t>
         </is>
@@ -3158,32 +2848,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Population snapshot data can be used to study heterogeneity in cell populations, and
-various approaches to integrate such data into computational models have been published. This enables new treatment strategies for cancer therapy, which exploit the intra-tumor heterogeneity.
-In the future, this could help to approach the cure of cancer in a precision medicine approach. Here, we introduce the inverse transformation algorithm, which transforms population snapshot data to parameter distributions that are consistent with these data given an underlying dynamic model with distributed parameters. Therefore, it enables the assessment of the heterogeneity in and behavior of the whole underlying cell population. Our algorithm is a non-parametric likelihood-free approach which, in contrast to the frequently used Approximate Bayesian Computation methods for population matching directly computes a density function value for a single parameter based on density transformation methods. If the model can be described as a one-to-one map that invertibly maps parameters to measurable outputs, the inverse transformation algorithm asymptotically returns the true underlying parameter distribution.
-The inverse transformation algorithm is applied to snapshot data simulated via standard
-differential equation models for biochemical reaction networks. In particular, we evaluate our algorithm on two small test-bed models and discuss advantages and limitations in comparison to other existing approaches.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>IFAC-PapersOnline series, https://www.sciencedirect.com/journal/ifac-papersonline</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="2" t="n">
         <v>44664</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>Sebastian Höpfl, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -3200,26 +2881,21 @@
           <t>Budelmann D, Cao Q, Laue H, Albadry M, Dahmen U, Schwen LO</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Steatosis is a common liver disease characterized by the accumulation of lipid droplets in cells. Precise and reliable fat droplet identification is essential for automatic steatosis quantification in histological images. We trained a nnU-Net to automatically segment lipid vacuoles in whole-slide images using semi-automatically generated reference annotations. We evaluated the performance of the trained model on two out-of-distribution datasets. The trained model’s average F1 scores (0.801 and 0.804) suggest a high potential of the nnU-Net framework for the automatic segmentation of lipid vacuoles.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" s="2" t="n">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" s="2" t="n">
         <v>45081</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>(None received QuaLiPerF funding for this work)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>(None received QuaLiPerF funding for this work)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>Stea-PK Mod</t>
         </is>
@@ -3236,7 +2912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3262,25 +2938,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Qualiperf</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Qualiperf</t>
+          <t>Authors Qualiperf</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Authors Qualiperf</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Projects</t>
         </is>
@@ -3302,25 +2973,20 @@
           <t>Helen Leal Pujol, Matthias König</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Hypercholesterolaemia, i.e., elevated plasma levels of cholesterol, is a major risk factor for cardio- vascular disease, the leading cause of death globally. Hypercholesterolaemia can be treated using statins, a class of medications which inhibit HMG-CoA reductase, a major enzyme in cholesterol synthesis. Pravastatin is a statin used to reduce total and low-density plasma cholesterol levels and increase high-density plasma cholesterol levels in hypercholesterolaemic patients. Pravastatin is absorbed from the small intestine by the transporter OATP2B1 and subsequently transported in the liver via OATP1B1 from where it can be exported in the bile via the enzymatic exporter MRP2. Pravastatin can be excreted either in the urine via the kidneys or in the faeces due to incomplete absorption. Hepatic and renal impairment could have a large impact on the pharmacokinetics of statins as could have genetic variants of the transporters OATP2B1, OATP1B1 and MRP2. Within this thesis the pharmacokinetics of pravastatin were analysed by developing a physio- logically-based pharmacokinetics model based on extensive data curation of pravastatin data. The model allows to simulate the time-concentration courses of pravastatin in various tissues and to calculate the pharmacokinetic parameters for pravastatin. Furthermore, the model was applied to investigate the effects of genotypes of the enzymatic transporters and hepatic and renal im- pairment on the pharmacokinetics of pravastatin. Thus, key questions such as, how pravastatin therapy would be affected in renal or hepatic disease, as well as how pravastatin therapy should be adapted based on genotypes, find an answer in this work.</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="2" t="n">
         <v>44684</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>P3 - König</t>
         </is>
@@ -3342,27 +3008,20 @@
           <t>Fritz Otlinghaus, Steffen Gerhäusser, Ishaan Desai, Tim Ricken, Benjamin Uekermann</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>As the human liver is one of the most important organs in the human body, the scientific community aims to improve our understanding of its internal processes to enable better planning for individual liver surgeries. This includes the complex relationship between hepatic tissue and metabolic cell processes.
-This work is based on the modeling approach proposed by [RWH+14] where the hepatic tissue is modeled by partial differential equations (PDEs) in a homogenization approach based on the extended Theory of Porous Media (eTPM). These equations are then coupled with ordinary differential equations (ODEs), representing the metabolic processes in the liver cells. These models are solved by the FEM-solver FEBio for the hepatic tissue, and the ODEs on the cell scale are solved by the biochemical software library libRoadRunner.
-This work introduces a new two scale coupling using the coupling library preCICE and the Micro Manager. A new FEBio-preCICE adapter is implemented and compared to an existing coupling. To evaluate the differences in the couplings, three test cases are defined and simulation time, quality and memory usage for each test case is compared. This is followed up by discussing and comparing advantages and disadvantages for each coupling.</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="2" t="n">
         <v>44774</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Steffen Gerhäusser, Tim Ricken</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>Steffen Gerhäusser, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>P7 - Ricken</t>
         </is>
@@ -3386,25 +3045,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>see pdf</t>
+          <t>3/21/2023</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3/21/2023</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Lena Lambers</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>Lena Lambers</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>P7 - Ricken</t>
         </is>
@@ -3428,26 +3082,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Talinolol is a cardioselective beta-blocker used for the treatment of various cardiovascular diseases and tachyarrhythmia. The gastrointestinal absorption of talinolol is determined via its uptake in the intestine via the organic anion transporting polypeptide 2B1 (OATP2B1) and its efflux via the P-glycoprotein (P-gp). After intestinal absorption talinolol can be transported into the liver via OATP1B1 talinolol where it undergoes enterohepatic circulation. Talinolol is excreted unchanged in the urine and feces. In addition to its clinical application, talinolol is widely used as a probe drug for the intestinal efflux transporter P-glycoprotein. P-gp plays a crucial role in the human body as it is expressed in various tissues to protect against potentially toxic substances, facilitating the elimination of xenobiotics. The application of talinolol for P-gp phenotyping enables evaluation of factors influencing P-gp-mediated transport in vivo such as genetic polymorphisms of P-gp as well as the distribution of P-gp along the intestine.
-Within this thesis, an extensive dataset of talinolol pharmacokinetics was established and used to develop a physiologically based pharmacokinetic (PBPK) model for talinolol. The model was applied to investigate the influence of various factors on the pharmacokinetics of talinolol, including: (i) genetic variants of P-gp; (ii) enzymatic activity of the transporters OATP2B1 and OATP1B1; (iii) site-specific distribution of P-gp and OATP2B1 proteins in the intestine, and (iv) the impact of diseases such as liver cirrhosis and renal dysfunction. The model enables precise predictions of the concentration-time profile of talinolol in various tissues following oral or intravenous administration. Furthermore, the model accurately describes the effect of genetic variants of P-gp on the pharmacokinetics of talinolol. The detailed description of the limiting intestinal absorption of intestinal provided by the model, along with the precise prediction of talinolol`s pharmacokinetics in different renal functions, holds significant clinical relevance.</t>
+          <t>7/17/2023</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7/17/2023</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>P3 - König</t>
         </is>
@@ -3469,25 +3117,20 @@
           <t>Jan Grzegorzewski, Matthias König</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Cytochrome P450 (CYP) phenotyping and dynamic liver function testing are essential methods in clinical practice. These methods utilize the pharmacokinetics (PK) of test substances and their metabolites to gain insight into the liver’s metabolic capacity and the activity of enzymes and transporters. Despite an extensive body of literature, many aspects affecting liver function and CYP activity are not well understood. Liver function tests are not only influenced by numerous characteristics of a studied subject but also by the specifics of individual study procedures. A key challenge is to disentangle the various factors which influence the outcome of the measurements from each other to study their influence on the dynamic liver function and CYP phenotype. In this work, the challenge was addressed through meta-analysis and physiologically based pharmacokinetic (PBPK) modeling. As a foundation, an open pharmacokinetics database (https://pk-db.com) was developed and pharmacokinetics data were curated for a wide range of test substances. To my knowledge, PK-DB currently contains the largest open pharmacokinetic dataset on substances used for phenotyping and dynamical liver function testing. The dataset allowed for identifying and quantifying demographic and racial bias (sex, ethnicity, age, health), reporting errors, and inconsistencies in pharmacokinetic literature. Based on the data, a caffeine pharmacokinetics meta-analysis was conducted concerning various factors affecting liver function and CYP1A2 activity. In particular, meta-analysis and data integration solidified existing knowledge on the effects of smoking, oral contraceptives, multiple diseases, and co-medications on caffeine pharmacokinetics. Similarly, the measurement accuracy of caffeine concentration in saliva versus plasma was quantified, and the effect of dosing amount and sampling timing for phenotyping were analyzed. In addition, the impact of CYP2D6 polymorphism was investigated. Therefore, a PBPK model of dextromethorphan (DXM) and its metabolites dextrorphan (DXO) and dextrorphan O-glucuronide (DXO-Glu) was developed, and calibrated and validated with pharmacokinetics data. The variability in CYP activity was modeled based on in vitro data. The model can predict individual plasma concentrations and urinary amounts of DXM, DXO, and DXO-Glu and the metabolic phenotype based on the individual’s CYP2D6 genotype and physiological characteristics. The analyses suggest that most of the variability in the pharmacokinetics of dextromethorphan can be attributed to the variability in CYP2D6 and CYP3A4 enzyme kinetics. Among various other investigations, the influence of ethnicity on CYP2D6 activity was also investigated. Contributions to PK data curation and PBPK model development were also made for other phenotyping and liver function test substances (chlorzoxazone, codeine, diazepam, galactose, indocyanine green (ICG), metoprolol, midazolam, omeprazole, pravastatin, simvastatin, talinolol, and torasemide). For ICG, in particular, the impact of hepatic blood flow, cardiac output, and body weight, as well as the survival probability after partial hepatectomy, were investigated by PBPK modeling. Notably, the studying of the various test substances was only made possible by a systematic and standardized workflow that facilitated data integration, data sharing, the creation of reproducible PBPK models, and the standardized integration of data and models. In conclusion, a pharmacokinetic database, methods, and workflows for the analysis of test compounds used in dynamical liver function testing and CYP phenotyping were established. Factors affecting CYP phenotyping and liver function testing were investigated by meta-analysis and PBPK modeling. The models developed in this effort have the potential to impact personalized medicine and to increase the precision of dynamic liver function tests in clinics.</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="2" t="n">
         <v>45179</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Jan Grzegorzewski, Matthias König</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>Jan Grzegorzewski, Matthias König</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>P3 - König</t>
         </is>
@@ -3504,7 +3147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3525,30 +3168,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Conference</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Conference</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Qualiperf</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Qualiperf</t>
+          <t>Authors Qualiperf</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Authors Qualiperf</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Projects</t>
         </is>
@@ -3567,36 +3205,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Differential gene expression analysis to determine liver perfusion and liver function
-Background/Purpose
-For the understanding of the quantitative and spatial relationship between hepatic perfusion and function in healthy, steatotic and regenerating livers using a systems surgery approach, we focus on analyzing the transcriptome differences of healthy liver, steatotic liver, venous ligated liver lobe and during regeneration.
-Methods
-The transcriptome gives insights into the state of the cells from that the genetic material was sequenced. For each liver condition, we specifically distinguish spatial information between perivenous and periportal liver and compare it to whole liver. For both periportal and perivenous liver cells the differences between healthy liver to steatotic liver and healthy liver to venous ligated liver lobe and non-ligated liver lobe can be analyzed. The observed genes (with a focus on non-coding RNAs and isoforms) serve as potential marker genes for regeneration capacity and potential therapeutic targets. Additionally, by analyzing differentially expressed genes pathways can be detected, that are activated during liver perfusion restriction, liver function restriction and liver regeneration.
-Results
-The results of this analysis can be input for the metabolic and multiscale computational models to limit the parameter space of models used to describe the function and perfusion restricted liver more accurately.
-Conclusions
-Thus RNA-Sequencing analysis contributes essentially to the understanding of the liver perfusion and function.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>24. Chirurgische Forschungstage, CFT2021, https://forschungstage2021.de/</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="2" t="n">
         <v>44806</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Daria Meyer, Manja Marz</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>Daria Meyer, Manja Marz</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>P4 - Marz</t>
         </is>
@@ -3615,62 +3240,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Computational multiphase and multiscale continuum-biomechanical modeling of biological tissue can simulate the complex hepatic deformationperfusion-function relationship and allow patient-specific prediction of
-liver surgery [1]. Our goal is the precise mathematical description and
-numerical simulation of the liver lobules coupled to metabolic processes
-in the liver cells.
-For the description of liver tissue we apply a poro-visco-elastic homogenization approach using the Theory of Porous Media [2] with an
-anisotropic blood flow [4, 5]. We consider the control body ϕ, which
-consists of κ main phases ϕ
-α. Each phase contains one carrier phase
-ϕ
-α and ν − 1 miscible substances ϕ
-αβ. In detail, we account for a
-porous solid structure representing healthy tissue (S), a liquid phase
-describing the blood (F), and two solid phases with the ability of growth
-and depletion representing the fat tissue (T) and the tumor tissue (C) as
-well as substances like nutrients or therapeutics.
-The liver tissue stress and deformation as well as blood perfusion and
-pressure on the lobular scale are described with partial-differential equations (PDEs), that are coupled to ordinary differential equations (ODEs)
-on the cellular scale for the calculation of hepatic processes as well as
-the production, utilization and storage of the involved metabolites.
-The results show a zonated accumulation of fat in the liver lobule. The
-storage of fat causes tissue growth with a negative impact on the blood
-flow wFS, shown by the relation between the change of blood velocity and
-fat fraction in Figure 2 b). Furthermore, the development of a liver tumor
-can be calculated dependent on nutrients, see Figure 2 c). The kinetics of tumor development follows the Monod kinetics, whereby glucose is
-consumed during the process.
-To investigate the dependence of microscopic perfusion on the geometry
-of liver lobules, the locations of central veins and portal triads from histological sections are identified, meshed and used as input of the simulation. The resulting pressure distribution shown in Figure 3 b) thus allows
-for a real velocity distribution.
-The calculation of steatotic livers requires identification and quantification of the existing fat content. Therefore, a convolutional neural network
-(CNN) was trained on previously manually annotated fat content in histological images [3], see Figure 4.
-The coupled multiphasic model enables the simulation of the complex
-hepatic deformation-function-perfusion processes with application to
-steatosis and tumor development and the simulation is able to depict
-changes in metabolism caused by altered perfusion or fat accumulation.
-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t xml:space="preserve"> 24te Chirurgische Forschungstage, CFT2021, https://forschungstage2021.de/</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="2" t="n">
         <v>44441</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Tim Ricken</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>P7 - Ricken</t>
         </is>
@@ -3689,29 +3275,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Modelling is becoming increasingly essential to gain insights into biomedical systems, resulting in a large number of published models, data and results. A problem is that some of these are not available or can only be reproduced with a great deal of effort. However, this is essential as model predictions must be reliable and models should be easily expandable in a fast-moving field like systems medicine. This rises the need for comprehensive F.A.I.R. workflows.
-Especially Bayesian workflows, which provide a comprehensive description of uncertainties for all quantities of a model, produce a lot of data and need proper documentation to be reproducible. In particular, prior distributions must be specified and documented and the whole posterior should be reported (van de Schoot et al. 2021). Visualizations of the convergence and statistical tests which complement the analysis can also help others to understand the work. From a practitioners viewpoint, we aim to establish F.A.I.R. workflows that are build on existing standards particularly in a Bayesian learning context, thus simplifying and promoting reproducible work. Therefore, we combine the PEtab format, a format that contains an SBML model and the complete parameter estimation problem, with all information of our Bayesian analysis. Furthermore, visualizations that promote understanding are added and uploaded in a FAIRDOMHub project that can be accessed via a DOI. This helps biologists and clinicians to understand our work and promotes further research as other computational scientists can easily extend our models and make further analyses. </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>8th international conference on Systems Biology of Mammalian Cells SBMC 2022, https://sbmc2022.de/</t>
         </is>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="D4" s="2" t="n">
         <v>44698</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>Sebastian Höpfl, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -3730,32 +3310,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Computational multiphase and multiscale continuum-biomechanical modeling of biological
-tissue can simulate the hepatic deformation-perfusion-function relationship
-and allow patient-specific prediction of liver surgery [1, 2]. Our goal is the precise
-mathematical description and numerical simulation of the liver lobules coupled to
-metabolic processes in the liver cells using a multiscale and multiphase continuumbiomechanical model based on the Theory of Porous Media (TPM), see [4, 5].</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t xml:space="preserve">SimTech Status Seminar </t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="D5" s="2" t="n">
         <v>44481</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Lena Lambers, Tim Ricken</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>Lena Lambers, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>P7 - Ricken, Coordination</t>
         </is>
@@ -3774,36 +3345,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Computational multiphase and multiscale continuum-biomechanical modelling
-of biological tissue can simulate the hepatic deformationperfusion-
-function relationship and allow patient-specific prediction of liver
-surgery [1, 2]. Our goal is the precise mathematical description and numerical
-simulation of the liver lobules coupled to metabolic processes in
-the liver cells using a coupled continuum-biomechanical PDE-ODE model
-based on the Theory of Porous Media (TPM), see [4, 5].</t>
+          <t>SimTech Status Seminar 2022, Bad Boll</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SimTech Status Seminar 2022, Bad Boll</t>
+          <t>7/5/0022</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7/5/0022</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>P7 - Ricken, Coordination</t>
         </is>
@@ -3822,31 +3382,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Computational multiphase and multiscale continuum-biomechanical modelling of biological tissue can simulate the hepatic deformation-perfusionfunction relationship and allow patient-specific prediction of liver surgery. Our goal is the precise mathematical description and numerical
-simulation of the liver lobules coupled to metabolic processes in the liver
-cells using a coupled continuum-biomechanical PDE-ODE model based
-on the theory of porous media (TPM).</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>Simtech Status Seminar 2022</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="2" t="n">
         <v>44746</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Steffen Gerhäusser, Tim Ricken, Lena Lambers</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>Steffen Gerhäusser, Tim Ricken, Lena Lambers</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>P7 - Ricken, Coordination</t>
         </is>
@@ -3865,28 +3417,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Computational multiphase and multiscale continuum-biomechanical modelling of biological tissue can simulate the hepatic deformation-perfusion-function relationship and allow patient-specific prediction of liver surgery. Our goal is the precise mathematical description and numerical simulation of the liver lobules coupled to metabolic processes in the liver cells using a coupled continuum-biomechanical PDE-ODE model based on the theory of porous media (TPM).</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>SimTech Status-Seminar Bad Boll 2022</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="D8" s="2" t="n">
         <v>44746</v>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Tim Ricken, Lena Lambers, Steffen Gerhäusser</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>Tim Ricken, Lena Lambers, Steffen Gerhäusser</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>P7 - Ricken, Coordination</t>
         </is>
@@ -3905,28 +3452,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Pints&amp;Posters, 15.07.2022, University of Stuttgart</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="D9" s="2" t="n">
         <v>44757</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Lena Lambers, Tim Ricken</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>Lena Lambers, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>P7 - Ricken, Coordination</t>
         </is>
@@ -3945,28 +3487,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The research unit ‘Quantifying Liver Perfusion-Function Relationship’ (QuaLiPerF) aims at a holistic understanding of liver function in the context of liver resections. We use Bayesian methods for data integration and estimation of certainties for model predictions, which can be used for a risk stratification for liver surgery patients.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>SimTech Status Seminar 2022, Bad Boll</t>
         </is>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="D10" s="2" t="n">
         <v>44746</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
-        <is>
-          <t>Sebastian Höpfl, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -3985,28 +3522,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>F.A.I.R. Workflows for Bayesian Inference in Systems Medicine</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>Current Trends in Systems and Control Theory, June 7 2022 Stuttgart</t>
         </is>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="D11" s="2" t="n">
         <v>44719</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>Sebastian Höpfl, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -4025,28 +3557,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>German Conference on Bioinformatics 2022, https://gcb2022.de/</t>
         </is>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="D12" s="2" t="n">
         <v>44810</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Daria Meyer, Manja Marz</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
-        <is>
-          <t>Daria Meyer, Manja Marz</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
         <is>
           <t>P4 - Marz</t>
         </is>
@@ -4065,34 +3592,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Computational multiphase and multiscale continuum-biomechanical
-modelling of biological tissue.
-Precise mathematical description and numerical simulation of
-function-perfusion processes in the human liver.
-Patient-specific prediction of liver disease and therapy.
-Coupled continuum-biomechanical PDE-ODE model based on the
-Theory of Porous Media.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>Inventing the Future - University of Stuttgart meets Bosch</t>
         </is>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="D13" s="2" t="n">
         <v>44858</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Ricken Tim, Gerhäusser Steffen, Lambers Lena</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
-        <is>
-          <t>Ricken Tim, Gerhäusser Steffen, Lambers Lena</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
         <is>
           <t>P7 - Ricken</t>
         </is>
@@ -4111,39 +3627,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Introduction
-Conventional fat fraction quantification relies on gradient echo based sequences1-4, which has the advantage of fast acquisition, while being vulnerable to motion and susceptibility artifacts. At 9.4T not only the susceptibility artifacts are much stronger, but also the echo time of a FLASH sequence can’t resolve the in-phase to opposed-phase progression which corresponds to an echo time difference of 0.357 ms. Additionally, at such high field, a spin- echo based sequence has the benefit to suppress R2* effects while echo shifting can be used to sample the spin echo asymmetrically at arbitrarily small echo differences to induce well defined phase shifts between fat and water signal components. To reduce the required scan time, the echo shifting was implemented into a 3D variable flip angle RARE sequence (Rapid Acquisition with Refocused Echoes, ES-VFA-RARE) which allows high RARE factors with excellent image quality5. Using this sequence, the abstract attempts to bridge the typical MRI mm scale to the histological microscale by recovering super high resolution fat signal fraction maps in ex vivo liver tissue at 100μm.
-Materials and methods
-MRI data were acquired on a Bruker BioSpec 94/20USR AVIII scanner using a 72mm (phantom) or 60mm (ex vivo sample) quadrature transceiver coil. To assess the phase shift created by progressively changing the echo shift value, ES-VFA-RARE images were acquired on a kerosene gel (a.k.a. paraffin or lamp oil) - water phantom with the 41 echo times = [-0.72:0.036:0.72] ms, fig. 1). The scan parameters of ES-VFA-RARE for phantom study were TA=6.5min for each echo shift, TR=1500ms, TE=63ms, BW=200kHz, resolution 0.44 x 0.44 x 0.55 mm3.Ex vivo acquisition was performed on a liver sample, harvested from a rat which received high fat diet for 12 weeks. The scan parameters were TA=4h 10min per echo shift, TR=1000ms, echo shifts= [-0.367,-0.357,-0.129,-0.059,0,0.059,0.178,0.367,0.397,0.416] ms, echo spacing 3.6ms, TE=18ms, RARE factor=60, 10 averages, BW=400kHz, isotropic resolution of (0.1mm)3. Fat-water separation was performed by fitting the following signal model:
-S(T_E) = S_0•(1 + f exp(i • ω_Δfw• T_E))• exp(i • (ω_ΔB0• T_E+φ_0))
-where $\omega_{\Delta fw} = \gamma Β_0 \sigma = 8.8\times 10^3$ rad / s, assumed to be the fat-water frequency shift; Optimisation was performed with respect to $S_0$, signal fat fraction f, off-resonance frequency ω_{ΔB0}, and phase after the RF pulse $\phi_0$. It was implemented in JAX6 to leverage automatic differentiation and is performed using a variable projection method, VARPRO7,8, with nonlinear parameters ω_{ΔB0} and φ0 optimised using AdaBelief optimiser9,10.
-Results
-Fig. 1 displays a clear boundary between kerosene and water. The phase difference across the boundary changes linearly with the applied echo shift. Fig. 2 shows the original MRI images and the results of the fat-water signal fraction separation. The calculated fat signal fraction ranges to approx. 22% in the areas with highest fat concentration. The B0 map shows primarily the residual linear gradient along the readout direction, together with a characteristic dipole field from, most likely an air bubble. The φ0 map shows the effects of the initial RF pulse for different tissue properties (e.g. electric conductivity). In Fig. 3 two large landmarks could be matched, in a first step, between MR images and low magnification histology. Following deeper inspection a small area of an MRI-derived fat distribution could be matched to a small area in the histology slide at higher magnification.
-Discussion
-Pieces of an entire rat liver were scanned with a very high isotropic resolution of 100mm3 using a large 60mm volume coil. To achieve sufficient SNR for voxelwise fat separation, rather long scan times were necessary, which would have been prohibitively long without the high RARE factors possible with the ES-VFA-RARE sequence. Complex non-linear optimisation is facilitated by the VARPRO algorithm, leveraging the separable nature of the problem, as well as by a total of 10 different echo shifts, providing high SNR for the fat-water separation. The very high resolution of the MR acquisitions allows to bridge the gap between the reconstructed fat fraction maps and μm histological images, showing qualitative agreement between the spatial distributions. Quantification of the fat proton density fraction, however, requires further calibrations to remove different signal weighting of fat and water due to their different T1 and T2 times.
-Conclusion
-Echo shifting was successfully incorporated into a scan-time efficient ES-VFA-RARE sequence, allowing high resolution acquisition of liver samples and subsequent Dixon based fat signal separation. The MRI images at 100μm resolution started to resolve the enhanced periportal fat depositions and fine structures in the local liver lobe as well as the larger scale differences within the liver lobe or between different liver parts.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>International Society for Magnetic Resonance in Medicine 2023, https://www.ismrm.org/23m/</t>
         </is>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="D14" s="2" t="n">
         <v>44960</v>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Wan-Ting Zhao, Karl-Heinz Herrmann, Sibgatulin R, Weiwei Wei, Uta Dahmen, Jürgen R. and Reichenbach</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>Wan-Ting Zhao, Karl-Heinz Herrmann, Sibgatulin R, Weiwei Wei, Uta Dahmen, Jürgen R. and Reichenbach</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>P2 - Dahmen, P6 - Reichenbach</t>
         </is>
@@ -4162,28 +3662,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>na</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>Treffen der Joachim-Herz-Stiftung, 10.-11.20.2023 in Hamburg</t>
         </is>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="D15" s="2" t="n">
         <v>44968</v>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
-        <is>
-          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t>P7 - Ricken, Coordination</t>
         </is>
@@ -4202,40 +3697,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Background and Aims: 
-Metabolic zonation is a liver phenomenon, described as different distribution of functions among lobules. One liver function is the degradation of drugs, which is realized by cytochrome P450 enzymes. The alteration of CYP expression and activity will be studied in marginal donor livers for a better characterization of these high-risk organs to improve the graft selection process.
-Method: 
-The first step of the study is to investigate the influence of marginal organs on drug metabolism, by comparing the steatosis severity, the donor age, and the CIT to the CYP expression and activity. The measurements will be correlated to the change in reperfusion and ischemia-reperfusion-injured grafts. Second, to assess the LiMAx test, as a CYP 1A2 point- of care diagnostic, the in vivo and in vitro CYP measurements are correlated. The experimental results are related to the patient outcome, especially the prevalence of delayed graft function, as well as validated clinical chemistry parameters.
-40 patients undergoing a liver transplantation in 2022/23 at university hospital in Jena, who are giving their informed consent, will be examined. For an exploratory approach, with 10 subjects each independent variable, are needed.
-With the tissue samples we perform an H.E. staining for the morphological analysis of the donor organs. Indirect immunohistochemistry for CYP expression, precisely CYP 1A2, CYP 3A4, CYP 2C19 and a fluorescent assay measuring the CYP 1A2 activity in vitro, as well as a breath test (LiMAx) to measure the CYP activity in vivo. 
-Results: 
-The CYP enzymes are expressed pericentral in the lobules. Steatosis, age, and CIT are three interrelated factors, that we predict, will influence the CYP expression pattern. We assume that the CYP activity is altered by the reperfusion and the IRI. 
-Conclusion: 
-Potentially, the LiMAx could be used to assess recovery after transplantation, reflecting the IRI.
-</t>
+          <t>EASL European Association for the Study of the Liver, https://www.easlcongress.eu,</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>EASL European Association for the Study of the Liver, https://www.easlcongress.eu,</t>
+          <t>6/24/2023</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6/24/2023</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Laura Bütow, Hans-Michael Tautenhahn. T., Schröter D.S., Uta Dahmen</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
-        <is>
-          <t>Laura Bütow, Hans-Michael Tautenhahn. T., Schröter D.S., Uta Dahmen</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
         <is>
           <t>P2 - Dahmen, P9 - Tautenhahn, SimLivA</t>
         </is>
@@ -4254,42 +3734,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Background:
-Due to the lack of donor organs there is an increasing use of non-optimal organs. These are organs from aged donors, with steatosis or organs subjected to prolonged cold ischemia. 
-Those factors might influence the recovery of function after transplantation and thereby affect outcome. 
-One of the key functions of the liver is the drug metabolism. Ex-vivo assessment of drug metabolism includes the visualization of the key drug metabolizing CYP enzymes and the determination of the enzyme activity. In-vivo assessment of CYP 1A2 metabolism is performed using a breath test (LiMAx) after injecting a test drug (Methacetin) and is accepted as a correlate of hepatic function.
-Hypothesis:
-We hypothesize that the three factors Steatosis, age, and CIT may influence drug metabolism in liver grafts after transplantation. 
-Objective and Methods:
-We want to investigate the impact of age, steatosis and cold ischemia time on expression and activity of CYP enzymes in tissue samples obtained from liver grafts at the end of cold ischemia and 1 hour after reperfusion. First, Severity of steatosis will be determined based on HE-staining of the liver samples. Second, CYP expression will be visualized using IHC. Third, CYP activity will be assessed using a fluorescent assay. As a fourth and thus clinical part, the CYP 1A2 activity in vivo is investigated with the LiMAx.
-Wetlab results will be compared to the postoperative course of the patient with special attention to the recovery of hepatic function as determined using the LiMAx assay on POD 1 and POD 7. 
-Based on statistical the considerations of Peduzzi et al., 10 patients per individual variable should be included for an explorative approach to assess factors influencing liver function.
-Results:
-Over the time period from January 2022 until March of 2023, 40 patients were included in the study. Donor age ranged from 23 to 88 years with a mean of 59.5 years. The mean CIT was 6.13 hours. The Limax test, as illustrated by a single case so far, demonstrated the posttransplant reduced hepatic function as well as the almost complete recovery within the first postoperative week. The patient was an 59 old male with ethyl toxic liver cirrhosis who gets an 65 year old organ with a CIT time of 8 h 51. 
-</t>
+          <t>33., Wilseder Workshop von Biotest- Individulaisierte Therapie von Lebererkrnakungen, https://www.biotest-wilsede.de,</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>33., Wilseder Workshop von Biotest- Individulaisierte Therapie von Lebererkrnakungen, https://www.biotest-wilsede.de,</t>
+          <t>6/28/2023</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6/28/2023</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Laura Bütow, Schröter D.S., Hans-Michael Tautenhahn, Uta Dahmen</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>Laura Bütow, Schröter D.S., Hans-Michael Tautenhahn, Uta Dahmen</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
         <is>
           <t>P2 - Dahmen, P9 - Tautenhahn, SimLivA</t>
         </is>
@@ -4308,45 +3771,25 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Time-series of transcriptome data reveal non-coding RNAs that can be incorporated into modelling approaches
-Daria Meyer1, Bruno Christ2, Matthias König3, Manja Marz1 
-1Friedrich-Schiller-Universität Jena, Germany; 2Universitätsklinikum Leipzig, Germany; 3Humboldt-Universität zu Berlin, Germany
-Non-coding RNAs (ncRNAs) are a special class of RNA that are transcribed from the DNA, but not translated into protein. Beside about 4,000 ncRNA classes in Rfam, an RNA families database (Griffiths-Jones et al.), the number of long ncRNAs is estimated to be more than 50,000 (Iyer et al.). Often ncRNAs have regulatory functions; but for most ncRNAs no function is yet known.
-Here, we propose a method to determine:
-(i) differentially expressed ncRNAs suggesting a potential function in a given experimental setup
-(ii) possible targets in the transcriptional 'behaviour' as the ncRNAs themself
-(iii) a proof-of-principle for integrating regulation via ncRNAs into pathway-based modelling approaches
-We show a clear functional relationship of ncRNAs using portal vein ligation (PVL), a surgical procedure that reduces perfusion in part of the liver. Specifically, we compare sham surgery to PVL, at 2 and 5 days, in both ligated and non-ligated liver lobes.
-Furthermore, we predict targets for selected ncRNAs by correlating transcriptome patterns with ncRNA expression.
-Finally, we propose to integrate ncRNAs into existing modelling approaches, such as pathway models of liver regeneration after partial hepatectomy (Köller et al.) or gene regulatory networks (Gebert et al.).
-References:
-Gebert, Jutta, Nicole Radde, and G-W. Weber. "Modeling gene regulatory networks with piecewise linear differential equations." European Journal of Operational Research 181.3 (2007): 1148-1165.
-Griffiths-Jones, Sam, et al. "Rfam: an RNA family database." Nucleic acids research 31.1 (2003): 439-441.
-Iyer, Matthew K., et al. "The landscape of long noncoding RNAs in the human transcriptome." Nature genetics 47.3 (2015): 199-208.
-Köller, Adrian, et al. "Prediction of survival after partial hepatectomy using a physiologically based pharmacokinetic model of indocyanine green liver function tests." Frontiers in physiology (2021): 1975.</t>
+          <t>Workshop on Computational Models in Biology and Medicine 2023</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Workshop on Computational Models in Biology and Medicine 2023</t>
+          <t>6/15/2023</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6/15/2023</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Daria Meyer, Bruno Christ, Matthias König, Manja Marz</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>Daria Meyer, Bruno Christ, Matthias König, Manja Marz</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t>P1 - Christ, P3 - König, P4 - Marz</t>
         </is>
@@ -4363,26 +3806,25 @@
           <t>Tim Ricken, Steffen Gerhäusser, Lena Lambers, Luis Mandl</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>International Conference on Data-Integrated Simulation Science (SimTech2023), https://www.simtech2023.uni-stuttgart.de/, 04. - 06. Oktober 2023, Sutttgart</t>
         </is>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="D19" s="2" t="n">
         <v>45056</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Tim Ricken, Steffen Gerhäusser, Lena Lambers, Luis Mandl</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
-        <is>
-          <t>Tim Ricken, Steffen Gerhäusser, Lena Lambers, Luis Mandl</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
         <is>
           <t>P7 - Ricken</t>
         </is>
@@ -4402,18 +3844,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The renal cortex and medulla exhibit distinct responses to glucose stimuli, highlighting their differential metabolic roles. This leads to variations in glucose concentrations between cortex and medulla, which are further influenced by different pathophysiologies. Therefore, in our study we could show, that investigating the distribution of glucose allows for the elucidation of disrupted nutritional utilization and inflammatory processes in sepsis-associated acute kidney injury (S-AKI).</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>25th DS-ISMRM (Germany chapter International Society for Magnetic Resonance in Medicine), Berlin, 6-7 September, 2023, Poster</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4428,27 +3865,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Introduction
-In clinical practice, portal vein ligation (PVL, Fig.1-A) is a prelude of standard two-step hepatectomy to induce hypertrophy-atrophy complex. However, the regenerated liver volume often exhibits marked heterogeneity [1]. One theory of the liver’s response to PVL-induced blood supply restriction is that increased shear stress in the non-ligated lobes triggers liver regeneration to counterbalance functional decline. Yet, the intricate dynamics between non-ligated lobes and ligated lobes remains elusive [2]. To date, identification of liver function loss has relied on either invasive liver biopsy and/or systemic biochemical data (such as ASAT, ALAT, bilirubin), which provide limited insight into individual lobes [2]. Arterial spin labeling (ASL) MRI is a non-contrast, non-invasive technique that allows quantitative assessment of perfusion and can resolve the intralobar perfusion changes after PVL. The aim of our study was to delineate the changes in perfusion over time at days 1, 2, 3, and 5 after portal vein ligation in a cross-sectional study (Fig.1-B).
-Methods
-MRI data were collected on a Bruker BioSpec 94/20USR AVIII scanner using an 86 mm quadrature transceiver coil. A total of 23 animals were studied. PVL was performed by surgical ligation of portal branches of left lateral, left median and right lobes representing 65% PVL. After PVL (s. Fig 1A), animals were intubated for mechanical ventilation (tidal volume Vt = 5.5 ml, constant respiratory rate in the range of 45-55 bpm). To quantify the “kinetics” and re-distribution of the blood supply, respiratory-triggered MRI measurements and liver tissue harvesting were performed 1, 2, 3, or 5 days after surgery (POD1,2,3,5). Anatomic T2W images were acquired with a 3D VFA-RARE sequence. TR/TE = 1000/1.97 ms, RARE factor = 100, isotropic Resl = 350μm3, BW = 250 kHz, TA ~7m30 s with trigger. Multiple single-slice perfusion images were acquired using a FAIR-EPI sequence with TR/TE = 12000/12.87 ms, 14 TIs ranging from 100 – 5150 ms, Resl = (625 x 625 x 2000) μm3, TA ~ 10m 5s with trigger. Manual segmentation of ROIs on Bruker perfusion maps was performed with MATLAB (R2019a, MathWorks), followed by plotting and statistics (Python v.3.8, Seaborn v. 0.12.2, SciPy v.1.7.1). The Mann-Whitney test was applied, and p &lt; 0.05 was considered significant.
-Results
-Starting from POD1, the ligated lobes (LML, LLL and RL, Fig.2-A, blue dashed line) showed a darker contrast compared with the non-ligated lobes (RML, CL, Fig.2-A, red dashed line), and this contrast persisted in the anatomical images. In control animals (Ctrl), the average tissue perfusion across all lobes was 307±50 ml/min/100g tissue. For the operated animals, both non-ligated lobes exhibited hyperperfusion at POD1 (Fig.2-C, RML: 440 ± 84 ml/min/100g tissue; CL: 390 ± 37ml/ min/100g tissue), which was decreased at POD2 (insignificant compared to Ctrl) and reached equilibrium at POD5. In contrast, perfusion of ligated lobes remained minimal at approximately 150±50 ml/min/100g tissue. Notably, RML demonstrated the highest heterogeneity at POD1.
-Discussion
-The liver has a unique dual blood supply: it is supplied 25% by the hepatic artery and 75% by the portal vein [2]. When the portal vein of a lobe is ligated, the latter is supplied exclusively by the hepatic artery, which delivers oxygenated blood from the heart. Conversely, the non-ligated lobe is supplied with nutrient-rich, oxygen-poor blood from the intestine, resulting in a brighter contrast than the ligated lobes. The time course of the perfusion shows that the key time point is POD1-2. All ligated lobes exhibited an overshoot trend at POD1 and a re-elevated perfusion from POD2 on, suggesting a buffering response of the hepatic artery [3]. Our results demonstrate the dynamics of rapid perfusion changes after PVL in multiple lobes. Further studies are needed to refine and confirm our findings, preferably in a longitudinal study design.
-Conclusion
-ASL perfusion is a sensitive method to detect perfusion adaptation after PVL in the liver.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>39th European Society for Magnetic Resonance in Medicine and Biology, Basel, Switzerland. Poster</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4463,52 +3886,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The acquisition of experimental data in Systems Biology is time-consuming
-and costly. On the one hand, this is due to expensive chemicals, such as antibodies,
-on the other hand, due to the need for extensive preparation, incubation,
-and purification procedures of experiments. Finding the best experiment design
-helps to get the maximum possible information out of limited experimental data,
-thereby minimizing cost and time. Here, we present first results of Bayesian Optimal
-Experiment Design (BOED) in a Findable, Accessible, Interoperable, and
-Reusable (FAIR) fashion. In particular, our approach makes use of the Systems
-Biology Markup Language (SBML), the de facto modeling standard in Systems
-Biology, and is set up in an easily applicable and reusable way. Models, data,
-and code will be stored on Fairdomhub.
-BOED was applied to Michaelis-Menten enzyme kinetics with different initial
-substrate concentrations cinit (Figure 1). In the first attempt, three different
-experimental designs were investigated with artificial data. The first design includes
-three measurements with initial substrate concentrations larger than KM,
-the second design includes three measurements with initial substrate concentrations
-lower than KM, and the third design includes only two measurements but
-with lower and higher initial substrate concentrations than KM. Our results
-show that in the first design only kkat but not KM can be identified. In the
-second design, kkat and KM are correlated. Only in the third design with only
-two experiments, both parameters can be identified and the IG was highest.
-These results demonstrate that proper planning of the experimental design can
-improve the estimation of the parameters and at the same time reduce the number
-of experiments needed. Now, the next step is to predict the optimal starting
-concentrations via BOED.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>International Conference on Data-Integrated Simulation Science (SimTech2023), https://www.simtech2023.uni-stuttgart.de/</t>
         </is>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="D22" s="2" t="n">
         <v>45087</v>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
-        <is>
-          <t>Sebastian Höpfl, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -4525,7 +3919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4546,30 +3940,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Conference</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Conference</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Qualiperf</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Qualiperf</t>
+          <t>Authors Qualiperf</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Authors Qualiperf</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Projects</t>
         </is>
@@ -4588,43 +3977,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Background/Purpose
-Hepatobiliary research in clinical and experimental-surgery requires the assessment of liver function. One important parameter of liver function is drug metabolism (DM). DM is aﬀected by the underlying liver disease, liver-surgery, and the subsequent disturbance of hepatic perfusion (HP). However, DM is also aﬀected by the species in question. For translational purposes, it is therefore of importance to compare key aspects of DM in diﬀerent species.
-Methods
-First, we assess the impact of species on DM in normal liver-tissue by comparing CYP-expression and
-activity in three widely used species (mouse, rat, pig) in comparison to human samples.
-Second, we investigate the impact of HP on DM. Therefore, we use rats and mice with a particular
-impairment of HP: (1) moderate hepatic steatosis inducing heterogeneous perfusion due to zonal and lobular inhomogeneous fat accumulation in hepatocytes and (2) 70% partial hepatectomy (PH) inducing portal hyperperfusion due to the loss of liver mass.
-CYP-expression is visualized using immunohistochemistry and quantiﬁed by image analysis (Histokat, Fraunhofer Mevis) in whole slide scans (Nanozoomer, Hamamatsu). CYP-activity is assessed in cryo-preserved liver-tissue utilizing model-reactions.
-Results
-Pericentral expression of all CYP-isozymes in mice and humans extends to zone2. CYP-expression in rats is limited to 2-3 lines of hepatocytes, except CYP1A2 extending to zone2. In pigs, CYP1A2 is expressed in the whole liver lobule.
-In mice, steatosis induced by feeding a methionine-choline deﬁcient but fat-enriched diet for 2-4 weeks did neither aﬀect CYP-activity nor CYP-distribution pattern, with one exception (signiﬁcantly higher CYP2E1- activity as revealed by the model reaction p-Nitrophenol-Hydroxylation).
-In contrast, CYP-expression in the hyperperfused remnant liver was reduced in terms of signal intensity and distribution 24h after 70%PH in both species.
-Conclusions 
-CYP-expression pattern in normal mouse liver is similar to normal human liver, whereas normal rat and pig liver present with diﬀerent distribution patterns. However, surgery-induced substantial hyperperfusion caused similar relative changes in rats and mice.
-In conclusion, mice seem to be the most suitable species for DM-studies. Rats can be used as well, if relative changes are of importance. However, translation of results into the human setting should be done
-with caution.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>24. Chirurgische Forschungstage, CFT2021, https://forschungstage2021.de/</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="D2" s="2" t="n">
         <v>44441</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Uta Dahmen</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>Uta Dahmen</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>P2 - Dahmen</t>
         </is>
@@ -4643,31 +4012,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quantitative modeling in a medical context is often accompanied by sparse and noisy data, resulting in ill-posed optimization problems for model calibration. In addition, data varies considerably among different samples and subjects, reflecting interindividual heterogeneity. For a personalized medicine approach, the individual differences between patients must be considered to provide reliable predictions which support decisions about treatment options. This can be done via computational modelling, integrating heterogeneous data types and information from various sources into a holistic framework. Our project contributes towards an advanced understanding of liver function in the research unit QuaLiPerF, by providing the statistical methodology for a consistent estimation of uncertainty in kinetic models. This estimation is a prerequisite for the risk assessment of (extended) liver resections and the prediction of accurate recovery courses for individual patients.
-We have developed a workflow which uses statistical approaches for uncertainty tracking from heterogeneous and sparse data, via model parameters to model predictions. If computationally feasible, we use Markov Chain Monte Carlo (MCMC) sampling to assess information about the uncertainties in terms of probability distributions. From these, credibility intervals for unobserved parameters and predictions are derived, which can aid clinical decisions.
-In a first approach, we apply methodology to a physiologically based model of the Indocyanine Green (ICG) liver function test. The model allows to predict postoperative liver function after hepatectomy as well as survival and includes data from multiple curated clinical studies. The data reflects a large heterogeneity due to individual differences in the patients and different reporting protocols. To ensure compliance with the FAIR principles, we make use of standard exchange formats such as the Systems Biology Markup Language (SBML) and PEtab. Parameter estimation and further uncertainty analysis is performed with advanced tools such as the Parameter EStimation TOolbox for python (pyPESTO), which ultimately allows to integrate these analysis steps into modeling workflows.
-Our analysis shows how statistical methodology for uncertainty quantification can be implemented in systems medicine modeling approaches. This contributes to personalized medicine by linking predictions for individual patients with their confidence, an important prerequisite for the application of predictive computational models in clinical decision workflows.  </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>24te Chirurgische Forschungstage, CFT2021, https://forschungstage2021.de/</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="D3" s="2" t="n">
         <v>44442</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Matthias König, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>Sebastian Höpfl, Matthias König, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -4686,48 +4047,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synopsis:
-Attaining reproducible, time-efficient, high spatial resolution and quantitative MRI perfusion images in small animal MRI @9.4T is still challenging. To take a step toward this goal, perfusion data from arterial spin labeling (ASL), Flow-sensitive Alternating Inversion Recovery (FAIR), dynamic susceptibility contrast (DSC), and pseudo-continuous arterial spin labeling (pCASL) sequences are compared by assessing cerebral perfusion in 5 rats, each scanned 3 times. Differences in CBF in major brain regions were analyzed, and the repeatability of perfusion MRI was assessed. 
-Introduction:
-Perfusion MRI is widely used clinically to evaluate cerebral perfusion in numerous neurological disorders¹. However, cerebral perfusion of small rodents on ultra-high-field scanners is much less established, and although most methods such as pCASL², FAIR³, or contrast agent-based DSC³ have been implemented on small animal MRIs, there are few evaluations of existing methods in rodents ²⁻⁴. This work compares cerebral blood flow (CBF) obtained with pCASL, FAIR, and DSC in a group of 5 healthy rats in 3 repetitions to evaluate systematic differences between the techniques as well as their individual reproducibility. 
-Methods: 
-Animals: 5 adult Wistar rats were scanned on 3 separate days. Rats were pre-anesthetized with a bolus injection followed by a continuous infusion of Medetomidine in combination with 0.5% isoflurane to minimize the vasodilative effects of isoflurane. Respiration was maintained at 75 bpm±10bpm, and rectal temperature was 36.5±0.5°C at baseline and increased to 38.5±0.5°C during the course of the examination due to the high SAR of the pCASL sequence. All scans were performed on a 9.4T Bruker BioSpec MRI system with a 4 channel-head array. 
-Acquisition Protocol: pCASL acquisition followed published protocols² including calibration scans. pCASL and FAIR used the same spin-echo EPI: matrix 96x96 with partial Fourier 1.5, bandwidth of 300kHz, and spatial resolution of (0.22x0.22x1) mm3. The pCASL specific parameters were TE=16ms, TR=4000ms, labeling duration 3000ms, 60 repetitions, and TA=8min. The FAIR specific parameters were TE=13.6ms, TR=10000ms,  2 averages, 16 different inversion times each for global and selective inversion, and TA=11min.
-For the DSC acquisition, a matrix of 90x56 with partial Fourier of 1.2, resolution (0.26x0.26x1) mm3, TE=9.46ms, TR=150ms, BW 300kHz, 800 repetitions, and TA 2min was used.  A bolus of 1ml/kg of 1:5 diluted Gd-DTPA was administered via the lateral tail vein after 25s with a bolus length of 2s and flushed with saline.  
-Post-processing: For pCASL, the measured inversion efficiency and a T1map were used for calibration. FAIR perfusion maps were calculated using Bruker Paravision 6, and pCASL evaluation was performed in Matlab². For DSC the cerebral blood flow (CBF) maps were calculated via deconvolution with an arterial input function.
-Regions of interest (ROI) were manually drawn in Freeview5 (see Fig 1a) for each rat and repeat scan and separately for DSC and ASL. DSC-based CBF maps represent relative CBF values in arbitrary units, ASL CBF values are quantitative. 
-Results: 
-Fig. 1b-d show example parameter maps for DSC, pCASL, and FAIR. The pCASL sequence yields lower noise in the derived CBF maps compared with FAIR, and the visual perfusion contrast between the tissues is best in the pCASL-CBF maps. 
-The cumulative distribution (eCDF) of the perfusion values in each ROI is shown in Fig. 2. The eCDF shows the value range and distribution of the different methods and how well the ROI-areas are separated with respect to perfusion. The distributions obtained with pCASL and FAIR are in fair  agreement and show CBF increasing from white matter and hippocampus followed by cortex and thalamus. This ranking is, however, changed in the data obtained from DSC, where the hippocampus shows the lowest perfusion of the 4 ROIs. 
-Figure 3 examines the CBF correlation of pCASL with FAIR and DSC, comparing the median CBF value in each ROI in each animal. In general, CBF was most highly correlated for pCASL and FAIR (Spearman’s r = 0.63 across all animals, compared to r = 0.42 for pCASL vs DSC). 
-Figure 4 compares the relative agreement between pCASL and FAIR and pCASL and DSC using Bland-Altman plots. FAIR and pCASL agree well across the range of values, but white matter shows much less variation than the other tissues, particularly thalamus and cortex. The lower plot comparing DSC-CBF and pCASL again shows the deviating behavior of white matter with higher apparent perfusion in the DSC-based values. 
-Figure 5 analyses the 3 re-scans of each animal using boxplots with outliers. The FAIR plot (c) has a very wide distribution and many outliers to the right (some even cut off). DSC-CBF is scaled differently and therefore difficult to compare directly, but the distributions are narrow compared with the differences between ROIs. 
-Discussion: 
-All three perfusion MRI methods presented provided CBF maps of rat brains, but their comparison did not result in a clear winner. While FAIR shows noisier CBF maps and the distinction between the tissue types is less clear, the method is robust and easy to use. pCASL causes significant SAR heating and requires multiple calibration scans2 to achieve accurate results. This requires practice and a smooth workflow, possibly also indicated by the lower perfusion values in Fig. 5b for the first repetition.  The presented DSC-CBF maps currently do not provide absolute quantitative values, but this may be possible in future studies. The time resolution of 150ms was sufficient to extract arterial input functions for deconvolution. However, in the DSC-CBF maps, the low-perfused white matter showed higher perfusion than hippocampus, although ASL did. Although this may be a known issue with FAIR3, the effect was quite strong in our data and hence requires further, more detailed investigation.
-Summary: 
-The ideal MRI perfusion sequence is dependent on the pre-clinical question. In rats, pCASL and DSC are more suitable for reproducibility of CBF but do not entirely agree, whereas FAIR is noisier but easier to use.  
-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>ISMRM</t>
         </is>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="D4" s="2" t="n">
         <v>44510</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Hung LY1, Karl-Heinz Herrmann</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>Hung LY1, Karl-Heinz Herrmann</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>P6 - Reichenbach</t>
         </is>
@@ -4745,51 +4081,21 @@
           <t>Herrman KH , Hung LY, and Reichenbach JR</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Synopsis
-Some applications require T2-weighted mouse brain MRI with isotropic high resolution (100µm3), but at 9.4T the short T2 of mouse brain limits the echo train length of RARE sequences and exacerbates T2-decay artifacts. Adapting a RARE sequence by using variable ﬂip-angles allows a reduction in scan time from 19min to 7-9min with similar image quality. However, long RARE echo trains and strong imaging gradients can unintentionally cause substantial diﬀusion weighting. To minimize the diﬀusion eﬀects crusher gradients were optimized and the variable ﬂip angles were kept above 40°.
-Introduction
-We aim to achieve artifact-free, isotropic high-resolution images of the mouse brain for neurological applications1. While 9.4T renders T1-based grey-white-matter contrast mostly useless, T2-weighted images achieve excellent anatomical contrast and can be eﬃciently acquired by 2D-RARE sequences. However, 2D acquisitions limit the achievable isotropic resolution due to minimal slice thickness and SAR. Using 3D acquisitions increases the acquisition time (TA), particularly since at 9.4T the short T2 of brain tissue limits echo train length with standard 180° refocusing pulses. The use of refocusing pulses with constant reduced ﬂip angles was shown2 to prolong the echo train to facilitate anatomic mouse brain scans within 20-40min.
-Our aim here was to reduce the acquisition time for T2w-3D-RARE by applying variable ﬂip angles (VFAs) to shape the echoes' signal envelope3,4 while preserving the image quality.
-Material &amp; Methods
-All data were acquired on a Bruker BioSpec 94/20USR with 660mT/m gradients using a helium-cooled 2-channel transceiver quadrature surface coil (CryoProbe, Bruker Biopsin, Ettlingen). All mice were scanned in vivo under Isoﬂurane anesthesia.
-The proposed varFlipRARE sequence uses three initialization RF pulses4 to drive the magnetization into a pseudo-steady-state matching the
-target FA&lt;&lt;90°. Subsequently, three acquisition phases can be adjusted separately, each allowing for a linear transition from one FA to another within a given number of echoes (Figure 3). Typically, the ﬁrst phase comprised the ﬁrst 1/3 of echoes, repeating the target FA or slightly increasing it. In the second phase, the FA increased to ~90° over 1/2 of the total echoes, followed by the last phase, which ramped the FA up to 160-180°. Usually, k0 was acquired at the center of the echo train.
-The general scan parameters for all varFlipRARE acquisitions were TA=7min 15s, TR=2200ms, isotropic resolution 100µm3, ΔTE=2.45ms,
-TF=70, BW=150kHz. The excitation and refocusing pulses were non-selective hard pulses with duration 128µs (exc) and 80µs (rfc) corresponding to 10kHz bandwidth to minimize echo spacing. The phase encoding gradients were 430µs long and the read and slice crusher gradients were played out during the same time frame at 10% (approx. 66mT/m).
-To explore further possibilities of applying VFAs, a faster sequence with RARE factor TF=140 with TA=4min was used, setting the target FA to 30-35°, following similar VFA increase patterns as stated above. The second variation aimed to increase the resolution to 76µm3 with TF=86 and TA=24min, ΔTE=3ms, TR=2700ms, and 2 averages.
-For reference, a RARE acquisition2 with slab-selective 90° excitation and 125° refocusing RF pulses was used with TA=19min, TR=1600ms,
-isotropic resolution 100µm3, ΔTE=5ms, TF=20, BW=150kHz.
-All sequences used full Nyquist sampling of the 18x14x10mm3 FoV and were acquired in coronal orientation, i.e. read out head-feet, phase left-right, and slice ventral-dorsal direction. All shown images were reconstructed with T2-compensation and Gibbs-ringing-ﬁlter for basic artifact reduction2. SNR and CNR values were calculated from the mean signal in ROIs and the standard deviation in artifact-free background areas.
-Results
-Figure 1 presents the reference image (a) and images acquired with the faster varFlipRARE sequence (b-i) for diﬀerent FA schemes. With a low target FA=30° (h, i) a distinctly lower signal for the ventricles(Vs) was observed. For a higher target, FA≈40° (f) or when k0 was shifted to 120ms (FA≈35°, e) the T2- and ventricle-contrast was improved. The contrast could be further enhanced by immediately ramping up to ~50° from the target FA≈40° (c,d) in the ﬁrst phase. To further improve ventricle signal TR was increased to 2700ms (TA=9min, b). The SNR grey matter (GM)=35, white matter(WM)=27, V=51 and CNR CGM-WM=9, CV-GW=15, CV-WM=24 in Fig 1b and c both match the reference image in GM and WM, the ventricle contrast is 15-20% lower. The signal envelope along the echo train is given below each MR image for the 2 channels of the CryoProbe, providing more insights into the actual signal behavior.
-To assess the eﬀect of the crusher gradients in read and slice direction Figure 2 shows an image comparison. In 2b) no crusher was used at all, leading to some ripple artifacts in the frontal olfactory bulb. Increasing the slice-crusher to 10% amplitude doesn't create a visual diﬀerence.
-Increasing the read-crusher to 10% removes the ripple artifacts, but at 20% the frontal bulbous and ventricles lose signal.
-Figure 2e-f shows the resulting images using TF=140. The low ventricle contrast in e) was improved by a faster increase of the target FA (f). The higher resolution scans with 76µm are shown in Figure 2g-h.
-Discussion 
-The use of VFAs together with faster non-selective acquisitions reduced the scan time from 19min to 7-9min achieving similar image contrast and quality as the reference. Reducing the scan time further to TA=4min leads to SNR below 10 due to unintentional diﬀusion weighting as has been described before5. Simulations5 showed that the use of FAs lower than 40° strongly enhances the eﬀective b-value and 99% of the
-b-contribution arises from the readout gradients, leading to water-signal suppression. Increasing the read crushers to remove artifacts will further increase the diﬀusion weighting and has to be carefully chosen.
-Summary 
-In summary, variable ﬂip angles enable faster 3D RARE acquisitions without compromising image quality, and even resolutions of isotropic 76µm3 are feasible in less than 30min with rich anatomic details.
-</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" s="2" t="n">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" s="2" t="n">
         <v>44510</v>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Karl-Heinz Herrman, Hung LY, Jürgen R Reichenbach</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>Karl-Heinz Herrman, Hung LY, Jürgen R Reichenbach</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>P6 - Reichenbach</t>
         </is>
@@ -4808,28 +4114,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Modeling active biological systems, such as the human liver, with a complex interaction between cellular metabolism and perfusion in the functional units, requires a multiscale and multiphase approach to the tissue. Changes in hepatic perfusion and tissue morphol-ogy induced by surgical interventions or liver disease, directly influence the coupled liver function [1]. To better understand the interplay between hepatic perfusion, metabolism and tissue in the hierarchically organized liver structure, we have developed a multicom-ponent, poro-elastic multiphase and multiscale function-perfusion model, cf. [2], using a multicomponent mixture theory based on the Theory of Porous Media (TPM, see [3]). The multiscale approach considers the different functional units of the liver, the so-called liver lobules, with an anisotropic blood flow, and the hepatocytes, where the biochemical metabolic reactions take place. On the lobular scale, we assume a homogenized tetra-phasic mixture body, composed of a porous solid structure representing healthy tissue, a liquid phase describing the blood, and two solid phases with the ability of growth and depletion representing the fat and the tumor tissue. The phases consist of a carrier phase, called solvent, and solutes, representing microscopic components dissolved in the solvent. To describe the metabolic processes in the cells, the describing PDEs on the lobule scale are coupled with ODEs on the cell scale, resulting in a bi-scale PDE-ODE approach. To enable patient-specific simulations and increase the robustness of the model, data-driven approaches will be implemented for computationally critical parts of the model. We use experimental, clinical and in silico data such as stained histological liver sec-tions, perfusion measures or imaging data [4] for parametrization and validation of the multiphase model. The overarching goal is to define and develop an accurate decision-supporting framework for clinical applications.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>The 8th European Congress on Computational Methods in Applied Sciences and Engineering ECCOMAS Congress 2022</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="2" t="n">
         <v>44717</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Lena Lambers, Steffen Gerhäusser, Tim Ricken</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>Lena Lambers, Steffen Gerhäusser, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>P7 - Ricken, Coordination</t>
         </is>
@@ -4848,29 +4149,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>As a central organ for metabolic processes in the human body, the liver has a complex perfusion-function relationship defined by microcirculation through the capillaries coupled to function processes in liver cells. Numerical multiscale simulations can describe this relation and thus support the diagnosis as well as the prediction of hepatic diseases [1]. Surgical interventions and the development of various liver diseases lead to growth and remodeling processes in liver tissue as well as changes of the perfusion, which directly affects the coupled liver function [2]. To better understand the interplay between hepatic perfusion, metabolism and tissue in the hierarchically organized liver structure, we have developed a multicomponent, poro-elastic multiphasic and multiscale function-perfusion model, cf. [3], using a mul-ticomponent mixture theory based on the Theory of Porous Media (TPM, see [4]). The multiscale ap-proach considers the different functional units of the liver, the so-called liver lobules, with an anisotropic blood flow, and the hepatocytes, where the biochemical metabolic reactions take place. On the lobular scale, we assume a homogenized tetra-phasic mixture body, composed of a porous solid structure rep-resenting healthy tissue, a liquid phase describing the blood, and two solid phases with the ability of growth and depletion representing the fat tissue and the tumor tissue. The phases consist of a carrier phase, called solvent, and solutes, representing microscopic components, e.g. nutrients, dissolved in the solvent. To describe the metabolic processes as well as the production, utilization and storage of the metabolites in the cells, the describing PDEs on the lobule scale are coupled with ODEs on the cell scale resulting in a bi-scale PDE-ODE approach. To increase the robustness of the model and allow for near real-time patient-specific simulations, com-putationally critical parts of the model are enhanced by data-driven methods through the integration of experimental, clinical and in silico data, such as the zonated quantification of steatosis or the realistic geometry of the liver lobules by image segmentation from stained histological liver sections. The over-arching goal is the definition and development of an accurate decision-supporting framework for clinical applications.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>15th World Congress on Computational Mechanics (WCCM-XV)
 8th Asian Pacific Congress on Computational Mechanics (APCOM-VIII)</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="2" t="n">
         <v>44773</v>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Lena Lambers, Steffen Gerhäusser, Tim Ricken</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>Lena Lambers, Steffen Gerhäusser, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>P7 - Ricken, Coordination</t>
         </is>
@@ -4889,30 +4185,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>tbd</t>
+          <t>Jahrestagung der mitteldeutschen Viszeralmedizin</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jahrestagung der mitteldeutschen Viszeralmedizin</t>
+          <t>6/10/0022</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6/10/0022</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Hans-Michael Tautenhahn</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>Hans-Michael Tautenhahn</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>P9 - Tautenhahn</t>
         </is>
@@ -4931,28 +4222,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>n.a.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>BioMechBW Symposium, 19.07.2022, Tübingen</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="D9" s="2" t="n">
         <v>44761</v>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>P7 - Ricken, Coordination</t>
         </is>
@@ -4972,28 +4258,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>see pdf</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>92nd Annual Meeting of the International Association of Applied Mathematics and Mechanics (GAMM)</t>
         </is>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="D10" s="2" t="n">
         <v>44789</v>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Lena Lambers, Steffen Gerhäusser, Tim Ricken</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
-        <is>
-          <t>Lena Lambers, Steffen Gerhäusser, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
         <is>
           <t>P7 - Ricken</t>
         </is>
@@ -5012,28 +4293,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>see pdf</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>GACM Congress, Essen</t>
         </is>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="D11" s="2" t="n">
         <v>44826</v>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Lena Lambers, Steffen Gerhäusser, Tim Ricken</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>Lena Lambers, Steffen Gerhäusser, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t>P7 - Ricken</t>
         </is>
@@ -5052,31 +4328,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Physiologically-based pharmacokinetic models (PBPK) are digital twins of human physiology which allow the study of individual drug metabolism in silico. PBPK models can simulate the absorption, distribution, metabolization and elimination of substances and when coupled to pharmacodynamics models also the effect of the substance on the body.
-Here we present our work on PBPK models for metabolic phenotyping and evaluation of liver function [1-5]. For the development and validation we established the first open pharmacokinetics database PB-PK with data from over 600 curated clinical studies [1]. The database allows to integrate data for given test substances and study the effect of lifestyle factors or co-administration such as smoking or oral contraceptives [2]. Based on the curated data individualized and stratified computational models have been established and applied to various clinical questions [3-5]. A model of indocyanine green allowed to simulate individual outcome after hepatectomy by building patient-specific models using data such as anthropometric information (e.g. sex, weight, age) and pre-existing liver disease [3]. Combining the data with information on study cohorts allowed to simulate virtual populations [4]. Using a model of dextromethorphan coupled to drug-gene interactions accounting for changes in CYP2D6 enzyme kinetics depending on activity score (AS), allowed in combination with AS for individual polymorphisms to study the effect of CYP2D6 gene variants [5]. The model was applied to investigate the genotype-phenotype association and the role of CYP2D6 polymorphisms for metabolic phenotyping using the urinary cumulative metabolic ratio (UCMR). The model is capable of estimating the UCMR dispersion within and across populations depending on activity scores. The model can be applied for individual prediction of UCMR and metabolic phenotype based on CYP2D6 genotype. A model of omeprazole allowed to study the effect of omeprazole therapy on stomach pH, a model of simvastatin to study the LDL-C lowering effect of statins, and a model of pravastatin the effect of genetic variants and hepato-renal impairment on pravastatin pharmacokinetics. All models and data are available for reuse with models encoded in SBML.
-We end the talk with an outlook on how such PBPK models can be applied to predict liver function in liver cancer and how coupling of such models to AI could help in clinical decision support.
-[1] https://doi.org/10.1093/nar/gkaa990 [2] https://doi.org/10.3389/fphar.2021.752826 [3] https://doi.org/10.3389/fphys.2021.730418 [4] https://doi.org/10.3389/fphys.2021.757293 [5] https://doi.org/10.1101/2022.08.23.504981</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>ICSB2022, The 21st International Conference on Systems Biology</t>
         </is>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="D12" s="2" t="n">
         <v>44831</v>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König, Jan Grzegorzewski</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
-        <is>
-          <t>Matthias König, Jan Grzegorzewski</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
         <is>
           <t>P3 - König</t>
         </is>
@@ -5095,28 +4363,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The liver is the central organ of metabolic homeostasis in the whole body and and is the first line for the detoxification of drugs and toxins. Due to our diet and lifestyle choices, liver diseases such as non-alcoholic fatty liver disease (NAFLD) or liver cancer are among the most common diseases in industrial countries. In the context of clinical treatment, digital models offer an enormous potential to assess the risk of surgical intervention in liver resections [1]. Here we present a multiscale mathematical model based on the coupling of the tissue and the cellular scale. Within a continuum biomechanical approach the hepatic lobule can be modeled as a multiphasic, porous solid body saturated with blood using a multicomponent mixture theory based on the Theory of Porous Media (TPM, see [2]). The deformation, blood flow and transport processes within the lobule are modeled using a system of coupled partial differential equations (PDE). Microscopic components like nutrients or xenobiotics are represented as solutes solved in the carrier phase (blood), which are transported through the lobule domain by advection and diffusion. On the cell scale underneath, metabolic processes take place in the form of chemical reaction networks influencing the local concentration of the solutes. Those processes are modelled using a system of coupled ordinary differential equations (ODE). In the context of a systems biology approach, the elimination rate of the contaminant within the cell is depends on many factors, such as the zonation of CYP2E1 or the necrosis state of the cell. In our PDE-ODE approach the cell model is embedded in every integration point of the finite element providing source/sink terms for the balance equations of the macro model. Using a one-way coupling scheme, the macro model provides the solute concentration and the volume fractions for the cell model. A peculiarity of the coupling is the integration of domain specific solvers, combining a software tool for finite element analysis with a software library for high-performance simulation of Systems Biology Markup Language (SBML) based models. The described model is used to simulate paracetamol degradation as a showcase for the liver function. In addition, the coupling of the multiscale lobule model to an ODE-based physiological-based pharmacokinetics models on the whole body scale is also addressed. The developed model can pave the way to simulate patient-specific data and ultimately drive the development of an accurate decision-supporting framework for everyday clinical use.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>GAMM Annual Meeting 2022 ,https://jahrestagung.gamm-ev.de/</t>
         </is>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="D13" s="2" t="n">
         <v>44791</v>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Steffen Gerhäusser, Tim Ricken, Lena Lambers, Matthias König</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
-        <is>
-          <t>Steffen Gerhäusser, Tim Ricken, Lena Lambers, Matthias König</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
         <is>
           <t>P7 - Ricken</t>
         </is>
@@ -5135,30 +4398,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>n.a.</t>
+          <t>Combine Meeting, Satellite Event to the ICSB Conference, October 6-7, 2022, Berlin</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Combine Meeting, Satellite Event to the ICSB Conference, October 6-7, 2022, Berlin</t>
+          <t>10/6/0022</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10/6/0022</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -5177,30 +4435,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>n.a.</t>
+          <t>3rd EnzymeML Workshop, October 18-19, 2022, Rüdesheim</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3rd EnzymeML Workshop, October 18-19, 2022, Rüdesheim</t>
+          <t>10/18/0022</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10/18/0022</t>
+          <t>No</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
-        <is>
-          <t>Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -5220,28 +4473,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>one page abstract</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>BioSB 2023, https://www.aanmelder.nl/biosb2023, Egmond aan Zee</t>
         </is>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="D16" s="2" t="n">
         <v>45055</v>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
-        <is>
-          <t>Sebastian Höpfl, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -5260,41 +4508,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Systems Biology is at the forefront of developing and using modeling standards to improve the reproducibility and reuse of models. Still, a recent study by Tiwari et al. showed that only every second model out of a set of 455 models could be directly reproduced (Tiwari et al. 2021). This limited reproducibility shows the need for further efforts or mechanisms that promote reproducibility. Reproducibility of scientific results fosters collaborations and leads ultimately to faster progress in the whole field and increased trust in science. Since these merits are mainly long-term and not immediate for the publishing researcher, it seems crucial that third parties like publishing companies or funding organizations foster reproducibility. For example, the largest German research funding organization (German Research Foundation, DFG) signed 2003 the "Berlin Declaration on Open Access to Knowledge in the Sciences and Humanities" and has since been engaged in promoting open source and reusable data and publications.
-Here, we applied Bayesian Estimation to analyze the citation count of reproducible against non-reproducible models of the periods 1985-2020 and 2013-2020. The Bayesian Estimation Supersedes the t-Test method of J. Kruschke uses the Non-Central T-distribution to handle outliers in the data and estimates the distribution parameters via Markow-Chain-Monte-Carlo sampling (Kruschke 2013). The parameters are mean and sigma parameters for each dataset and a shape parameter that is jointly sampled for both datasets. Posterior predictive distributions for the difference of means and standard deviations and the effect size can be calculated from the posterior distributions of the parameters. From these, decisions are made via the 95% Highest Density Interval (HDI) of the difference of means posterior predictive distribution. Specifically, a decision can be made if the 95% values with the highest credibility (95% HDI) indicate a difference above or below zero.
-From 1985 to 2020, there was no credible difference between reproducible and non-reproducible models. However, reproducible models got more citations, starting in 2013, ten years after the introduction of Systems Biology Markup Language (SBML) (Höpfl et al. 2023). There seems to be a tilting point between 2010 and 2013, from a tendency of more citations for reproducible papers to more than 95% credibility for higher citation rates for reproducible papers. 2013 seems to be a reasonable time when the efforts of the Systems Biology community towards reproducibility pay off, i.e. it needed about ten years from the introduction of the de facto model standards SBML and CellML until the difference in citations became significant.
-On the one hand, this shows an immediate benefit for the individual researcher. On the other hand, this only pays off over the years and is, for example, for Ph.D. researchers who want to go into industry after their doctorate not relevant. However, journals could benefit directly and in the long run from an increased citation rate. At the same time, stricter reproducibility guidelines of journals would promote reproducibility and could thus strengthen trust in science. Our analysis shows that the higher citation numbers of reproducible models cannot be explained by the fact that they were published in journals with a higher Journal Impact Factor (JIF). For this purpose, the citation counts were normalized to the respective JIF, and
-the normalized groups were compared. It was found that reproducibility leads to an increase
-in the number of citations independent of the respective JIF. The data indicate that, on
-average, journals in the field of Systems Biology could potentially increase their impact factor
-by about 30% by only forcing reproducibility.
-Reproducibility can be substantially improved with little effort. The authors of Tiwari et al.
-have assembled eight points to improve model reproducibility in a scorecard, whereby
-reproducibility is already significantly increased if only four of them are fulfilled. It is our
-appeal that everyone can do something for better scientific work through reproducible work.
-On the one hand, the individual researchers. On the other hand, the journals and funding
-organizations. In the end, the joint effort could pay off for the entire scientific community.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>Workshop on Computational Models in Biology and Medicine 2023, http://www.biometrische-gesellschaft.de/arbeitsgruppen/statistische-methoden-i-d-bioinformatik/workshop2023.html</t>
         </is>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="D17" s="2" t="n">
         <v>45092</v>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>Sebastian Höpfl, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -5313,31 +4543,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Finding outliers in experimental data is important because they can mask differences between different experimental conditions. Often this is done by applying a rigid Z-score, independently for each sample time. The Z-score (𝑍=𝑥𝑖−𝑥𝑠) calculates for each data point 𝑥𝑖 the distance between the data point and the population mean 𝑥 and normalizes this distance to the standard deviation of the dataset 𝑠. A data point with a Z-score of two is often considered an outlier, as this is outside the 95.45% highest density interval of a normal distribution. The disadvantages of this method are a rigid decision threshold and that a possible inherent dynamic of time series data cannot be included. Here, we applied a Findable, Accessible, Interoperable and Reusable (FAIR) Bayesian uncertainty quantification to include the inherent dynamics of the system and thus use the complete time course information. Bayesian uncertainty quantification allows making probability statements about outlier classification and differences in the dynamics across various experimental conditions.
-Here, we use experimental data derived from a pharmacokinetic experiment in steatotic mice (Albadry et al. 2022). Animals received a drug cocktail consisting of Caffeine, Codeine and Midazolam. Drug levels were determined throughout 6h. Since the data were obtained from living animals, they are naturally subject to considerable uncertainties and are therefore well suited for the analysis. Here, the Bayesian analysis takes the differences in the dynamics between poor and rapid metabolizers into account. The pharmacokinetics of these drugs can be described by a peaked concentration upon injection, followed by an exponential decay. This knowledge was used to set up an ordinary differential equation 𝑥̇=(1−𝐴⋅𝑡)⋅𝑒𝐵−𝐴⋅𝑡, which was implemented in the SBML format. PEtab, a standard format for the integration of biological data into models was used to make state-of-the-art sampling algorithms applicable.
-Bayesian uncertainty quantification classifies outliers according to the 95% credibility interval of the posterior predictive distribution. Experimental data points outside of this interval were considered outliers. Furthermore, the consideration of the 95% credibility intervals for the different fat diets (experimental conditions) allowed us to credibly detect differences in the metabolization dynamics of the drugs. This revealed in our dataset, that the severity and pattern of periportal steatosis were associated with changes in the pharmacokinetics of Caffeine, but not of Codeine.
-In summary, we applied FAIR modeling tools for experimental data analysis in systems medicine. This gives access to efficient, state-of-the-art algorithms that are developed and maintained by the active modeling community. Furthermore, the use of standard formats ensures a reproducible and reusable data analysis. Therefore, data, code and the SBML and PEtab files were uploaded to Fairdomhub.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>International Conference on Systems Biology of Human Disease, https://www.sbhdberlin.org/index.html</t>
         </is>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="D18" s="2" t="n">
         <v>45096</v>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sebastian Höpfl, Mohamed Albadry, Uta Dahmen, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>Sebastian Höpfl, Mohamed Albadry, Uta Dahmen, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -5356,29 +4578,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The Systems Biology community was among the first scientific communities to recognize the need for reproducible models. Still, many published models are not reproducible. Tiwari et al. currently classified 328 published models by their reproducibility. They found out that only every second model was directly reproducible. We use this classification to analyze if reproducible models in Systems Biology have a higher impact in terms of citation numbers. For the analysis, we use Bayesian Estimation, which provides complete distributional information for group means and standard deviations. Outliers are handled via a non-central t-distribution. Beginning about ten years after the introduction of SBML (2013), reproducibility gained broad awareness in the Systems Biology community. Since then, reproducible models have gotten significantly more citations than non-reproducible ones. Our analysis shows 95% credibility for higher citation rates of reproducible models for 2013-2020, and all investigated sub-periods after 2013 to 2020.
-Further, normalization to the journal impact factor showed that journals of all ranks could profit by forcing reproducibility. In conclusion, reproducible models offer long-term benefits for journals and individual researchers in terms of more citations. The higher citation count provides evidence for increased reuse of these models and could promote progress in Systems Biology.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>31st Conference on Intelligent Systems for Molecular Biology (ISMB), https://www.iscb.org/ismbeccb2023</t>
         </is>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="D19" s="2" t="n">
         <v>45130</v>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
-        <is>
-          <t>Sebastian Höpfl, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -5397,28 +4613,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>two page abstract</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>International Conference on Data-Integrated Simulation Science (SimTech2023), https://www.simtech2023.uni-stuttgart.de/</t>
         </is>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="D20" s="2" t="n">
         <v>45203</v>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
-        <is>
-          <t>Sebastian Höpfl, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -5437,28 +4648,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>na</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>SIAM CSE, Amsterdam, 26.02.2023 - 03.03.2023</t>
         </is>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="D21" s="2" t="n">
         <v>44988</v>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
-        <is>
-          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
         <is>
           <t>P7 - Ricken, Coordination</t>
         </is>
@@ -5478,28 +4684,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>na</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>GAMM Fachausschuss Computational Biomechanics, 13.-14.02.2023 in Saarbrücken</t>
         </is>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="D22" s="2" t="n">
         <v>44970</v>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
-        <is>
-          <t>Lena Lambers, Tim Ricken, Steffen Gerhäusser, Luis Mandl</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
         <is>
           <t>P7 - Ricken, Coordination</t>
         </is>
@@ -5518,38 +4719,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Physiologically-based pharmacokinetic (PBPK) models are powerful tools for studying drug metabolism and its effect on the human body. Here, we present our work on applying PBPK models as digital twins for metabolic phenotyping and liver function evaluation [1-6]. To develop and validate our models, we established the first open pharmacokinetics database, PK-DB, which contains curated data from over 600 clinical studies. Our models can be individualized and stratified, allowing us to simulate the effect of lifestyle factors and co-administration on drug metabolism.
-We have applied our models to various clinical questions, such as simulating individual outcomes after hepatectomy using an indocyanine green model and studying the effect of CYP2D6 gene variants using a model of dextromethorphan coupled with drug-gene interactions. These models are constructed hierarchically, describing metabolism and other biological processes of organs such as liver and kidney coupled to whole-body physiology. All models and data are available for reuse in a reproducible manner encoded in the Systems Biology Markup Language (SBML).
-Here we will give an overview of PBPK models and how SBML can facilitate model development, coupling and reuse.
-- PK-DB: pharmacokinetics database for individualized and stratified computational modeling. Grzegorzewski J, Brandhorst J, Green K, Eleftheriadou D, Duport Y, Barthorscht F, Köller A, Ke DYJ, De Angelis S, König M. Nucleic Acids Res. 2021 Jan 8;49(D1):D1358-D1364. doi:10.1093/nar/gkaa990. pmid:33151297
-- Pharmacokinetics of caffeine: A systematic analysis of reported data for application in metabolic phenotyping and liver function testing. Jan Grzegorzewski, Florian Bartsch, Adrian Köller, and Matthias König. Frontiers in Pharmacology 2022, Vol12. doi:10.3389/fphar.2021.752826. pmid:35280254
-- Prediction of survival after hepatectomy using a physiologically based pharmacokinetic model of indocyanine green liver function tests. Adrian Köller, Jan Grzegorzewski, Michael Tautenhahn, Matthias König. Front. Physiol., 22 November 2021. doi:10.3389/fphys.2021.730418. pmid:34880771
-- Physiologically based modeling of the effect of physiological and anthropometric variability on indocyanine green based liver function tests. Adrian Köller, Jan Grzegorzewski and Matthias König. Front Physiol. 2021 Nov 22;12:757293. doi:10.3389/fphys.2021.757293. pmid:34880776
-- Physiologically based pharmacokinetic (PBPK) modeling of the role of CYP2D6 polymorphism for metabolic phenotyping with dextromethorphan. Grzegorzewski, J., Brandhorst, J., König, M. Front Pharmacol. 2022 Oct 24;13:1029073. doi:10.3389/fphar.2022.1029073. pmid:36353484
-- A physiologically based pharmacokinetic model for CYP2E1 phenotyping via chlorzoxazone. J. Küttner, J. Grzegorzewski, HM. Tautenhahn, M. König. bioRxiv 2023.04.12.536571 (preprint). doi:10.1101/2023.04.12.536571</t>
+          <t>MBM2023 - Workshop on Modelling in Biology and Medicine - https://mbm.systemsbiology.se</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MBM2023 - Workshop on Modelling in Biology and Medicine - https://mbm.systemsbiology.se</t>
+          <t>5/17/2023</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5/17/2023</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
-        <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
         <is>
           <t>P3 - König</t>
         </is>
@@ -5568,30 +4756,25 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Reproducibility is one of the critical requirements for sound scientific research. Only reproducible work can be validated or falsified. Further, reproducibility is necessary for reuse and therefore promotes scientific progress. The Systems Biology community is at the forefront of developing and using standards for improved reusability, especially in modeling. Starting in the early 2000s with the introduction of the Systems Biology Markup Language (SBML) and CellML, the movement emerged in 2016 in the Findability, Accessibility, Interoperability, and Reusability (FAIR) data principles (Wilkinson et al. 2016). These FAIR data principles have, in the meantime, also been adapted to mathematical models and modeling software. Here, we investigated whether reproducible models get more citations than non-reproducible ones (Höpfl et al. 2023). In particular, around 2013, when reproducibility received widespread attention in the Systems Biology community, we investigated if there was a measurable change (Figure 1 A.).</t>
+          <t>ISMB/ECCB 2023 Conference on Intelligent Systems for Molecular Biology (ISMB) and European Conference on Computational Biology (ECCB)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ISMB/ECCB 2023 Conference on Intelligent Systems for Molecular Biology (ISMB) and European Conference on Computational Biology (ECCB)</t>
+          <t>7/24/2023</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7/24/2023</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
-        <is>
-          <t>Sebastian Höpfl, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -5610,35 +4793,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Liver transplantation is the only curative treatment option for acute and chronic end-stage
-liver disease. Demographic change and western lifestyle result in an increasing number of elderly multi-morbid potential recipients and donors. Liver grafts from such donors, so-called marginal liver grafts, are often affected by hepatic steatosis compromising the quality of the donor organ substantially. One reason for this is the alteration of the tissue structure, resulting in an impaired perfusion, which in turn affects hepatic metabolism and organ function. In the case of a marginal graft, the surgeon is faced with the clinical decision to either accept or reject the organ, significantly increasing the postoperative risk for the recipient or increasing the risk of death on the waiting list, respectively. Two major challenges for marginal grafts are the storage between procurement of the organ and transplantation (cold ischemia time) and damage after reperfusion, the so-called ischemia reperfusion injury (IRI). 
-For this purpose, we describe the functional liver units, the liver lobules, as a homogenized
-porous medium and model this with the theory of porous media (TPM, cf. [1]). Considering an anisotropic blood flow and by coupling the metabolic processes at the cellular level, a poroelastic multiphase and multiscale function-perfusion model is thereby obtained (cf. [2]).
-This approach combines partial differential equations (PDE) on the lobular scale with ordinary differential equations (ODE) on the cellular scale resulting in a PDE-ODE coupling. At the lobular scale, we consider healthy liver tissue, necrotic tissue, and fat as solid phases, while blood is represented as a fluid phase. In addition, all phases may also contain solutes that are involved in cellular processes such as metabolism. Based on this, the energy balance and cell death or functionality of each cell can be modeled on the cellular scale using systems biology models. Thus, the ischemic damage under nutrient depletion can be described, which in turn affects the perfusion at the lobular scale. Animal and human data will be used to parameterize and validate the model. In addition, a proof-of-concept study for clinical applicability will be performed. Such a model, which takes into account the interplay between the mechanical properties of the graft, the hepatic perfusion, and the affected metabolism, could facilitate clinical decision making and is urgently needed cf. 3.
-[1] Ehlers,W. Foundations of multiphasic and porous materials(2002)
-[2] Ricken,T., et al. BMMB(2015) 14:515-536
-[3] Christ,B.,[...],Lambers,L.,[...]Ricken,T.,et al. Frontiers in Physiology(2021)12</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
           <t>93. Jahrestagung der Gesellschaft für angewandte Mathematik und Mechanik; https://jahrestagung.gamm-ev.de/</t>
         </is>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="D25" s="2" t="n">
         <v>44963</v>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Luis Mandl, Steffen Gerhäusser, Lena Lambers, Matthias König, Hans-Michael Tautenhahn, Uta Dahmen, Tim Ricken</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
-        <is>
-          <t>Luis Mandl, Steffen Gerhäusser, Lena Lambers, Matthias König, Hans-Michael Tautenhahn, Uta Dahmen, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn</t>
         </is>
@@ -5657,30 +4828,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>93. Jahrestagung der Gesellschaft für angewandte Mathematik und Mechanik (GAMM), Dresden</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93. Jahrestagung der Gesellschaft für angewandte Mathematik und Mechanik (GAMM), Dresden</t>
+          <t>5/30/2023</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5/30/2023</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Lena Lambers, Steffen Gerhäusser, Luis Mandl, Tim Ricken</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
-        <is>
-          <t>Lena Lambers, Steffen Gerhäusser, Luis Mandl, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
         <is>
           <t>P7 - Ricken, SimLivA, ATLAS</t>
         </is>
@@ -5699,34 +4865,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Essential prerequisites for the practical application and translation of computational models include: i) reproducibility of results; ii) reusability and extensibility of models; iii) data availability; and iv) strategies for model stratification and individualization. In this study, we present a modeling workflow tailored to these critical aspects, with a focus on liver function tests.
-Evaluating liver function is a crucial task in hepatology, yet accurately quantifying hepatic function has persisted as a clinical challenge. Dynamic liver function tests offer a promising method for non-invasive in vivo assessment of liver function and metabolic phenotyping. These clinical tests determine liver function through the elimination of a specific test substance, thus revealing information about the liver's metabolic capacity.
-We employed whole-body physiologically-based pharmacokinetic (PBPK) models to simulate these tests, which encompass absorption, distribution, metabolism, and elimination processes. PBPK models serve as powerful instruments for investigating drug metabolism and its impact on the human body. In this research, we showcase our efforts in utilizing PBPK models as digital twins for metabolic phenotyping and liver function evaluation [1-6]. To develop and validate our models, we created the first open pharmacokinetics database, PK-DB, containing curated data from over 600 clinical studies. Our models are individualizable and stratifiable, enabling simulation of lifestyle factors and co-administration effects on drug metabolism.
-We have applied our models to various clinical inquiries, such as simulating individual outcomes post-hepatectomy using an indocyanine green model and examining the influence of CYP2D6 gene variants through a dextromethorphan model integrated with drug-gene interactions. These models are constructed hierarchically, describing metabolic and other biological processes in organs like the liver and kidneys, connected to whole-body physiology. All models and data are accessible for reuse in a reproducible manner, encoded in the Systems Biology Markup Language (SBML).
-In this study, we provide an overview of PBPK models and demonstrate how SBML [7-8], COMBINE standards [9], and FAIR principles [10] can facilitate model development, coupling, and reuse.</t>
+          <t>Workshop on Computational Models in Biology and Medicine 2023</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Workshop on Computational Models in Biology and Medicine 2023</t>
+          <t>6/16/2023</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6/16/2023</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
-        <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
         <is>
           <t>P3 - König, SimLivA, ATLAS</t>
         </is>
@@ -5747,32 +4904,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Liver transplantation is the only curative treatment option for acute and chronic end-stage
-liver disease. Demographic change and western lifestyle result in an increasing number of elderly multi-morbid potential recipients and donors. Liver grafts from such donors, so-called marginal liver grafts, are often affected by hepatic steatosis compromising the quality of the donor organ substantially. One reason for this is the alteration of the tissue structure, resulting in an impaired perfusion, which in turn affects hepatic metabolism and organ function. In the case of a marginal graft, the surgeon is faced with the clinical decision to either accept or reject the organ, significantly increasing the postoperative risk for the recipient or increasing the risk of death on the waiting list, respectively. Two major challenges for marginal grafts are the storage between procurement of the organ and transplantation (cold ischemia time) and damage after reperfusion, the so-called ischemia reperfusion injury (IRI). For this purpose, we describe the functional liver units, the liver lobules, as a homogenized porous medium and model this with the theory of porous media (TPM, cf. [1]). Considering an anisotropic blood flow and by coupling the metabolic processes at the cellular level, a poroelastic multiphase and multiscale function-perfusion model is thereby obtained (cf. [2]). This approach combines partial differential equations (PDE) on the lobular scale with ordinary differential equations (ODE) on the cellular scale resulting in a PDE-ODE coupling. At the lobular scale, we consider healthy liver tissue, necrotic tissue, and fat as solid phases, while blood is represented as a fluid phase. In addition, all phases may also contain solutes that are involved in cellular processes such as metabolism. Based on this, the energy balance and cell death or functionality of each cell can be modeled on the cellular scale using systems biology models. Thus, the ischemic damage under nutrient depletion can be described, which in turn affects the perfusion at the lobular scale. Animal and human data will be used to parameterize and validate the model. In addition, a proof-of-concept study for clinical applicability will be performed. Such a model, which takes into account the interplay between the mechanical properties of the graft, the hepatic perfusion, and the affected metabolism, could facilitate clinical decision making and is urgently needed cf. 3.
-[1] Ehlers,W. Foundations of multiphasic and porous materials(2002)
-[2] Ricken,T., et al. BMMB(2015) 14:515-536
-[3] Christ,B.,[...],Lambers,L.,[...]Ricken,T.,et al. Frontiers in Physiology(2021)12</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
           <t>93rd Annual Meeting of the International Association of Applied Mathematics and Mechanics, https://jahrestagung.gamm.org/annual-meeting-2023</t>
         </is>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="D28" s="2" t="n">
         <v>44963</v>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Luis Mandl, Steffen Gerhäusser, Lena Lambers, Matthias König, Hans-Michael Tautenhahn, Uta Dahmen, Tim Ricken</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
-        <is>
-          <t>Luis Mandl, Steffen Gerhäusser, Lena Lambers, Matthias König, Hans-Michael Tautenhahn, Uta Dahmen, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
         <is>
           <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn, SimLivA</t>
         </is>
@@ -5791,28 +4939,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
           <t>SPP2311 - Annual Workshop Magdeburg</t>
         </is>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="D29" s="2" t="n">
         <v>45269</v>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Luis Mandl, Laura Bütow, Matthias König, Uta Dahmen, Hans-Michael Tautenhahn, Tim Ricken</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
-        <is>
-          <t>Luis Mandl, Laura Bütow, Matthias König, Uta Dahmen, Hans-Michael Tautenhahn, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
         <is>
           <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn, SimLivA</t>
         </is>
@@ -5831,37 +4974,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liver transplantation is the only curative treatment option for acute and chronic end-stage liver disease. As a result of demographic change and a more western way of life, the number of elderly multi-morbid prospective recipients and donors grows. Liver grafts from such donors, so-called marginal liver grafts, are often affected by hepatic steatosis compromising the quality of the donor organ. One reason for this is the alteration of the tissue structure, resulting in an impaired perfusion, in turn affecting hepatic metabolism and organ function. In case of a marginal graft, the surgeon is faced with the clinical decision to accept or reject the organ, increasing either the recipient’s postoperative risk or the risk of death on the waiting list significantly. Two major challenges for marginal grafts are the storage between procurement of the organ and transplantation (cold ischemia time) alongside damage after reperfusion, the so-called ischemia reperfusion injury (IRI).
-For this purpose, we use computational multiphase and multiscale continuum-biomechanical modeling of biological tissue to simulate the hepatic deformation-perfusion-function relationship (cf. [1, 2]). Based on the theory of porous media (TPM, cf. [3]), we describe the functional liver units, the liver lobules, as a homogenized porous medium. A poroelastic multiphase and multiscale function-perfusion model is obtained by considering the porous liver tissue saturated with an anisotropic blood flow and coupling the metabolic processes at the cellular level within a bi-scale approach (cf. [4]). This approach combines partial differential equations (PDE) on the lobular scale with ordinary differential equations (ODE) on the cellular scale resulting in a PDE-ODE coupling. At the lobular scale, we consider healthy liver, necrotic, and fat tissue as solid phases, while blood is given as a fluid phase. Based on this, systems biology models can be used to model the energy balance, cell death, and functionality of each hepatocyte at the cellular level. Thus, it is possible to describe the ischemic damage caused by nutrient depletion, in turn influencing the perfusion at the lobular scale.
-To make patient-specific predictions, we enhance the model through the integration of experimental and clinical data for validation and parameterization. This involves using machine-learning-based image analysis to read the geometry of liver lobules and zonation patterns of steatosis from histopathological images, in addition to laboratory data to provide initial and boundary values for solutes and the ODE models as well as information on the transplantation process, e.g., cold ischemia time. The simulation yields spatial evolutions of the considered phases and solutes within the liver lobules over time based on the given data. Such an in-silico model, which connects structure, perfusion, and function of the liver via the interaction between mechanical properties of the graft, hepatic perfusion, and the affected metabolism could facilitate clinical decision-making cf. [2].
-[1] B. Christ et al. Frontiers in Physiology 8:00906 (2017)
-[2] B. Christ et al. Frontiers in Physiology 12:733868 (2021)
-[3] W. Ehlers. „Foundations of multiphasic and porous materials” in Porous Media: Theory, Experiments and Numerical Applications (2002).
-[4] T. Ricken et al. BMMB 14:515-536 (2015)
-</t>
+          <t>X International Conference on Computational Bioengineering, Wien, 20.-22.09.2023, https://iccb2023.conf.tuwien.ac.at/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>X International Conference on Computational Bioengineering, Wien, 20.-22.09.2023, https://iccb2023.conf.tuwien.ac.at/</t>
+          <t>9/22/2023</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>9/22/2023</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Luis Mandl, Steffen Gerhäusser, Lena Lambers, Matthias König, Hans-Michael Tautenhahn, Uta Dahmen, Tim Ricken</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
-        <is>
-          <t>Luis Mandl, Steffen Gerhäusser, Lena Lambers, Matthias König, Hans-Michael Tautenhahn, Uta Dahmen, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
         <is>
           <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn, SimLivA</t>
         </is>
@@ -5880,36 +5011,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Physiologically-based pharmacokinetic (PBPK) models are powerful tools for studying drug metabolism and its effect on the human body. Here, we present our work on applying PBPK models as digital twins for metabolic phenotyping and liver function evaluation [1-6]. To develop and validate our models, we established the first open pharmacokinetics database, PK-DB, which contains curated data from over 600 clinical studies. Our models can be individualized and stratified, allowing us to simulate the effect of lifestyle factors and co-administration on drug metabolism.
-We have applied our models to various clinical questions, such as simulating individual outcomes after hepatectomy using an indocyanine green model and studying the effect of CYP2D6 gene variants using a model of dextromethorphan coupled with drug-gene interactions. These models are constructed hierarchically, describing metabolism and other biological processes of organs such as liver and kidney coupled to whole-body physiology. All models and data are available for reuse in a reproducible manner encoded in the Systems Biology Markup Language (SBML).
-Here we will give an overview of our PBPK models and how SBML can facilitate model development, coupling and reuse.
-PK-DB: pharmacokinetics database for individualized and stratified computational modeling. Grzegorzewski J, Brandhorst J, Green K, Eleftheriadou D, Duport Y, Barthorscht F, Köller A, Ke DYJ, De Angelis S, König M. Nucleic Acids Res. 2021 Jan 8;49(D1):D1358-D1364. doi:10.1093/nar/gkaa990. pmid:33151297
-Pharmacokinetics of caffeine: A systematic analysis of reported data for application in metabolic phenotyping and liver function testing. Jan Grzegorzewski, Florian Bartsch, Adrian Köller, and Matthias König. Frontiers in Pharmacology 2022, Vol12. doi:10.3389/fphar.2021.752826. pmid:35280254
-Prediction of survival after hepatectomy using a physiologically based pharmacokinetic model of indocyanine green liver function tests. Adrian Köller, Jan Grzegorzewski, Michael Tautenhahn, Matthias König. Front. Physiol., 22 November 2021. doi:10.3389/fphys.2021.730418. pmid:34880771
-Physiologically based modeling of the effect of physiological and anthropometric variability on indocyanine green based liver function tests. Adrian Köller, Jan Grzegorzewski and Matthias König. Front Physiol. 2021 Nov 22;12:757293. doi:10.3389/fphys.2021.757293. pmid:34880776
-Physiologically based pharmacokinetic (PBPK) modeling of the role of CYP2D6 polymorphism for metabolic phenotyping with dextromethorphan. Grzegorzewski, J., Brandhorst, J., König, M. Front Pharmacol. 2022 Oct 24;13:1029073. doi:10.3389/fphar.2022.1029073. pmid:36353484
-A physiologically based pharmacokinetic model for CYP2E1 phenotyping via chlorzoxazone. J. Küttner, J. Grzegorzewski, HM. Tautenhahn, M. König. bioRxiv 2023.04.12.536571 (preprint). doi:10.1101/2023.04.12.536571</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
           <t>AstraZeneca Seminar</t>
         </is>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="D31" s="2" t="n">
         <v>44935</v>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
-        <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
         <is>
           <t>P3 - König, SimLivA, ATLAS</t>
         </is>
@@ -5928,39 +5046,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Physiologically-based pharmacokinetic (PBPK) models are powerful tools for studying drug metabolism and its effect on the human body. Here, we present our work on PBPK models for metabolic phenotyping and liver function evaluation [1-5]. To develop and validate our models, we established the first open pharmacokinetics database, PK-DB, which contains curated data from over 600 clinical studies. Our models can be individualized and stratified, allowing us to simulate the effect of lifestyle factors and co-administration on drug metabolism.
-We have applied our models to various clinical questions, such as simulating individual outcomes after hepatectomy using an indocyanine green model and studying the effect of CYP2D6 gene variants using a model of dextromethorphan coupled with drug-gene interactions. These models are constructed hierarchically, describing metabolism and other biological processes of organs such as liver and kidney coupled to whole-body physiology. All models and data are available for reuse in a reproducible manner encoded in the Systems Biology Markup Language (SBML).
-One of the major challenges in PBPK modeling is the integration of these models with cellular and continuum-biomechanical models. By coupling PBPK models with these models, it becomes possible to provide drug concentrations at the site of action as boundary conditions and time-varying inputs to continuum-biomechanical models. This approach enables us to study the impact of systemic chemotherapy on tumor growth or to investigate changes in perfusion and pressure at the whole-body level on transport and biomechanical properties at the tissue scale.
-To demonstrate the effectiveness of this approach, we present an example of PBPK modeling coupled with a multiscale and multiphase continuum-biomechanical model for the liver. Our model integrates partial differential equations (PDE) on the lobular scale with ordinary differential equations (ODE) on the cellular and whole-body scale, resulting in a PDE-ODE coupling. In our showcase, we investigate the drug metabolization process in the liver, considering the possible damage to the liver tissue due to necrosis caused by a toxic side product. The substrates and products of this process can be transported via the systemic circulation and be removed by the kidneys. By coupling PBPK models with continuum-biomechanical models, we can study the transport and biomechanical properties of these substances at both the tissue and whole-body levels. This coupling approach provides a promising method for studying drug metabolism and its effect on the human body at multiple scales, ranging from cellular to whole-body.
-Our approach allows us to investigate the impact of this drug metabolization process on the liver tissue and how it affects the overall functioning of the body. Additionally, we can study the impact of various factors, such as different drug dosages, on this process and determine the optimal drug dosage for a given patient. This integrated approach provides a comprehensive understanding of the drug metabolization process and its impact on the human body, paving the way for more effective drug development and personalized medicine.
-[1] https://doi.org/10.1093/nar/gkaa990
-[2] https://doi.org/10.3389/fphar.2021.752826
-[3] https://doi.org/10.3389/fphys.2021.730418
-[4] https://doi.org/10.3389/fphys.2021.757293
-[5] https://doi.org/10.1101/2022.08.23.504981</t>
+          <t>ICCB2023 - X International Conference on Computational Bioengineering</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ICCB2023 - X International Conference on Computational Bioengineering</t>
+          <t>9/22/2023</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>9/22/2023</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König, Steffen Gerhäusser, Luis Mandl, Lena Lambers, Uta Dahmen, Hans-Michael Tautenhahn, Tim Ricken</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
-        <is>
-          <t>Matthias König, Steffen Gerhäusser, Luis Mandl, Lena Lambers, Uta Dahmen, Hans-Michael Tautenhahn, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
         <is>
           <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn, SimLivA, ATLAS</t>
         </is>
@@ -5979,31 +5083,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Essential prerequisites for the practical application and translation of computational models include: i) reproducibility of results; ii) model reusability and extensibility; iii) data availability; and iv) strategies for model stratification and individualization. Here, we present a modeling workflow built around these foundational prerequisites, with a focus on liver function tests.
-Despite the paramount significance of liver function assessment in hepatology, reliable quantification remains a clinical challenge. Dynamic liver function tests offer a promising method for non-invasive in vivo assessment of liver function and metabolic phenotyping. 
-By leveraging whole-body physiologically-based pharmacokinetic (PBPK) models, we're simulating these tests and positioning PBPK models as digital twins for metabolic phenotyping and liver function assessment. To develop and validate our models, we established the open pharmacokinetics database, PK-DB, containing curated data from 600+ clinical studies. Our models are individualizable and stratifiable, enabling simulation of lifestyle factors and co-administration effects on drug metabolism. Our models have been instrumental in clinical scenarios: from predicting individual outcomes post-hepatectomy to discerning the impact of CYP2D6 gene variants on liver function tests. These models are constructed hierarchically, describing metabolic and other biological processes in organs like the liver and kidneys, seamlessly integrated with whole-body physiology. 
-Notably, all models and data are readily available and reproducible for reuse, encoded in the Systems Biology Markup Language (SBML). We will provide an overview of these PBPK models and demonstrate how SBML and FAIR principles can facilitate model development, coupling, and reuse.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
           <t>ITB - Institute for Theoretical Biology, Humboldt-University Berlin</t>
         </is>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="D33" s="2" t="n">
         <v>45209</v>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
-        <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
         <is>
           <t>P3 - König, SimLivA, ATLAS</t>
         </is>
@@ -6022,31 +5118,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Essential prerequisites for the practical application and translation of computational models include: i) reproducibility of results; ii) model reusability and extensibility; iii) data availability; and iv) strategies for model stratification and individualization. Here, we present a modeling workflow built around these foundational prerequisites, with a focus on liver function tests.
-Despite the paramount significance of liver function assessment in hepatology, reliable quantification remains a clinical challenge. Dynamic liver function tests offer a promising method for non-invasive in vivo assessment of liver function and metabolic phenotyping. 
-By leveraging whole-body physiologically-based pharmacokinetic (PBPK) models, we're simulating these tests and positioning PBPK models as digital twins for metabolic phenotyping and liver function assessment. To develop and validate our models, we established the open pharmacokinetics database, PK-DB, containing curated data from 600+ clinical studies. Our models are individualizable and stratifiable, enabling simulation of lifestyle factors and co-administration effects on drug metabolism. Our models have been instrumental in clinical scenarios: from predicting individual outcomes post-hepatectomy to discerning the impact of CYP2D6 gene variants on liver function tests. These models are constructed hierarchically, describing metabolic and other biological processes in organs like the liver and kidneys, seamlessly integrated with whole-body physiology. 
-Notably, all models and data are readily available and reproducible for reuse, encoded in the Systems Biology Markup Language (SBML). We will provide an overview of these PBPK models and demonstrate how SBML and FAIR principles can facilitate model development, coupling, and reuse.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
           <t>e:Med Meeting 2023 on Systems Medicine</t>
         </is>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="D34" s="2" t="n">
         <v>45209</v>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Matthias König</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
-        <is>
-          <t>Matthias König</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
         <is>
           <t>P3 - König, SimLivA, ATLAS</t>
         </is>

--- a/assets/news/results/qualiperf_statistics.xlsx
+++ b/assets/news/results/qualiperf_statistics.xlsx
@@ -1171,8 +1171,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>J Integr Bioinform. 2021 Oct 22;18(3):20210026. doi: 10.1515/jib-2021-0026. PMID: 34674411; PMCID: PMC8573232.
-https://doi.org/10.1515/jib-2021-0026</t>
+          <t>J Integr Bioinform. 2021 Oct 22;18(3):20210026. doi: 10.1515/jib-2021-0026. PMID: 34674411; PMCID: PMC8573232. https://doi.org/10.1515/jib-2021-0026</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1317,8 +1316,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Streptozotocin-Induced Diabetes Causes Changes in
-Serotonin-Positive Neurons in the Small Intestine in Pig Model</t>
+          <t>Streptozotocin-Induced Diabetes Causes Changes in Serotonin-Positive Neurons in the Small Intestine in Pig Model</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1684,8 +1682,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Examples and Counterexamples, 
-https://doi.org/10.1016/j.exco.2022.100087</t>
+          <t>Examples and Counterexamples,  https://doi.org/10.1016/j.exco.2022.100087</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1775,8 +1772,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Periportal steatosis in mice affects distinct parameters of pericentral drug metabolism
-</t>
+          <t xml:space="preserve">Periportal steatosis in mice affects distinct parameters of pericentral drug metabolism </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1827,9 +1823,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Uncertainty with Varying Subsurface Permeabilities Reduced
-Using Coupled Random Field and Extended Theory of Porous
-Media Contaminant Transport Models</t>
+          <t>Uncertainty with Varying Subsurface Permeabilities Reduced Using Coupled Random Field and Extended Theory of Porous Media Contaminant Transport Models</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1879,9 +1873,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Simulation of Contaminant Transport through the Vadose Zone:
-A Continuum Mechanical Approach within the Framework of
-the Extended Theory of Porous Media (eTPM)</t>
+          <t>Simulation of Contaminant Transport through the Vadose Zone: A Continuum Mechanical Approach within the Framework of the Extended Theory of Porous Media (eTPM)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1981,9 +1973,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Critical Evaluation of Discarded Donor Livers 
-in the Eurotransplant Region: Potential 
-Implications for Machine Perfusion</t>
+          <t>Critical Evaluation of Discarded Donor Livers  in the Eurotransplant Region: Potential  Implications for Machine Perfusion</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1993,9 +1983,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>e-ISSN 2329-0358
-© Ann Transplant, 2023; 28: e938132
-DOI: 10.12659/AOT.938132</t>
+          <t>e-ISSN 2329-0358 © Ann Transplant, 2023; 28: e938132 DOI: 10.12659/AOT.938132</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -4072,8 +4060,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fast 3D Isotropic High-Resolution MRI of Mouse Brain Using a Variable Flip Angle RARE
-Sequence With T2 Compensation @9.4T</t>
+          <t>Fast 3D Isotropic High-Resolution MRI of Mouse Brain Using a Variable Flip Angle RARE Sequence With T2 Compensation @9.4T</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4462,8 +4449,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bayesian estimation shows the merits of reproducible and reusable modeling in systems
-biology</t>
+          <t>Bayesian estimation shows the merits of reproducible and reusable modeling in systems biology</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -4673,8 +4659,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Multiscale and Multiphase Modeling of Function-Perfusion Processes in the Liver
-on Organ, Lobule and Cell Scale</t>
+          <t>Multiscale and Multiphase Modeling of Function-Perfusion Processes in the Liver on Organ, Lobule and Cell Scale</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4892,9 +4877,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Simulation Supported Liver Assessment for Donor Organs (SimLivA) - Con-
-tinuum-Biomechanical Modeling for Staging of Ischemia Reperfusion Injury
-During Liver Transplantation</t>
+          <t>Simulation Supported Liver Assessment for Donor Organs (SimLivA) - Con- tinuum-Biomechanical Modeling for Staging of Ischemia Reperfusion Injury During Liver Transplantation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5162,17 +5145,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Authors</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Journal</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -5194,17 +5177,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Editoring</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Computational Modeling for Liver Surgery and Interventions</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Bruno Christ, Uta Dahmen, Nicole Radde, Tim Ricken</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Frontiers in Physiology</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -5224,15 +5207,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Organization Minisymposium</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Computational Continuum Biomechanics</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Tim Ricken, Oliver Röhrle, Silvia Budday</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" s="2" t="n">
         <v>44773</v>
       </c>
@@ -5250,15 +5237,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Organization Minisymposium</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>CONTINUUM BIOMECHANICS OF ACTIVE SYSTEMS</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Tim Ricken, Oliver Röhrle, Silvia Budday</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" s="2" t="n">
         <v>44717</v>
       </c>
@@ -5276,17 +5267,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Editoring</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Frontiers Research Topic “Multiscale Modeling for the Liver”</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Ho H, Rezaina V, Schwen LO</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.frontiersin.org/research-topics/28431/multiscale-modeling-for-the-liver</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -5306,16 +5297,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Computational biomechanics and biomedical engineering of active
-biological systems – from methods to clinical application</t>
+          <t>Organization Minisymposium</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Computational biomechanics and biomedical engineering of active biological systems – from methods to clinical application</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Christian Bleiler, Lena Lambers, Renate Sachse</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" s="2" t="n">
         <v>44825</v>
       </c>
@@ -5333,17 +5327,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Editoring</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t xml:space="preserve">Progress in Liver Stem Cell Therapy </t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">Christ B, Oertel M </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MDPI </t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -5363,15 +5357,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Accepted project proposal</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t xml:space="preserve">Michael Stifel grant </t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">Lena Lambers, Uta Dahmen </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" s="2" t="n">
         <v>44712</v>
       </c>
@@ -5389,15 +5387,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t xml:space="preserve">Workshop </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Workshop on Computational Models in Biology and Medicine</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicole Radde, Sebastian Höpfl </t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" s="2" t="n">
         <v>44736</v>
       </c>
@@ -5415,15 +5417,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Miscellaneous</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Kongresssekretär der Jahrestagung der mittelseutschen Viszeralmedizin</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Hans-Michael Tautenhahn</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>6/10/0022</t>
@@ -5443,15 +5449,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Miscellaneous</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Vorstandsmitglied der Thüringischen Gesellschaft für Chirurgie</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Hans-Michael Tautenhahn</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>6/1/0022</t>
@@ -5471,15 +5481,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Miscellaneous</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>New Project Assistant</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Hans-Michael Tautenhahn</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>8/1/0022</t>
@@ -5499,15 +5513,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t xml:space="preserve">Workshop Leader </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>GmdS/IBS Arbeitsgruppe Mathematical Models in Medicine and Biology</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicole Radde, Ingmar Glauche </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
       <c r="D13" s="2" t="n">
         <v>44760</v>
       </c>
@@ -5525,17 +5543,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Accepted project proposal</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Methodology for the calibration and analysis of stochastic models for heterogeneous intracellular processes with applications in cancer development</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Nicole Radde</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>EXC 2075 - SimTech</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -5555,17 +5573,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Accepted project proposal</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Data-enhanced prediction of organ-specific tumor growth in the liver - a hybrid knowledge and data-driven approach</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Tim Ricken</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>EXC 2075 - SimTech</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -5585,17 +5603,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Editoring</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Editor-in-Chief der Zeitschrift "Zeitschrift für Medizinische Physik" (Journal of Medical Physics) (ISSN 0939-3889)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Jürgen Reichenbach</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>"Zeitschrift für Medizinische Physik" (Journal of Medical Physics) (ISSN 0939-3889)</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -5615,15 +5633,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Computational Modeling of Drug Detoxification – A Systems Medicine Approach</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Matthias König</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
       <c r="D17" s="2" t="n">
         <v>44858</v>
       </c>
@@ -5641,15 +5663,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Accepted project proposal</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t xml:space="preserve">SIMulation supported LIVer Assessment for donor organs (SimLivA) - Continuum-biomechanical modeling for staging of ischemia reperfusion injury during liver transplantation </t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Professorin Dr. Uta Dahmen, Professor Dr.-Ing. Tim Ricken, Privatdozent Dr. Hans-Michael Tautenhahn, Dr. Matthias König</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
       <c r="D18" s="2" t="n">
         <v>44181</v>
       </c>
@@ -5667,16 +5693,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">031L0304X - CompLS - Runde 5 -
-Verbundprojekt: ATLAS - Al and Simulation for Tumor Liver Assessment - Entwicklung eines Systems zur klinischen Entscheidungsunterstützung in der Diagnose und Behandlung von Lebertumoren auf Basis von künstlicher Intelligenz und Simulationen </t>
+          <t>Accepted project proposal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t xml:space="preserve">031L0304X - CompLS - Runde 5 - Verbundprojekt: ATLAS - Al and Simulation for Tumor Liver Assessment - Entwicklung eines Systems zur klinischen Entscheidungsunterstützung in der Diagnose und Behandlung von Lebertumoren auf Basis von künstlicher Intelligenz und Simulationen </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Professor Dr.-Ing. Tim Ricken, Professor Dr. Steffen Staab, Privatdozent Dr. Hans-Michael Tautenhahn, Dr. Matthias König</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
       <c r="D19" s="2" t="n">
         <v>44819</v>
       </c>
@@ -5694,17 +5723,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Editoring</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Elected PEtab editor from March 2023 until March 2026</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>König Matthias</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://petab.readthedocs.io/en/latest/index.html</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -5724,15 +5753,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Accepted project proposal</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>X-Research Group: Physiologically based digital twins for the treatment of hypertension with ACE inhibitors and diuretics</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>König Matthias</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
       <c r="D21" s="2" t="n">
         <v>44969</v>
       </c>
@@ -5750,15 +5783,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Editoring</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>M. König has been elected as PEtab editor (2023-2026)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>König Matthias</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
       <c r="D22" s="2" t="n">
         <v>44964</v>
       </c>
@@ -5776,17 +5813,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Datasets for "Automated Detection of Portal Fields and Central Veins in Whole-Slide Images of Liver Tissue"</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Budelmann D, Laue H, Weis N, Dahmen U, D’Alessandro LA, Biermayer I, Klingmüller U, Ghallab A, Hassan R, Begher-Tibbe B, Hengstler JG, Schwen LO</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Zenodo 2022, doi: 10.5281/zenodo.5726769</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
@@ -5806,17 +5843,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Dataset for "Segmentation of Lipid Droplets in Histological Images"</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Budelmann D, Cao Q, Laue H, Albadry M, Dahmen U, Schwen LO</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Zenodo 2023, doi: 10.5281/zenodo.7802211</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -5836,15 +5873,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Hosting and organization of COMBINE 2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Hosting and organiztion of the Computational Modeling in Biology” Network (COMBINE) meeting 2024 in Stuttgart</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Radde Nicole, Waltemath Dagmar, Höpfl Sebastian</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
       <c r="D25" s="2" t="n">
         <v>45300</v>
       </c>
@@ -5862,15 +5903,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Organization Minisymposium</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>In-silico Models of Coupled Biological Systems</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Radde Nicole</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
       <c r="D26" s="2" t="n">
         <v>45056</v>
       </c>
@@ -5888,15 +5933,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Invited Speaker</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Mathematische Modellbildung des Ischämie-Reperfusionsschadens zur Entscheidungsunterstützung bei Lebertransplantationen</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Mandl L., Gerhäusser S., Lambers L., König M., Tautenhahn H.-M., Dahmen U., Ricken T.</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
           <t>10/28/2023</t>

--- a/assets/news/results/qualiperf_statistics.xlsx
+++ b/assets/news/results/qualiperf_statistics.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,135 +447,123 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>Asset</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>Count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>qualiperf acknowledged</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>qualiperf not acknowledged</t>
+          <t>Qualiperf acknowledged</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>publications</t>
+          <t>Publications</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>33</v>
       </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22 (66.7 %)</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>preprints</t>
+          <t>Preprints</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>9</v>
       </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7 (77.8 %)</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>submissions</t>
+          <t>Submissions</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1 (50.0 %)</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>theses</t>
+          <t>Theses</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0 (0.0 %)</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>posters</t>
+          <t>Posters</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>21</v>
       </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19 (90.5 %)</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>presentations</t>
+          <t>Presentations</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>33</v>
       </c>
-      <c r="C7" t="n">
-        <v>26</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>26 (78.8 %)</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>26</v>
       </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>22</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4 (15.4 %)</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -696,7 +684,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.1515/jib-2021-0020</t>
+          <t>&lt;a href="https://doi.org/ 10.1515/jib-2021-0020"&gt; 10.1515/jib-2021-0020&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -747,7 +735,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10.1515/jib-2021-0021</t>
+          <t>&lt;a href="https://doi.org/10.1515/jib-2021-0021"&gt;10.1515/jib-2021-0021&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -798,7 +786,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10.3389/fphys.2021.733393</t>
+          <t>&lt;a href="https://doi.org/10.3389/fphys.2021.733393"&gt;10.3389/fphys.2021.733393&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -847,7 +835,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.1007/s00419-021-01907-3 </t>
+          <t>&lt;a href="https://doi.org/10.1007/s00419-021-01907-3 "&gt;10.1007/s00419-021-01907-3 &lt;/a&gt;</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -898,7 +886,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.3389/fphys.2021.733868</t>
+          <t>&lt;a href="https://doi.org/ 10.3389/fphys.2021.733868"&gt; 10.3389/fphys.2021.733868&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -949,7 +937,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.1038/s41536-021-00194-4</t>
+          <t>&lt;a href="https://doi.org/ 10.1038/s41536-021-00194-4"&gt; 10.1038/s41536-021-00194-4&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -998,7 +986,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10.1002/pamm.202100190</t>
+          <t>&lt;a href="https://doi.org/10.1002/pamm.202100190"&gt;10.1002/pamm.202100190&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1049,7 +1037,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10.1038/s41392-021-00850-7</t>
+          <t>&lt;a href="https://doi.org/10.1038/s41392-021-00850-7"&gt;10.1038/s41392-021-00850-7&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1098,7 +1086,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10.1016/j.ijsolstr.2021.111412</t>
+          <t>&lt;a href="https://doi.org/10.1016/j.ijsolstr.2021.111412"&gt;10.1016/j.ijsolstr.2021.111412&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1149,7 +1137,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10.3390/metabo12040293</t>
+          <t>&lt;a href="https://doi.org/10.3390/metabo12040293"&gt;10.3390/metabo12040293&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1200,7 +1188,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10.1515/jib-2021-0026</t>
+          <t>&lt;a href="https://doi.org/10.1515/jib-2021-0026"&gt;10.1515/jib-2021-0026&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1251,7 +1239,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10.3389/fphys.2022.859522</t>
+          <t>&lt;a href="https://doi.org/10.3389/fphys.2022.859522"&gt;10.3389/fphys.2022.859522&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1268,9 +1256,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tim Ricken, Lena Lambers, Bruno Christ, Uta Dahmen, Karl-Heinz Herrmann, Matthias
-König, Manja Marz, Nicole Radde, Jürgen R. Reichenbach, Lars Ole Schwen, and
-Hans-Michael Tautenhahn</t>
+          <t>Tim Ricken, Lena Lambers, Bruno Christ, Uta Dahmen, Karl-Heinz Herrmann, Matthias König, Manja Marz, Nicole Radde, Jürgen R. Reichenbach, Lars Ole Schwen, and Hans-Michael Tautenhahn</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1304,7 +1290,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>&lt;a href="https://doi.org/-"&gt;-&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1355,7 +1341,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>10.3390/ijms23094564</t>
+          <t>&lt;a href="https://doi.org/10.3390/ijms23094564"&gt;10.3390/ijms23094564&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1372,7 +1358,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Shaikh B, Smith LP, Vasilescu D, Marupilla G, Wilson M, Agmon E, Agnew H, Andrews SS, Anwar A, Beber ME, Bergmann FT, Brooks D, Brusch L, Calzone L, Choi K, Cooper J, Detloff J, Drawert B, Dumontier M, Ermentrout GB, Faeder JR, Freiburger AP, Fröhlich F, Funahashi A, Garny A, Gennari JH, Gleeson P, Goelzer A, Haiman Z, Hasenauer J, Hellerstein JL, Hermjakob H, Hoops S, Ison JC, Jahn D, Jakubowski HV, Jordan R, Kalaš M, &lt;b&gt;König M&lt;/b&gt;, Liebermeister W, Sheriff RSM, Mandal S, McDougal R, Medley JK, Mendes P, Müller R, Myers CJ, Naldi A, Nguyen TVN, Nickerson DP, Olivier BG, Patoliya D, Paulevé L, Petzold LR, Priya A, Rampadarath AK, Rohwer JM, Saglam AS, Singh D, Sinha A, Snoep J, Sorby H, Spangler R, Starruß J, Thomas PJ, van Niekerk D, Weindl D, Zhang F, Zhukova A, Goldberg AP, Schaff JC, Blinov ML, Sauro HM, Moraru II, Karr JR.</t>
+          <t>Shaikh B, Smith LP, Vasilescu D, Marupilla G, Wilson M, Agmon E, Agnew H, Andrews SS, Anwar A, Beber ME, Bergmann FT, Brooks D, Brusch L, Calzone L, Choi K, Cooper J, Detloff J, Drawert B, Dumontier M, Ermentrout GB, Faeder JR, Freiburger AP, Fröhlich F, Funahashi A, Garny A, Gennari JH, Gleeson P, Goelzer A, Haiman Z, Hasenauer J, Hellerstein JL, Hermjakob H, Hoops S, Ison JC, Jahn D, Jakubowski HV, Jordan R, Kalaš M, König M, Liebermeister W, Sheriff RSM, Mandal S, McDougal R, Medley JK, Mendes P, Müller R, Myers CJ, Naldi A, Nguyen TVN, Nickerson DP, Olivier BG, Patoliya D, Paulevé L, Petzold LR, Priya A, Rampadarath AK, Rohwer JM, Saglam AS, Singh D, Sinha A, Snoep J, Sorby H, Spangler R, Starruß J, Thomas PJ, van Niekerk D, Weindl D, Zhang F, Zhukova A, Goldberg AP, Schaff JC, Blinov ML, Sauro HM, Moraru II, Karr JR.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1406,7 +1392,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>10.1093/nar/gkac331</t>
+          <t>&lt;a href="https://doi.org/10.1093/nar/gkac331"&gt;10.1093/nar/gkac331&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1423,8 +1409,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sandra Nickel, Madlen Christ, Sandra Schmidt, Joanna Kosacka, Hagen Kühne, Martin Roderfeld,
-Thomas Longerich, Lysann Tietze, Ina Bosse, Mei‐Ju Hsu, Peggy Stock, Elke Roeb, Bruno Christ</t>
+          <t>Sandra Nickel, Madlen Christ, Sandra Schmidt, Joanna Kosacka, Hagen Kühne, Martin Roderfeld, Thomas Longerich, Lysann Tietze, Ina Bosse, Mei‐Ju Hsu, Peggy Stock, Elke Roeb, Bruno Christ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1458,7 +1443,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10.3390/cells11111829</t>
+          <t>&lt;a href="https://doi.org/10.3390/cells11111829"&gt;10.3390/cells11111829&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1509,7 +1494,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.1021/acssynbio.2c00118</t>
+          <t>&lt;a href="https://doi.org/ 10.1021/acssynbio.2c00118"&gt; 10.1021/acssynbio.2c00118&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1558,7 +1543,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10.1016/j.ifacol.2023.01.020</t>
+          <t>&lt;a href="https://doi.org/10.1016/j.ifacol.2023.01.020"&gt;10.1016/j.ifacol.2023.01.020&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1609,7 +1594,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10.1007/s00104-022-01665-0</t>
+          <t>&lt;a href="https://doi.org/10.1007/s00104-022-01665-0"&gt;10.1007/s00104-022-01665-0&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1660,7 +1645,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.1093/bioinformatics/btac501</t>
+          <t>&lt;a href="https://doi.org/ 10.1093/bioinformatics/btac501"&gt; 10.1093/bioinformatics/btac501&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1709,7 +1694,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>10.1016/j.exco.2022.100087</t>
+          <t>&lt;a href="https://doi.org/10.1016/j.exco.2022.100087"&gt;10.1016/j.exco.2022.100087&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1760,7 +1745,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>10.1093/bioinformatics/btac770</t>
+          <t>&lt;a href="https://doi.org/10.1093/bioinformatics/btac770"&gt;10.1093/bioinformatics/btac770&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1811,7 +1796,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10.1038/s41598-022-26483-6</t>
+          <t>&lt;a href="https://doi.org/10.1038/s41598-022-26483-6"&gt;10.1038/s41598-022-26483-6&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1828,8 +1813,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S. M. Seyedpour, C. Henning, P. Kirmizakis, S. Herbrandt, K. Ickstadt, R. Doherty
-and T. Ricken</t>
+          <t>S. M. Seyedpour, C. Henning, P. Kirmizakis, S. Herbrandt, K. Ickstadt, R. Doherty and T. Ricken</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1861,7 +1845,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10.3390/w15010159</t>
+          <t>&lt;a href="https://doi.org/10.3390/w15010159"&gt;10.3390/w15010159&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1910,7 +1894,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>10.3390/w15020343</t>
+          <t>&lt;a href="https://doi.org/10.3390/w15020343"&gt;10.3390/w15020343&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1961,7 +1945,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>10.1038/s41598-023-29340-2</t>
+          <t>&lt;a href="https://doi.org/10.1038/s41598-023-29340-2"&gt;10.1038/s41598-023-29340-2&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2012,7 +1996,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10.12659/AOT.938132</t>
+          <t>&lt;a href="https://doi.org/ 10.12659/AOT.938132"&gt; 10.12659/AOT.938132&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2063,7 +2047,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10.1515/jib-2023-0004</t>
+          <t>&lt;a href="https://doi.org/10.1515/jib-2023-0004"&gt;10.1515/jib-2023-0004&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2114,7 +2098,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.3389/fbioe.2023.1179980 </t>
+          <t>&lt;a href="https://doi.org/10.3389/fbioe.2023.1179980 "&gt;10.3389/fbioe.2023.1179980 &lt;/a&gt;</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2165,7 +2149,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>10.1016/j.jpi.2022.100001</t>
+          <t>&lt;a href="https://doi.org/10.1016/j.jpi.2022.100001"&gt;10.1016/j.jpi.2022.100001&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2216,7 +2200,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>10.1002/jmri.28698</t>
+          <t>&lt;a href="https://doi.org/10.1002/jmri.28698"&gt;10.1002/jmri.28698&lt;/a&gt;</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2267,7 +2251,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.3389/fendo.2023.1185656 </t>
+          <t>&lt;a href="https://doi.org/10.3389/fendo.2023.1185656 "&gt;10.3389/fendo.2023.1185656 &lt;/a&gt;</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2318,7 +2302,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">10.1038/s41598-023-42141-x </t>
+          <t>&lt;a href="https://doi.org/10.1038/s41598-023-42141-x "&gt;10.1038/s41598-023-42141-x &lt;/a&gt;</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2430,7 +2414,7 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10.20944/preprints202108.0303.v1</t>
+          <t>&lt;a href="https://doi.org/10.20944/preprints202108.0303.v1"&gt;10.20944/preprints202108.0303.v1&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2455,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10.48550/arXiv.2106.00844</t>
+          <t>&lt;a href="https://doi.org/10.48550/arXiv.2106.00844"&gt;10.48550/arXiv.2106.00844&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -2483,8 +2467,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Matthias König* , Leandro H. Watanabe, Jan Grzegorzewski, Chris J.
-Myers</t>
+          <t>Matthias König* , Leandro H. Watanabe, Jan Grzegorzewski, Chris J. Myers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2513,7 +2496,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10.1101/245076</t>
+          <t>&lt;a href="https://doi.org/10.1101/245076"&gt;10.1101/245076&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2537,7 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10.20944/preprints202206.0137.v1</t>
+          <t>&lt;a href="https://doi.org/10.20944/preprints202206.0137.v1"&gt;10.20944/preprints202206.0137.v1&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2578,7 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10.1101/2023.02.01.23285358</t>
+          <t>&lt;a href="https://doi.org/10.1101/2023.02.01.23285358"&gt;10.1101/2023.02.01.23285358&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2590,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mihail Anton, Eivind Almaas, Rui Benfeitas, Sara Benito-Vaquerizo, Lars M. Blank, Andreas Dräger, John M. Hancock, Cheewin Kittikunapong, &lt;b&gt;Matthias König&lt;/b&gt;, Feiran Li, Ulf W. Liebal, Hongzhong Lu, Hongwu Ma, Radhakrishnan Mahadevan, Adil Mardinoglu, Jens Nielsen, Juan Nogales, Marco Pagni, Jason A. Papin, Kiran Raosaheb Patil, Nathan D. Price, Jonathan L. Robinson, Benjamín J. Sánchez, Maria Suarez-Diez, Snorre Sulheim, L. Thomas Svensson, Bas Teusink, Wanwipa Vongsangnak, Hao Wang, Ahmad A. Zeidan, Eduard J. Kerkhoven</t>
+          <t>Mihail Anton, Eivind Almaas, Rui Benfeitas, Sara Benito-Vaquerizo, Lars M. Blank, Andreas Dräger, John M. Hancock, Cheewin Kittikunapong, Matthias König, Feiran Li, Ulf W. Liebal, Hongzhong Lu, Hongwu Ma, Radhakrishnan Mahadevan, Adil Mardinoglu, Jens Nielsen, Juan Nogales, Marco Pagni, Jason A. Papin, Kiran Raosaheb Patil, Nathan D. Price, Jonathan L. Robinson, Benjamín J. Sánchez, Maria Suarez-Diez, Snorre Sulheim, L. Thomas Svensson, Bas Teusink, Wanwipa Vongsangnak, Hao Wang, Ahmad A. Zeidan, Eduard J. Kerkhoven</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2636,7 +2619,7 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10.1101/2023.03.21.512712</t>
+          <t>&lt;a href="https://doi.org/10.1101/2023.03.21.512712"&gt;10.1101/2023.03.21.512712&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -2656,10 +2639,8 @@
           <t>bioRxiv 2023.04.12.536571; doi: https://doi.org/10.1101/2023.04.12.536571</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4/14/2023</t>
-        </is>
+      <c r="D8" s="2" t="n">
+        <v>45030</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2679,7 +2660,7 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10.1101/2023.04.12.536571</t>
+          <t>&lt;a href="https://doi.org/10.1101/2023.04.12.536571"&gt;10.1101/2023.04.12.536571&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -2699,10 +2680,8 @@
           <t>osfpreprints 2023.04.12.536571 doi: 10.31219/osf.io/kcvra</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5/28/2023</t>
-        </is>
+      <c r="D9" s="2" t="n">
+        <v>45074</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2722,7 +2701,7 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10.31219/osf.io/kcvra</t>
+          <t>&lt;a href="https://doi.org/10.31219/osf.io/kcvra"&gt;10.31219/osf.io/kcvra&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2742,7 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10.21203/rs.3.rs-3348101/v1</t>
+          <t>&lt;a href="https://doi.org/10.21203/rs.3.rs-3348101/v1"&gt;10.21203/rs.3.rs-3348101/v1&lt;/a&gt;</t>
         </is>
       </c>
     </row>
@@ -3031,10 +3010,8 @@
           <t>Lambers, Lena</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3/21/2023</t>
-        </is>
+      <c r="D4" s="2" t="n">
+        <v>45006</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3068,10 +3045,8 @@
           <t>Beatrice Stemmer Mallol, Matthias König (supervisor)</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7/17/2023</t>
-        </is>
+      <c r="D5" s="2" t="n">
+        <v>45124</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3336,10 +3311,8 @@
           <t>SimTech Status Seminar 2022, Bad Boll</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7/5/0022</t>
-        </is>
+      <c r="D6" s="2" t="n">
+        <v>44747</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -3688,10 +3661,8 @@
           <t>EASL European Association for the Study of the Liver, https://www.easlcongress.eu,</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6/24/2023</t>
-        </is>
+      <c r="D16" s="2" t="n">
+        <v>45101</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3725,10 +3696,8 @@
           <t>33., Wilseder Workshop von Biotest- Individulaisierte Therapie von Lebererkrnakungen, https://www.biotest-wilsede.de,</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6/28/2023</t>
-        </is>
+      <c r="D17" s="2" t="n">
+        <v>45105</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3762,10 +3731,8 @@
           <t>Workshop on Computational Models in Biology and Medicine 2023</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6/15/2023</t>
-        </is>
+      <c r="D18" s="2" t="n">
+        <v>45092</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3826,8 +3793,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wan-Ting Zhao, Karl-Heinz Herrmann, Jürgen R. Reichenbach and Verena Hoerr
-</t>
+          <t xml:space="preserve">Wan-Ting Zhao, Karl-Heinz Herrmann, Jürgen R. Reichenbach and Verena Hoerr </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3853,13 +3819,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>39th European Society for Magnetic Resonance in Medicine and Biology, Basel, Switzerland. Poster</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+          <t>39th European Society for Magnetic Resonance in Medicine and Biology, Basel, Switzerland. Poster LB280</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45056</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Wan-Ting Zhao, Weiwei Wei, Karl-Heinz Herrmann, Uta Dahmen, Jürgen R. Reichenbach</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>P2 - Dahmen, P6 - Reichenbach</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4136,8 +4116,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15th World Congress on Computational Mechanics (WCCM-XV)
-8th Asian Pacific Congress on Computational Mechanics (APCOM-VIII)</t>
+          <t>15th World Congress on Computational Mechanics (WCCM-XV) 8th Asian Pacific Congress on Computational Mechanics (APCOM-VIII)</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -4175,10 +4154,8 @@
           <t>Jahrestagung der mitteldeutschen Viszeralmedizin</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6/10/0022</t>
-        </is>
+      <c r="D8" s="2" t="n">
+        <v>44722</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -4239,8 +4216,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lena Lambers, Steffen Gerhäusser, Luis Mandl, André Mielke
-and Tim Ricken</t>
+          <t>Lena Lambers, Steffen Gerhäusser, Luis Mandl, André Mielke and Tim Ricken</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4388,10 +4364,8 @@
           <t>Combine Meeting, Satellite Event to the ICSB Conference, October 6-7, 2022, Berlin</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10/6/0022</t>
-        </is>
+      <c r="D14" s="2" t="n">
+        <v>44840</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -4425,10 +4399,8 @@
           <t>3rd EnzymeML Workshop, October 18-19, 2022, Rüdesheim</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10/18/0022</t>
-        </is>
+      <c r="D15" s="2" t="n">
+        <v>44852</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -4707,10 +4679,8 @@
           <t>MBM2023 - Workshop on Modelling in Biology and Medicine - https://mbm.systemsbiology.se</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5/17/2023</t>
-        </is>
+      <c r="D23" s="2" t="n">
+        <v>45063</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -4744,10 +4714,8 @@
           <t>ISMB/ECCB 2023 Conference on Intelligent Systems for Molecular Biology (ISMB) and European Conference on Computational Biology (ECCB)</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7/24/2023</t>
-        </is>
+      <c r="D24" s="2" t="n">
+        <v>45131</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -4816,10 +4784,8 @@
           <t>93. Jahrestagung der Gesellschaft für angewandte Mathematik und Mechanik (GAMM), Dresden</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5/30/2023</t>
-        </is>
+      <c r="D26" s="2" t="n">
+        <v>45076</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -4853,10 +4819,8 @@
           <t>Workshop on Computational Models in Biology and Medicine 2023</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6/16/2023</t>
-        </is>
+      <c r="D27" s="2" t="n">
+        <v>45093</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -4960,10 +4924,8 @@
           <t>X International Conference on Computational Bioengineering, Wien, 20.-22.09.2023, https://iccb2023.conf.tuwien.ac.at/</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>9/22/2023</t>
-        </is>
+      <c r="D30" s="2" t="n">
+        <v>45191</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -5032,10 +4994,8 @@
           <t>ICCB2023 - X International Conference on Computational Bioengineering</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>9/22/2023</t>
-        </is>
+      <c r="D32" s="2" t="n">
+        <v>45191</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -5430,10 +5390,8 @@
           <t>Hans-Michael Tautenhahn</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6/10/0022</t>
-        </is>
+      <c r="D10" s="2" t="n">
+        <v>44722</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -5462,10 +5420,8 @@
           <t>Hans-Michael Tautenhahn</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6/1/0022</t>
-        </is>
+      <c r="D11" s="2" t="n">
+        <v>44713</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -5494,10 +5450,8 @@
           <t>Hans-Michael Tautenhahn</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8/1/0022</t>
-        </is>
+      <c r="D12" s="2" t="n">
+        <v>44774</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -5946,10 +5900,8 @@
           <t>Mandl L., Gerhäusser S., Lambers L., König M., Tautenhahn H.-M., Dahmen U., Ricken T.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>10/28/2023</t>
-        </is>
+      <c r="D27" s="2" t="n">
+        <v>45227</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>

--- a/assets/news/results/qualiperf_statistics.xlsx
+++ b/assets/news/results/qualiperf_statistics.xlsx
@@ -679,8 +679,10 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>34668356</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/34668356/"&gt;34668356&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -730,8 +732,10 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v>35330701</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/35330701/"&gt;35330701&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -781,8 +785,10 @@
           <t>P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v>34630152</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/34630152/"&gt;34630152&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -832,7 +838,11 @@
           <t>P6 - Reichenbach, P7 - Ricken, P9 - Tautenhahn, Coordination</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov//"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.1007/s00419-021-01907-3 "&gt;10.1007/s00419-021-01907-3 &lt;/a&gt;</t>
@@ -881,8 +891,10 @@
           <t>P1 - Christ, P2 - Dahmen, P3 - König, P4 - Marz, P5 - Radde, P6 - Reichenbach, P7 - Ricken, P8 - Schwen, P9 - Tautenhahn, Coordination</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v>34867441</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/34867441/"&gt;34867441&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -932,8 +944,10 @@
           <t>P1 - Christ, P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v>34862411</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/34862411/"&gt;34862411&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -983,7 +997,11 @@
           <t>P7 - Ricken, Coordination</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov//"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.1002/pamm.202100190"&gt;10.1002/pamm.202100190&lt;/a&gt;</t>
@@ -1032,8 +1050,10 @@
           <t>P1 - Christ</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v>34921132</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/34921132/"&gt;34921132&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1083,7 +1103,11 @@
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov//"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.1016/j.ijsolstr.2021.111412"&gt;10.1016/j.ijsolstr.2021.111412&lt;/a&gt;</t>
@@ -1132,8 +1156,10 @@
           <t>P1 - Christ</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v>35448480</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/35448480/"&gt;35448480&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1183,8 +1209,10 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>34674411</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/34674411/"&gt;34674411&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1234,8 +1262,10 @@
           <t>P1 - Christ, P2 - Dahmen, P5 - Radde, P7 - Ricken</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>35242057</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/35242057/"&gt;35242057&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1287,7 +1317,11 @@
           <t>P1 - Christ, P2 - Dahmen, P3 - König, P4 - Marz, P5 - Radde, P6 - Reichenbach, P7 - Ricken, P8 - Schwen, P9 - Tautenhahn, Coordination</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov//"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/-"&gt;-&lt;/a&gt;</t>
@@ -1336,8 +1370,10 @@
           <t>P1 - Christ</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>35562954</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/35562954/"&gt;35562954&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1387,8 +1423,10 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>35524558</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/35524558/"&gt;35524558&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1438,8 +1476,10 @@
           <t>P1 - Christ</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>35681524</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/35681524/"&gt;35681524&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1489,8 +1529,10 @@
           <t>P5 - Radde</t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>35749318</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/35749318/"&gt;35749318&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1540,7 +1582,11 @@
           <t>P5 - Radde</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov//"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.1016/j.ifacol.2023.01.020"&gt;10.1016/j.ifacol.2023.01.020&lt;/a&gt;</t>
@@ -1589,8 +1635,10 @@
           <t>P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>35771270</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/35771270/"&gt;35771270&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1640,8 +1688,10 @@
           <t>P5 - Radde</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>35916726</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/35916726/"&gt;35916726&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1691,7 +1741,11 @@
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov//"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.1016/j.exco.2022.100087"&gt;10.1016/j.exco.2022.100087&lt;/a&gt;</t>
@@ -1740,8 +1794,10 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="I23" t="n">
-        <v>36478036</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/36478036/"&gt;36478036&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1791,8 +1847,10 @@
           <t>P1 - Christ, P2 - Dahmen, P3 - König, P5 - Radde, P8 - Schwen</t>
         </is>
       </c>
-      <c r="I24" t="n">
-        <v>36528753</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/36528753/"&gt;36528753&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1842,7 +1900,11 @@
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov//"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.3390/w15010159"&gt;10.3390/w15010159&lt;/a&gt;</t>
@@ -1891,7 +1953,11 @@
           <t>P7 - Ricken</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov//"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.3390/w15020343"&gt;10.3390/w15020343&lt;/a&gt;</t>
@@ -1940,8 +2006,10 @@
           <t>P5 - Radde</t>
         </is>
       </c>
-      <c r="I27" t="n">
-        <v>36792648</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/36792648/"&gt;36792648&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1991,8 +2059,10 @@
           <t>P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="I28" t="n">
-        <v>36927714</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/36927714/"&gt;36927714&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2042,8 +2112,10 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="I29" t="n">
-        <v>36989443</v>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/36989443/"&gt;36989443&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2093,8 +2165,10 @@
           <t>P8 - Schwen</t>
         </is>
       </c>
-      <c r="I30" t="n">
-        <v>37122862</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/37122862/"&gt;37122862&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2144,8 +2218,10 @@
           <t>Stea-PK Mod</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>35242441</v>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/35242441/"&gt;35242441&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2195,8 +2271,10 @@
           <t>P6 - Reichenbach</t>
         </is>
       </c>
-      <c r="I32" t="n">
-        <v>37026419</v>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/37026419/"&gt;37026419&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2246,8 +2324,10 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="I33" t="n">
-        <v>37600713</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/37600713/"&gt;37600713&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2297,8 +2377,10 @@
           <t>P7 - Ricken, SimLivA, ATLAS</t>
         </is>
       </c>
-      <c r="I34" t="n">
-        <v>37730743</v>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>&lt;a href="https://pubmed.ncbi.nlm.nih.gov/37730743/"&gt;37730743&lt;/a&gt;</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2322,7 +2404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2368,11 +2450,6 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Pubmed</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>DOI</t>
         </is>
       </c>
@@ -2411,8 +2488,7 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.20944/preprints202108.0303.v1"&gt;10.20944/preprints202108.0303.v1&lt;/a&gt;</t>
         </is>
@@ -2452,8 +2528,7 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.48550/arXiv.2106.00844"&gt;10.48550/arXiv.2106.00844&lt;/a&gt;</t>
         </is>
@@ -2493,8 +2568,7 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.1101/245076"&gt;10.1101/245076&lt;/a&gt;</t>
         </is>
@@ -2534,8 +2608,7 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.20944/preprints202206.0137.v1"&gt;10.20944/preprints202206.0137.v1&lt;/a&gt;</t>
         </is>
@@ -2575,8 +2648,7 @@
           <t>P3 - König, P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.1101/2023.02.01.23285358"&gt;10.1101/2023.02.01.23285358&lt;/a&gt;</t>
         </is>
@@ -2616,8 +2688,7 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.1101/2023.03.21.512712"&gt;10.1101/2023.03.21.512712&lt;/a&gt;</t>
         </is>
@@ -2657,8 +2728,7 @@
           <t>P3 - König, P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.1101/2023.04.12.536571"&gt;10.1101/2023.04.12.536571&lt;/a&gt;</t>
         </is>
@@ -2698,8 +2768,7 @@
           <t>P3 - König</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.31219/osf.io/kcvra"&gt;10.31219/osf.io/kcvra&lt;/a&gt;</t>
         </is>
@@ -2739,8 +2808,7 @@
           <t>P2 - Dahmen, P3 - König, P7 - Ricken, P9 - Tautenhahn</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>&lt;a href="https://doi.org/10.21203/rs.3.rs-3348101/v1"&gt;10.21203/rs.3.rs-3348101/v1&lt;/a&gt;</t>
         </is>
@@ -2757,7 +2825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2778,25 +2846,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Journal</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Qualiperf</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Qualiperf</t>
+          <t>Authors Qualiperf</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Authors Qualiperf</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Projects</t>
         </is>
@@ -2813,25 +2876,20 @@
           <t xml:space="preserve">*Wagner Vincent, *Höpfl Sebastian, Klingel Viviane, Pop Maria C. , Radde Nicole E. </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>IFAC-PapersOnline series, https://www.sciencedirect.com/journal/ifac-papersonline</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C2" s="2" t="n">
         <v>44664</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Sebastian Höpfl, Nicole Erika Radde</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>Sebastian Höpfl, Nicole Erika Radde</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>P5 - Radde</t>
         </is>
@@ -2848,21 +2906,20 @@
           <t>Budelmann D, Cao Q, Laue H, Albadry M, Dahmen U, Schwen LO</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" s="2" t="n">
+      <c r="C3" s="2" t="n">
         <v>45081</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>(None received QuaLiPerF funding for this work)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>(None received QuaLiPerF funding for this work)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>Stea-PK Mod</t>
         </is>

--- a/assets/news/results/qualiperf_statistics.xlsx
+++ b/assets/news/results/qualiperf_statistics.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,16 @@
           <t>Qualiperf acknowledged</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -475,6 +485,12 @@
           <t>22 (66.7 %)</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -490,6 +506,12 @@
           <t>7 (77.8 %)</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -505,6 +527,12 @@
           <t>1 (50.0 %)</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -520,6 +548,12 @@
           <t>0 (0.0 %)</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -535,6 +569,12 @@
           <t>19 (90.5 %)</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -550,6 +590,12 @@
           <t>26 (78.8 %)</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>26</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -564,6 +610,12 @@
         <is>
           <t>4 (15.4 %)</t>
         </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
